--- a/Dokumente/zeitplan.xlsx
+++ b/Dokumente/zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C097717A-7422-4C0E-A9A7-D92670C59D0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE4CAA-D52E-408B-ADAA-2ECC6FC2FB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="462" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8592" yWindow="822" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Zeitplan</t>
   </si>
@@ -70,18 +70,6 @@
   </si>
   <si>
     <t>Differenz</t>
-  </si>
-  <si>
-    <t>1.3 Aktivität</t>
-  </si>
-  <si>
-    <t>1.4 Aktivität</t>
-  </si>
-  <si>
-    <t>1.6 Aktivität</t>
-  </si>
-  <si>
-    <t>1.5 Aktivität</t>
   </si>
   <si>
     <t>2.1 Aktivität</t>
@@ -240,6 +228,21 @@
       </rPr>
       <t>: 09.06.20 - 26.01.2021</t>
     </r>
+  </si>
+  <si>
+    <t>1.3 Aufgabenstellung Erarbeiten</t>
+  </si>
+  <si>
+    <t>1.5 Nachführen des Arbeitsjournals</t>
+  </si>
+  <si>
+    <t>1.6 Erstellen der Hermes Strucktur</t>
+  </si>
+  <si>
+    <t>1.7 Erstellen des Arbeitsplans</t>
+  </si>
+  <si>
+    <t>1.4 Erstellung der Dokument und Ablagevorlagen</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -547,6 +550,15 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,54 +567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,6 +578,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -896,16 +905,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:CP64"/>
+  <dimension ref="A2:CP66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="133" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.1015625" customWidth="1"/>
-    <col min="2" max="2" width="3.41796875" customWidth="1"/>
+    <col min="1" max="1" width="0.15625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0.47265625" customWidth="1"/>
     <col min="3" max="3" width="40.89453125" customWidth="1"/>
     <col min="4" max="6" width="4.68359375" customWidth="1"/>
     <col min="7" max="94" width="2.20703125" customWidth="1"/>
@@ -915,353 +925,353 @@
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="3:94" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="42"/>
+        <v>59</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="3:94" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="39" t="s">
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="39" t="s">
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="39" t="s">
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="38" t="s">
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38" t="s">
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38" t="s">
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38" t="s">
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38" t="s">
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38" t="s">
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38" t="s">
+      <c r="BL4" s="29"/>
+      <c r="BM4" s="29"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38" t="s">
+      <c r="BP4" s="29"/>
+      <c r="BQ4" s="29"/>
+      <c r="BR4" s="29"/>
+      <c r="BS4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38" t="s">
+      <c r="BT4" s="29"/>
+      <c r="BU4" s="29"/>
+      <c r="BV4" s="29"/>
+      <c r="BW4" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38" t="s">
+      <c r="BX4" s="29"/>
+      <c r="BY4" s="29"/>
+      <c r="BZ4" s="29"/>
+      <c r="CA4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38" t="s">
+      <c r="CB4" s="29"/>
+      <c r="CC4" s="29"/>
+      <c r="CD4" s="29"/>
+      <c r="CE4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
+      <c r="CF4" s="29"/>
+      <c r="CG4" s="29"/>
+      <c r="CH4" s="29"/>
+      <c r="CI4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="CJ4" s="29"/>
+      <c r="CK4" s="29"/>
+      <c r="CL4" s="29"/>
+      <c r="CM4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="CN4" s="29"/>
+      <c r="CO4" s="29"/>
+      <c r="CP4" s="29"/>
     </row>
     <row r="5" spans="3:94" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="41"/>
-      <c r="W5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV5" s="41"/>
-      <c r="BW5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="CF5" s="41"/>
-      <c r="CG5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="CH5" s="41"/>
-      <c r="CI5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="CJ5" s="41"/>
-      <c r="CK5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="CL5" s="41"/>
-      <c r="CM5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="CN5" s="41"/>
-      <c r="CO5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="CP5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="31"/>
+      <c r="W5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF5" s="31"/>
+      <c r="BG5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH5" s="31"/>
+      <c r="BI5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ5" s="31"/>
+      <c r="BK5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN5" s="31"/>
+      <c r="BO5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR5" s="31"/>
+      <c r="BS5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT5" s="31"/>
+      <c r="BU5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV5" s="31"/>
+      <c r="BW5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX5" s="31"/>
+      <c r="BY5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ5" s="31"/>
+      <c r="CA5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="CD5" s="31"/>
+      <c r="CE5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF5" s="31"/>
+      <c r="CG5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="CH5" s="31"/>
+      <c r="CI5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ5" s="31"/>
+      <c r="CK5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="CL5" s="31"/>
+      <c r="CM5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="CP5" s="31"/>
     </row>
     <row r="6" spans="3:94" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1" t="s">
@@ -1360,31 +1370,31 @@
       <c r="CP6" s="3"/>
     </row>
     <row r="7" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="C7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="45">
         <f>SUM(G7:AT7)</f>
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="34">
+        <v>7</v>
+      </c>
+      <c r="E7" s="45">
         <f>SUM(G8:AT8)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F7" s="34">
+        <v>7</v>
+      </c>
+      <c r="F7" s="45">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="35">
         <v>4.5</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="48">
+      <c r="K7" s="35">
         <v>1</v>
       </c>
-      <c r="L7" s="49"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="9"/>
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
@@ -1403,12 +1413,16 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="9"/>
+      <c r="AE7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="36"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="10"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="9"/>
+      <c r="AI7" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="36"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="10"/>
       <c r="AM7" s="11"/>
@@ -1469,20 +1483,20 @@
       <c r="CP7" s="10"/>
     </row>
     <row r="8" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="36"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="50">
+      <c r="C8" s="44"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="37">
         <v>4.5</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="24"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="50">
+      <c r="K8" s="37">
         <v>1</v>
       </c>
-      <c r="L8" s="51"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="12"/>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
@@ -1501,12 +1515,16 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="12"/>
+      <c r="AE8" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="38"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="13"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="12"/>
+      <c r="AI8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="AJ8" s="38"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="14"/>
@@ -1567,33 +1585,31 @@
       <c r="CP8" s="13"/>
     </row>
     <row r="9" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="C9" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="45">
         <f t="shared" ref="D9" si="0">SUM(G9:AT9)</f>
         <v>3.5</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="45">
         <f t="shared" ref="E9" si="1">SUM(G10:AT10)</f>
         <v>3.5</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="45">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="27"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="L9" s="36"/>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="48">
-        <v>3.5</v>
-      </c>
-      <c r="P9" s="49"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="16"/>
       <c r="S9" s="17"/>
@@ -1674,22 +1690,20 @@
       <c r="CP9" s="16"/>
     </row>
     <row r="10" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="36"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="12"/>
+      <c r="K10" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="L10" s="38"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="P10" s="51"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="13"/>
       <c r="S10" s="14"/>
@@ -1770,18 +1784,18 @@
       <c r="CP10" s="13"/>
     </row>
     <row r="11" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="C11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="45">
         <f t="shared" ref="D11" si="2">SUM(G11:AT11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="E11" s="45">
         <f t="shared" ref="E11" si="3">SUM(G12:AT12)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="45">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
@@ -1793,8 +1807,10 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="15"/>
+      <c r="O11" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="P11" s="36"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="16"/>
       <c r="S11" s="17"/>
@@ -1875,10 +1891,10 @@
       <c r="CP11" s="16"/>
     </row>
     <row r="12" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="36"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -1887,8 +1903,10 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="12"/>
+      <c r="O12" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="P12" s="38"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="14"/>
@@ -1969,18 +1987,18 @@
       <c r="CP12" s="13"/>
     </row>
     <row r="13" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="C13" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="45">
         <f t="shared" ref="D13" si="4">SUM(G13:AT13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="45">
         <f t="shared" ref="E13" si="5">SUM(G14:AT14)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="45">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
@@ -1996,8 +2014,10 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="16"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="15"/>
+      <c r="S13" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="T13" s="36"/>
       <c r="U13" s="15"/>
       <c r="V13" s="16"/>
       <c r="W13" s="17"/>
@@ -2074,10 +2094,10 @@
       <c r="CP13" s="16"/>
     </row>
     <row r="14" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="36"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -2090,8 +2110,10 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="12"/>
+      <c r="S14" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="T14" s="38"/>
       <c r="U14" s="12"/>
       <c r="V14" s="13"/>
       <c r="W14" s="14"/>
@@ -2168,18 +2190,18 @@
       <c r="CP14" s="13"/>
     </row>
     <row r="15" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="34">
+      <c r="C15" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="45">
         <f t="shared" ref="D15" si="6">SUM(G15:AT15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="34">
+        <v>3</v>
+      </c>
+      <c r="E15" s="45">
         <f t="shared" ref="E15" si="7">SUM(G16:AT16)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="34">
+        <v>3</v>
+      </c>
+      <c r="F15" s="45">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>0</v>
       </c>
@@ -2199,12 +2221,16 @@
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="15"/>
+      <c r="W15" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="X15" s="36"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="16"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="15"/>
+      <c r="AA15" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="AB15" s="36"/>
       <c r="AC15" s="15"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="17"/>
@@ -2273,10 +2299,10 @@
       <c r="CP15" s="16"/>
     </row>
     <row r="16" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="36"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -2293,12 +2319,16 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="12"/>
+      <c r="W16" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="X16" s="38"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="12"/>
+      <c r="AA16" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="AB16" s="38"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="14"/>
@@ -2367,18 +2397,18 @@
       <c r="CP16" s="13"/>
     </row>
     <row r="17" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="34">
-        <f t="shared" ref="D17:D32" si="8">SUM(G17:AT17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="34">
-        <f t="shared" ref="E17:E32" si="9">SUM(G18:AT18)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="C17" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" ref="D17:D34" si="8">SUM(G17:AT17)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="45">
+        <f>SUM(G18:AT18)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="45">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>0</v>
       </c>
@@ -2414,8 +2444,10 @@
       <c r="AJ17" s="15"/>
       <c r="AK17" s="15"/>
       <c r="AL17" s="16"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="15"/>
+      <c r="AM17" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="AN17" s="36"/>
       <c r="AO17" s="15"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="17"/>
@@ -2472,504 +2504,512 @@
       <c r="CP17" s="16"/>
     </row>
     <row r="18" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="36"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="9"/>
-      <c r="BA18" s="9"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-      <c r="BF18" s="10"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="9"/>
-      <c r="BI18" s="9"/>
-      <c r="BJ18" s="10"/>
-      <c r="BK18" s="11"/>
-      <c r="BL18" s="9"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="10"/>
-      <c r="BO18" s="11"/>
-      <c r="BP18" s="9"/>
-      <c r="BQ18" s="9"/>
-      <c r="BR18" s="10"/>
-      <c r="BS18" s="11"/>
-      <c r="BT18" s="9"/>
-      <c r="BU18" s="9"/>
-      <c r="BV18" s="10"/>
-      <c r="BW18" s="11"/>
-      <c r="BX18" s="9"/>
-      <c r="BY18" s="9"/>
-      <c r="BZ18" s="10"/>
-      <c r="CA18" s="11"/>
-      <c r="CB18" s="9"/>
-      <c r="CC18" s="9"/>
-      <c r="CD18" s="10"/>
-      <c r="CE18" s="11"/>
-      <c r="CF18" s="9"/>
-      <c r="CG18" s="9"/>
-      <c r="CH18" s="10"/>
-      <c r="CI18" s="11"/>
-      <c r="CJ18" s="9"/>
-      <c r="CK18" s="9"/>
-      <c r="CL18" s="10"/>
-      <c r="CM18" s="11"/>
-      <c r="CN18" s="9"/>
-      <c r="CO18" s="9"/>
-      <c r="CP18" s="10"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="14"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="13"/>
+      <c r="BS18" s="14"/>
+      <c r="BT18" s="12"/>
+      <c r="BU18" s="12"/>
+      <c r="BV18" s="13"/>
+      <c r="BW18" s="14"/>
+      <c r="BX18" s="12"/>
+      <c r="BY18" s="12"/>
+      <c r="BZ18" s="13"/>
+      <c r="CA18" s="14"/>
+      <c r="CB18" s="12"/>
+      <c r="CC18" s="12"/>
+      <c r="CD18" s="13"/>
+      <c r="CE18" s="14"/>
+      <c r="CF18" s="12"/>
+      <c r="CG18" s="12"/>
+      <c r="CH18" s="13"/>
+      <c r="CI18" s="14"/>
+      <c r="CJ18" s="12"/>
+      <c r="CK18" s="12"/>
+      <c r="CL18" s="13"/>
+      <c r="CM18" s="14"/>
+      <c r="CN18" s="12"/>
+      <c r="CO18" s="12"/>
+      <c r="CP18" s="13"/>
     </row>
-    <row r="19" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="18"/>
-      <c r="BD19" s="18"/>
-      <c r="BE19" s="18"/>
-      <c r="BF19" s="19"/>
-      <c r="BG19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BI19" s="18"/>
-      <c r="BJ19" s="19"/>
-      <c r="BK19" s="18"/>
-      <c r="BL19" s="18"/>
-      <c r="BM19" s="18"/>
-      <c r="BN19" s="19"/>
-      <c r="BO19" s="18"/>
-      <c r="BP19" s="18"/>
-      <c r="BQ19" s="18"/>
-      <c r="BR19" s="19"/>
-      <c r="BS19" s="18"/>
-      <c r="BT19" s="18"/>
-      <c r="BU19" s="18"/>
-      <c r="BV19" s="19"/>
-      <c r="BW19" s="18"/>
-      <c r="BX19" s="18"/>
-      <c r="BY19" s="18"/>
-      <c r="BZ19" s="19"/>
-      <c r="CA19" s="18"/>
-      <c r="CB19" s="18"/>
-      <c r="CC19" s="18"/>
-      <c r="CD19" s="19"/>
-      <c r="CE19" s="18"/>
-      <c r="CF19" s="18"/>
-      <c r="CG19" s="18"/>
-      <c r="CH19" s="19"/>
-      <c r="CI19" s="18"/>
-      <c r="CJ19" s="18"/>
-      <c r="CK19" s="18"/>
-      <c r="CL19" s="19"/>
-      <c r="CM19" s="18"/>
-      <c r="CN19" s="18"/>
-      <c r="CO19" s="18"/>
-      <c r="CP19" s="19"/>
+    <row r="19" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="45">
+        <f t="shared" ref="D19:D20" si="9">SUM(G19:AT19)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="45">
+        <f>SUM(G20:AT20)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="45">
+        <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="16"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="16"/>
+      <c r="BK19" s="17"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="17"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="16"/>
+      <c r="BS19" s="17"/>
+      <c r="BT19" s="15"/>
+      <c r="BU19" s="15"/>
+      <c r="BV19" s="16"/>
+      <c r="BW19" s="17"/>
+      <c r="BX19" s="15"/>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="16"/>
+      <c r="CA19" s="17"/>
+      <c r="CB19" s="15"/>
+      <c r="CC19" s="15"/>
+      <c r="CD19" s="16"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="15"/>
+      <c r="CG19" s="15"/>
+      <c r="CH19" s="16"/>
+      <c r="CI19" s="17"/>
+      <c r="CJ19" s="15"/>
+      <c r="CK19" s="15"/>
+      <c r="CL19" s="16"/>
+      <c r="CM19" s="17"/>
+      <c r="CN19" s="15"/>
+      <c r="CO19" s="15"/>
+      <c r="CP19" s="16"/>
     </row>
     <row r="20" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="34">
+      <c r="C20" s="44"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="13"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="13"/>
+      <c r="BO20" s="14"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
+      <c r="BR20" s="13"/>
+      <c r="BS20" s="14"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="13"/>
+      <c r="BW20" s="14"/>
+      <c r="BX20" s="12"/>
+      <c r="BY20" s="12"/>
+      <c r="BZ20" s="13"/>
+      <c r="CA20" s="14"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="13"/>
+      <c r="CE20" s="14"/>
+      <c r="CF20" s="12"/>
+      <c r="CG20" s="12"/>
+      <c r="CH20" s="13"/>
+      <c r="CI20" s="14"/>
+      <c r="CJ20" s="12"/>
+      <c r="CK20" s="12"/>
+      <c r="CL20" s="13"/>
+      <c r="CM20" s="14"/>
+      <c r="CN20" s="12"/>
+      <c r="CO20" s="12"/>
+      <c r="CP20" s="13"/>
+    </row>
+    <row r="21" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="19"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="19"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="19"/>
+      <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="19"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="18"/>
+      <c r="BR21" s="19"/>
+      <c r="BS21" s="18"/>
+      <c r="BT21" s="18"/>
+      <c r="BU21" s="18"/>
+      <c r="BV21" s="19"/>
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="18"/>
+      <c r="BY21" s="18"/>
+      <c r="BZ21" s="19"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="19"/>
+      <c r="CE21" s="18"/>
+      <c r="CF21" s="18"/>
+      <c r="CG21" s="18"/>
+      <c r="CH21" s="19"/>
+      <c r="CI21" s="18"/>
+      <c r="CJ21" s="18"/>
+      <c r="CK21" s="18"/>
+      <c r="CL21" s="19"/>
+      <c r="CM21" s="18"/>
+      <c r="CN21" s="18"/>
+      <c r="CO21" s="18"/>
+      <c r="CP21" s="19"/>
+    </row>
+    <row r="22" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E20" s="34">
-        <f t="shared" si="9"/>
+      <c r="E22" s="45">
+        <f t="shared" ref="E22:E34" si="10">SUM(G23:AT23)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="34">
-        <f>SUM($D$7:D20)-SUM($E$7:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="10"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="9"/>
-      <c r="BI20" s="9"/>
-      <c r="BJ20" s="10"/>
-      <c r="BK20" s="11"/>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="10"/>
-      <c r="BO20" s="11"/>
-      <c r="BP20" s="9"/>
-      <c r="BQ20" s="9"/>
-      <c r="BR20" s="10"/>
-      <c r="BS20" s="11"/>
-      <c r="BT20" s="9"/>
-      <c r="BU20" s="9"/>
-      <c r="BV20" s="10"/>
-      <c r="BW20" s="11"/>
-      <c r="BX20" s="9"/>
-      <c r="BY20" s="9"/>
-      <c r="BZ20" s="10"/>
-      <c r="CA20" s="11"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
-      <c r="CD20" s="10"/>
-      <c r="CE20" s="11"/>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="10"/>
-      <c r="CI20" s="11"/>
-      <c r="CJ20" s="9"/>
-      <c r="CK20" s="9"/>
-      <c r="CL20" s="10"/>
-      <c r="CM20" s="11"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="10"/>
-    </row>
-    <row r="21" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="37"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="12"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="12"/>
-      <c r="BE21" s="12"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="12"/>
-      <c r="BI21" s="12"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="14"/>
-      <c r="BL21" s="12"/>
-      <c r="BM21" s="12"/>
-      <c r="BN21" s="13"/>
-      <c r="BO21" s="14"/>
-      <c r="BP21" s="12"/>
-      <c r="BQ21" s="12"/>
-      <c r="BR21" s="13"/>
-      <c r="BS21" s="14"/>
-      <c r="BT21" s="12"/>
-      <c r="BU21" s="12"/>
-      <c r="BV21" s="13"/>
-      <c r="BW21" s="14"/>
-      <c r="BX21" s="12"/>
-      <c r="BY21" s="12"/>
-      <c r="BZ21" s="13"/>
-      <c r="CA21" s="14"/>
-      <c r="CB21" s="12"/>
-      <c r="CC21" s="12"/>
-      <c r="CD21" s="13"/>
-      <c r="CE21" s="14"/>
-      <c r="CF21" s="12"/>
-      <c r="CG21" s="12"/>
-      <c r="CH21" s="13"/>
-      <c r="CI21" s="14"/>
-      <c r="CJ21" s="12"/>
-      <c r="CK21" s="12"/>
-      <c r="CL21" s="13"/>
-      <c r="CM21" s="14"/>
-      <c r="CN21" s="12"/>
-      <c r="CO21" s="12"/>
-      <c r="CP21" s="13"/>
-    </row>
-    <row r="22" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="F22" s="45">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="16"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="16"/>
-      <c r="AU22" s="17"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="17"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="16"/>
-      <c r="BC22" s="17"/>
-      <c r="BD22" s="15"/>
-      <c r="BE22" s="15"/>
-      <c r="BF22" s="16"/>
-      <c r="BG22" s="17"/>
-      <c r="BH22" s="15"/>
-      <c r="BI22" s="15"/>
-      <c r="BJ22" s="16"/>
-      <c r="BK22" s="17"/>
-      <c r="BL22" s="15"/>
-      <c r="BM22" s="15"/>
-      <c r="BN22" s="16"/>
-      <c r="BO22" s="17"/>
-      <c r="BP22" s="15"/>
-      <c r="BQ22" s="15"/>
-      <c r="BR22" s="16"/>
-      <c r="BS22" s="17"/>
-      <c r="BT22" s="15"/>
-      <c r="BU22" s="15"/>
-      <c r="BV22" s="16"/>
-      <c r="BW22" s="17"/>
-      <c r="BX22" s="15"/>
-      <c r="BY22" s="15"/>
-      <c r="BZ22" s="16"/>
-      <c r="CA22" s="17"/>
-      <c r="CB22" s="15"/>
-      <c r="CC22" s="15"/>
-      <c r="CD22" s="16"/>
-      <c r="CE22" s="17"/>
-      <c r="CF22" s="15"/>
-      <c r="CG22" s="15"/>
-      <c r="CH22" s="16"/>
-      <c r="CI22" s="17"/>
-      <c r="CJ22" s="15"/>
-      <c r="CK22" s="15"/>
-      <c r="CL22" s="16"/>
-      <c r="CM22" s="17"/>
-      <c r="CN22" s="15"/>
-      <c r="CO22" s="15"/>
-      <c r="CP22" s="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="11"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="11"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="10"/>
+      <c r="BO22" s="11"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="10"/>
+      <c r="BS22" s="11"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="10"/>
+      <c r="BW22" s="11"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="10"/>
+      <c r="CA22" s="11"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="10"/>
+      <c r="CE22" s="11"/>
+      <c r="CF22" s="9"/>
+      <c r="CG22" s="9"/>
+      <c r="CH22" s="10"/>
+      <c r="CI22" s="11"/>
+      <c r="CJ22" s="9"/>
+      <c r="CK22" s="9"/>
+      <c r="CL22" s="10"/>
+      <c r="CM22" s="11"/>
+      <c r="CN22" s="9"/>
+      <c r="CO22" s="9"/>
+      <c r="CP22" s="10"/>
     </row>
     <row r="23" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="37"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="14"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -3060,20 +3100,20 @@
       <c r="CP23" s="13"/>
     </row>
     <row r="24" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="34">
+      <c r="C24" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E24" s="34">
-        <f t="shared" si="9"/>
+      <c r="E24" s="45">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="45">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="15"/>
@@ -3165,10 +3205,10 @@
       <c r="CP24" s="16"/>
     </row>
     <row r="25" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="37"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="14"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -3259,20 +3299,20 @@
       <c r="CP25" s="13"/>
     </row>
     <row r="26" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="34">
+      <c r="C26" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E26" s="34">
-        <f t="shared" si="9"/>
+      <c r="E26" s="45">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="45">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="15"/>
@@ -3364,10 +3404,10 @@
       <c r="CP26" s="16"/>
     </row>
     <row r="27" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="37"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="14"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -3458,20 +3498,20 @@
       <c r="CP27" s="13"/>
     </row>
     <row r="28" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="34">
+      <c r="C28" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E28" s="34">
-        <f t="shared" si="9"/>
+      <c r="E28" s="45">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="45">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="15"/>
@@ -3563,10 +3603,10 @@
       <c r="CP28" s="16"/>
     </row>
     <row r="29" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="37"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="14"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -3575,10 +3615,10 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="25"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
       <c r="S29" s="14"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -3657,20 +3697,20 @@
       <c r="CP29" s="13"/>
     </row>
     <row r="30" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="34">
+      <c r="C30" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E30" s="34">
-        <f t="shared" si="9"/>
+      <c r="E30" s="45">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="45">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="15"/>
@@ -3680,10 +3720,10 @@
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="28"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="28"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="16"/>
       <c r="S30" s="17"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
@@ -3762,10 +3802,10 @@
       <c r="CP30" s="16"/>
     </row>
     <row r="31" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="37"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="14"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3856,20 +3896,20 @@
       <c r="CP31" s="13"/>
     </row>
     <row r="32" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="34">
+      <c r="C32" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E32" s="34">
-        <f t="shared" si="9"/>
+      <c r="E32" s="45">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="45">
         <f>SUM($D$7:D32)-SUM($E$7:E32)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="15"/>
@@ -3961,504 +4001,504 @@
       <c r="CP32" s="16"/>
     </row>
     <row r="33" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="37"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="11"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="11"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="11"/>
-      <c r="AZ33" s="9"/>
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="11"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="11"/>
-      <c r="BH33" s="9"/>
-      <c r="BI33" s="9"/>
-      <c r="BJ33" s="10"/>
-      <c r="BK33" s="11"/>
-      <c r="BL33" s="9"/>
-      <c r="BM33" s="9"/>
-      <c r="BN33" s="10"/>
-      <c r="BO33" s="11"/>
-      <c r="BP33" s="9"/>
-      <c r="BQ33" s="9"/>
-      <c r="BR33" s="10"/>
-      <c r="BS33" s="11"/>
-      <c r="BT33" s="9"/>
-      <c r="BU33" s="9"/>
-      <c r="BV33" s="10"/>
-      <c r="BW33" s="11"/>
-      <c r="BX33" s="9"/>
-      <c r="BY33" s="9"/>
-      <c r="BZ33" s="10"/>
-      <c r="CA33" s="11"/>
-      <c r="CB33" s="9"/>
-      <c r="CC33" s="9"/>
-      <c r="CD33" s="10"/>
-      <c r="CE33" s="11"/>
-      <c r="CF33" s="9"/>
-      <c r="CG33" s="9"/>
-      <c r="CH33" s="10"/>
-      <c r="CI33" s="11"/>
-      <c r="CJ33" s="9"/>
-      <c r="CK33" s="9"/>
-      <c r="CL33" s="10"/>
-      <c r="CM33" s="11"/>
-      <c r="CN33" s="9"/>
-      <c r="CO33" s="9"/>
-      <c r="CP33" s="10"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="13"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="13"/>
+      <c r="BG33" s="14"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="13"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="13"/>
+      <c r="BO33" s="14"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="12"/>
+      <c r="BR33" s="13"/>
+      <c r="BS33" s="14"/>
+      <c r="BT33" s="12"/>
+      <c r="BU33" s="12"/>
+      <c r="BV33" s="13"/>
+      <c r="BW33" s="14"/>
+      <c r="BX33" s="12"/>
+      <c r="BY33" s="12"/>
+      <c r="BZ33" s="13"/>
+      <c r="CA33" s="14"/>
+      <c r="CB33" s="12"/>
+      <c r="CC33" s="12"/>
+      <c r="CD33" s="13"/>
+      <c r="CE33" s="14"/>
+      <c r="CF33" s="12"/>
+      <c r="CG33" s="12"/>
+      <c r="CH33" s="13"/>
+      <c r="CI33" s="14"/>
+      <c r="CJ33" s="12"/>
+      <c r="CK33" s="12"/>
+      <c r="CL33" s="13"/>
+      <c r="CM33" s="14"/>
+      <c r="CN33" s="12"/>
+      <c r="CO33" s="12"/>
+      <c r="CP33" s="13"/>
     </row>
-    <row r="34" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="18"/>
-      <c r="AP34" s="18"/>
-      <c r="AQ34" s="18"/>
-      <c r="AR34" s="18"/>
-      <c r="AS34" s="18"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="18"/>
-      <c r="AV34" s="18"/>
-      <c r="AW34" s="18"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="18"/>
-      <c r="AZ34" s="18"/>
-      <c r="BA34" s="18"/>
-      <c r="BB34" s="19"/>
-      <c r="BC34" s="18"/>
-      <c r="BD34" s="18"/>
-      <c r="BE34" s="18"/>
-      <c r="BF34" s="19"/>
-      <c r="BG34" s="18"/>
-      <c r="BH34" s="18"/>
-      <c r="BI34" s="18"/>
-      <c r="BJ34" s="19"/>
-      <c r="BK34" s="18"/>
-      <c r="BL34" s="18"/>
-      <c r="BM34" s="18"/>
-      <c r="BN34" s="19"/>
-      <c r="BO34" s="18"/>
-      <c r="BP34" s="18"/>
-      <c r="BQ34" s="18"/>
-      <c r="BR34" s="19"/>
-      <c r="BS34" s="18"/>
-      <c r="BT34" s="18"/>
-      <c r="BU34" s="18"/>
-      <c r="BV34" s="19"/>
-      <c r="BW34" s="18"/>
-      <c r="BX34" s="18"/>
-      <c r="BY34" s="18"/>
-      <c r="BZ34" s="19"/>
-      <c r="CA34" s="18"/>
-      <c r="CB34" s="18"/>
-      <c r="CC34" s="18"/>
-      <c r="CD34" s="19"/>
-      <c r="CE34" s="18"/>
-      <c r="CF34" s="18"/>
-      <c r="CG34" s="18"/>
-      <c r="CH34" s="19"/>
-      <c r="CI34" s="18"/>
-      <c r="CJ34" s="18"/>
-      <c r="CK34" s="18"/>
-      <c r="CL34" s="19"/>
-      <c r="CM34" s="18"/>
-      <c r="CN34" s="18"/>
-      <c r="CO34" s="18"/>
-      <c r="CP34" s="19"/>
+    <row r="34" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="45">
+        <f>SUM($D$7:D34)-SUM($E$7:E34)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="16"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="16"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="16"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="16"/>
+      <c r="BG34" s="17"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="16"/>
+      <c r="BK34" s="17"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="16"/>
+      <c r="BO34" s="17"/>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="16"/>
+      <c r="BS34" s="17"/>
+      <c r="BT34" s="15"/>
+      <c r="BU34" s="15"/>
+      <c r="BV34" s="16"/>
+      <c r="BW34" s="17"/>
+      <c r="BX34" s="15"/>
+      <c r="BY34" s="15"/>
+      <c r="BZ34" s="16"/>
+      <c r="CA34" s="17"/>
+      <c r="CB34" s="15"/>
+      <c r="CC34" s="15"/>
+      <c r="CD34" s="16"/>
+      <c r="CE34" s="17"/>
+      <c r="CF34" s="15"/>
+      <c r="CG34" s="15"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="17"/>
+      <c r="CJ34" s="15"/>
+      <c r="CK34" s="15"/>
+      <c r="CL34" s="16"/>
+      <c r="CM34" s="17"/>
+      <c r="CN34" s="15"/>
+      <c r="CO34" s="15"/>
+      <c r="CP34" s="16"/>
     </row>
     <row r="35" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="34">
-        <f t="shared" ref="D35:D57" si="10">SUM(G35:AT35)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="34">
-        <f t="shared" ref="E35:E57" si="11">SUM(G36:AT36)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="34">
-        <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>0</v>
-      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="11"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="9"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="22"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="20"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="22"/>
-      <c r="AM35" s="20"/>
-      <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="22"/>
-      <c r="AU35" s="20"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="22"/>
-      <c r="AY35" s="20"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="22"/>
-      <c r="BC35" s="20"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="22"/>
-      <c r="BG35" s="20"/>
-      <c r="BH35" s="21"/>
-      <c r="BI35" s="21"/>
-      <c r="BJ35" s="22"/>
-      <c r="BK35" s="20"/>
-      <c r="BL35" s="21"/>
-      <c r="BM35" s="21"/>
-      <c r="BN35" s="22"/>
-      <c r="BO35" s="20"/>
-      <c r="BP35" s="21"/>
-      <c r="BQ35" s="21"/>
-      <c r="BR35" s="22"/>
-      <c r="BS35" s="20"/>
-      <c r="BT35" s="21"/>
-      <c r="BU35" s="21"/>
-      <c r="BV35" s="22"/>
-      <c r="BW35" s="20"/>
-      <c r="BX35" s="21"/>
-      <c r="BY35" s="21"/>
-      <c r="BZ35" s="22"/>
-      <c r="CA35" s="20"/>
-      <c r="CB35" s="21"/>
-      <c r="CC35" s="21"/>
-      <c r="CD35" s="22"/>
-      <c r="CE35" s="20"/>
-      <c r="CF35" s="21"/>
-      <c r="CG35" s="21"/>
-      <c r="CH35" s="22"/>
-      <c r="CI35" s="20"/>
-      <c r="CJ35" s="21"/>
-      <c r="CK35" s="21"/>
-      <c r="CL35" s="22"/>
-      <c r="CM35" s="20"/>
-      <c r="CN35" s="21"/>
-      <c r="CO35" s="21"/>
-      <c r="CP35" s="22"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="9"/>
+      <c r="BE35" s="9"/>
+      <c r="BF35" s="10"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="9"/>
+      <c r="BI35" s="9"/>
+      <c r="BJ35" s="10"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="9"/>
+      <c r="BM35" s="9"/>
+      <c r="BN35" s="10"/>
+      <c r="BO35" s="11"/>
+      <c r="BP35" s="9"/>
+      <c r="BQ35" s="9"/>
+      <c r="BR35" s="10"/>
+      <c r="BS35" s="11"/>
+      <c r="BT35" s="9"/>
+      <c r="BU35" s="9"/>
+      <c r="BV35" s="10"/>
+      <c r="BW35" s="11"/>
+      <c r="BX35" s="9"/>
+      <c r="BY35" s="9"/>
+      <c r="BZ35" s="10"/>
+      <c r="CA35" s="11"/>
+      <c r="CB35" s="9"/>
+      <c r="CC35" s="9"/>
+      <c r="CD35" s="10"/>
+      <c r="CE35" s="11"/>
+      <c r="CF35" s="9"/>
+      <c r="CG35" s="9"/>
+      <c r="CH35" s="10"/>
+      <c r="CI35" s="11"/>
+      <c r="CJ35" s="9"/>
+      <c r="CK35" s="9"/>
+      <c r="CL35" s="10"/>
+      <c r="CM35" s="11"/>
+      <c r="CN35" s="9"/>
+      <c r="CO35" s="9"/>
+      <c r="CP35" s="10"/>
     </row>
-    <row r="36" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="36"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="23"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="23"/>
-      <c r="AV36" s="24"/>
-      <c r="AW36" s="24"/>
-      <c r="AX36" s="25"/>
-      <c r="AY36" s="23"/>
-      <c r="AZ36" s="24"/>
-      <c r="BA36" s="24"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="23"/>
-      <c r="BD36" s="24"/>
-      <c r="BE36" s="24"/>
-      <c r="BF36" s="25"/>
-      <c r="BG36" s="23"/>
-      <c r="BH36" s="24"/>
-      <c r="BI36" s="24"/>
-      <c r="BJ36" s="25"/>
-      <c r="BK36" s="23"/>
-      <c r="BL36" s="24"/>
-      <c r="BM36" s="24"/>
-      <c r="BN36" s="25"/>
-      <c r="BO36" s="23"/>
-      <c r="BP36" s="24"/>
-      <c r="BQ36" s="24"/>
-      <c r="BR36" s="25"/>
-      <c r="BS36" s="23"/>
-      <c r="BT36" s="24"/>
-      <c r="BU36" s="24"/>
-      <c r="BV36" s="25"/>
-      <c r="BW36" s="23"/>
-      <c r="BX36" s="24"/>
-      <c r="BY36" s="24"/>
-      <c r="BZ36" s="25"/>
-      <c r="CA36" s="23"/>
-      <c r="CB36" s="24"/>
-      <c r="CC36" s="24"/>
-      <c r="CD36" s="25"/>
-      <c r="CE36" s="23"/>
-      <c r="CF36" s="24"/>
-      <c r="CG36" s="24"/>
-      <c r="CH36" s="25"/>
-      <c r="CI36" s="23"/>
-      <c r="CJ36" s="24"/>
-      <c r="CK36" s="24"/>
-      <c r="CL36" s="25"/>
-      <c r="CM36" s="23"/>
-      <c r="CN36" s="24"/>
-      <c r="CO36" s="24"/>
-      <c r="CP36" s="25"/>
+    <row r="36" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="18"/>
+      <c r="AZ36" s="18"/>
+      <c r="BA36" s="18"/>
+      <c r="BB36" s="19"/>
+      <c r="BC36" s="18"/>
+      <c r="BD36" s="18"/>
+      <c r="BE36" s="18"/>
+      <c r="BF36" s="19"/>
+      <c r="BG36" s="18"/>
+      <c r="BH36" s="18"/>
+      <c r="BI36" s="18"/>
+      <c r="BJ36" s="19"/>
+      <c r="BK36" s="18"/>
+      <c r="BL36" s="18"/>
+      <c r="BM36" s="18"/>
+      <c r="BN36" s="19"/>
+      <c r="BO36" s="18"/>
+      <c r="BP36" s="18"/>
+      <c r="BQ36" s="18"/>
+      <c r="BR36" s="19"/>
+      <c r="BS36" s="18"/>
+      <c r="BT36" s="18"/>
+      <c r="BU36" s="18"/>
+      <c r="BV36" s="19"/>
+      <c r="BW36" s="18"/>
+      <c r="BX36" s="18"/>
+      <c r="BY36" s="18"/>
+      <c r="BZ36" s="19"/>
+      <c r="CA36" s="18"/>
+      <c r="CB36" s="18"/>
+      <c r="CC36" s="18"/>
+      <c r="CD36" s="19"/>
+      <c r="CE36" s="18"/>
+      <c r="CF36" s="18"/>
+      <c r="CG36" s="18"/>
+      <c r="CH36" s="19"/>
+      <c r="CI36" s="18"/>
+      <c r="CJ36" s="18"/>
+      <c r="CK36" s="18"/>
+      <c r="CL36" s="19"/>
+      <c r="CM36" s="18"/>
+      <c r="CN36" s="18"/>
+      <c r="CO36" s="18"/>
+      <c r="CP36" s="19"/>
     </row>
     <row r="37" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="34">
-        <f t="shared" si="10"/>
+      <c r="C37" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="45">
+        <f t="shared" ref="D37:D59" si="11">SUM(G37:AT37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="34">
-        <f t="shared" si="11"/>
+      <c r="E37" s="45">
+        <f t="shared" ref="E37:E59" si="12">SUM(G38:AT38)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="45">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="27"/>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="27"/>
-      <c r="AO37" s="27"/>
-      <c r="AP37" s="28"/>
-      <c r="AQ37" s="26"/>
-      <c r="AR37" s="27"/>
-      <c r="AS37" s="27"/>
-      <c r="AT37" s="28"/>
-      <c r="AU37" s="26"/>
-      <c r="AV37" s="27"/>
-      <c r="AW37" s="27"/>
-      <c r="AX37" s="28"/>
-      <c r="AY37" s="26"/>
-      <c r="AZ37" s="27"/>
-      <c r="BA37" s="27"/>
-      <c r="BB37" s="28"/>
-      <c r="BC37" s="26"/>
-      <c r="BD37" s="27"/>
-      <c r="BE37" s="27"/>
-      <c r="BF37" s="28"/>
-      <c r="BG37" s="26"/>
-      <c r="BH37" s="27"/>
-      <c r="BI37" s="27"/>
-      <c r="BJ37" s="28"/>
-      <c r="BK37" s="26"/>
-      <c r="BL37" s="27"/>
-      <c r="BM37" s="27"/>
-      <c r="BN37" s="28"/>
-      <c r="BO37" s="26"/>
-      <c r="BP37" s="27"/>
-      <c r="BQ37" s="27"/>
-      <c r="BR37" s="28"/>
-      <c r="BS37" s="26"/>
-      <c r="BT37" s="27"/>
-      <c r="BU37" s="27"/>
-      <c r="BV37" s="28"/>
-      <c r="BW37" s="26"/>
-      <c r="BX37" s="27"/>
-      <c r="BY37" s="27"/>
-      <c r="BZ37" s="28"/>
-      <c r="CA37" s="26"/>
-      <c r="CB37" s="27"/>
-      <c r="CC37" s="27"/>
-      <c r="CD37" s="28"/>
-      <c r="CE37" s="26"/>
-      <c r="CF37" s="27"/>
-      <c r="CG37" s="27"/>
-      <c r="CH37" s="28"/>
-      <c r="CI37" s="26"/>
-      <c r="CJ37" s="27"/>
-      <c r="CK37" s="27"/>
-      <c r="CL37" s="28"/>
-      <c r="CM37" s="26"/>
-      <c r="CN37" s="27"/>
-      <c r="CO37" s="27"/>
-      <c r="CP37" s="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="20"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="22"/>
+      <c r="AY37" s="20"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="21"/>
+      <c r="BB37" s="22"/>
+      <c r="BC37" s="20"/>
+      <c r="BD37" s="21"/>
+      <c r="BE37" s="21"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="20"/>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="21"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="20"/>
+      <c r="BL37" s="21"/>
+      <c r="BM37" s="21"/>
+      <c r="BN37" s="22"/>
+      <c r="BO37" s="20"/>
+      <c r="BP37" s="21"/>
+      <c r="BQ37" s="21"/>
+      <c r="BR37" s="22"/>
+      <c r="BS37" s="20"/>
+      <c r="BT37" s="21"/>
+      <c r="BU37" s="21"/>
+      <c r="BV37" s="22"/>
+      <c r="BW37" s="20"/>
+      <c r="BX37" s="21"/>
+      <c r="BY37" s="21"/>
+      <c r="BZ37" s="22"/>
+      <c r="CA37" s="20"/>
+      <c r="CB37" s="21"/>
+      <c r="CC37" s="21"/>
+      <c r="CD37" s="22"/>
+      <c r="CE37" s="20"/>
+      <c r="CF37" s="21"/>
+      <c r="CG37" s="21"/>
+      <c r="CH37" s="22"/>
+      <c r="CI37" s="20"/>
+      <c r="CJ37" s="21"/>
+      <c r="CK37" s="21"/>
+      <c r="CL37" s="22"/>
+      <c r="CM37" s="20"/>
+      <c r="CN37" s="21"/>
+      <c r="CO37" s="21"/>
+      <c r="CP37" s="22"/>
     </row>
     <row r="38" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="36"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
       <c r="G38" s="14"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -4549,20 +4589,20 @@
       <c r="CP38" s="25"/>
     </row>
     <row r="39" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="34">
+      <c r="C39" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F39" s="34">
+      <c r="E39" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="45">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="15"/>
@@ -4654,10 +4694,10 @@
       <c r="CP39" s="28"/>
     </row>
     <row r="40" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="36"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
       <c r="G40" s="14"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -4748,20 +4788,20 @@
       <c r="CP40" s="25"/>
     </row>
     <row r="41" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="34">
+      <c r="C41" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F41" s="34">
+      <c r="E41" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="45">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="15"/>
@@ -4853,10 +4893,10 @@
       <c r="CP41" s="28"/>
     </row>
     <row r="42" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="36"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
       <c r="G42" s="14"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -4947,20 +4987,20 @@
       <c r="CP42" s="25"/>
     </row>
     <row r="43" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="34">
+      <c r="C43" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F43" s="34">
+      <c r="E43" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="45">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="15"/>
@@ -5052,10 +5092,10 @@
       <c r="CP43" s="28"/>
     </row>
     <row r="44" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="36"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -5146,20 +5186,20 @@
       <c r="CP44" s="25"/>
     </row>
     <row r="45" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="34">
+      <c r="C45" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F45" s="34">
+      <c r="E45" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="45">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="15"/>
@@ -5251,10 +5291,10 @@
       <c r="CP45" s="28"/>
     </row>
     <row r="46" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="36"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
       <c r="G46" s="14"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -5345,20 +5385,20 @@
       <c r="CP46" s="25"/>
     </row>
     <row r="47" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="34">
+      <c r="C47" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F47" s="34">
+      <c r="E47" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="45">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="15"/>
@@ -5450,10 +5490,10 @@
       <c r="CP47" s="28"/>
     </row>
     <row r="48" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="36"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
       <c r="G48" s="14"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -5544,20 +5584,20 @@
       <c r="CP48" s="25"/>
     </row>
     <row r="49" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="34">
+      <c r="C49" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F49" s="34">
+      <c r="E49" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="45">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="15"/>
@@ -5649,10 +5689,10 @@
       <c r="CP49" s="28"/>
     </row>
     <row r="50" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="36"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
       <c r="G50" s="14"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -5743,20 +5783,20 @@
       <c r="CP50" s="25"/>
     </row>
     <row r="51" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="34">
+      <c r="C51" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F51" s="34">
+      <c r="E51" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="45">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="15"/>
@@ -5848,10 +5888,10 @@
       <c r="CP51" s="28"/>
     </row>
     <row r="52" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="36"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
       <c r="G52" s="14"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -5942,20 +5982,20 @@
       <c r="CP52" s="25"/>
     </row>
     <row r="53" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="34">
+      <c r="C53" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F53" s="34">
+      <c r="E53" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="45">
         <f>SUM($D$7:D53)-SUM($E$7:E53)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="15"/>
@@ -6047,10 +6087,10 @@
       <c r="CP53" s="28"/>
     </row>
     <row r="54" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" s="36"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="14"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -6141,20 +6181,20 @@
       <c r="CP54" s="25"/>
     </row>
     <row r="55" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="34">
+      <c r="C55" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F55" s="34">
+      <c r="E55" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="45">
         <f>SUM($D$7:D55)-SUM($E$7:E55)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="15"/>
@@ -6246,10 +6286,10 @@
       <c r="CP55" s="28"/>
     </row>
     <row r="56" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" s="36"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
       <c r="G56" s="14"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -6340,20 +6380,20 @@
       <c r="CP56" s="25"/>
     </row>
     <row r="57" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="34">
+      <c r="C57" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F57" s="34">
+      <c r="E57" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="45">
         <f>SUM($D$7:D57)-SUM($E$7:E57)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="15"/>
@@ -6445,622 +6485,880 @@
       <c r="CP57" s="28"/>
     </row>
     <row r="58" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" s="36"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="21"/>
-      <c r="AC58" s="21"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="20"/>
-      <c r="AF58" s="21"/>
-      <c r="AG58" s="21"/>
-      <c r="AH58" s="22"/>
-      <c r="AI58" s="20"/>
-      <c r="AJ58" s="21"/>
-      <c r="AK58" s="21"/>
-      <c r="AL58" s="22"/>
-      <c r="AM58" s="20"/>
-      <c r="AN58" s="21"/>
-      <c r="AO58" s="21"/>
-      <c r="AP58" s="22"/>
-      <c r="AQ58" s="20"/>
-      <c r="AR58" s="21"/>
-      <c r="AS58" s="21"/>
-      <c r="AT58" s="22"/>
-      <c r="AU58" s="20"/>
-      <c r="AV58" s="21"/>
-      <c r="AW58" s="21"/>
-      <c r="AX58" s="22"/>
-      <c r="AY58" s="20"/>
-      <c r="AZ58" s="21"/>
-      <c r="BA58" s="21"/>
-      <c r="BB58" s="22"/>
-      <c r="BC58" s="20"/>
-      <c r="BD58" s="21"/>
-      <c r="BE58" s="21"/>
-      <c r="BF58" s="22"/>
-      <c r="BG58" s="20"/>
-      <c r="BH58" s="21"/>
-      <c r="BI58" s="21"/>
-      <c r="BJ58" s="22"/>
-      <c r="BK58" s="20"/>
-      <c r="BL58" s="21"/>
-      <c r="BM58" s="21"/>
-      <c r="BN58" s="22"/>
-      <c r="BO58" s="20"/>
-      <c r="BP58" s="21"/>
-      <c r="BQ58" s="21"/>
-      <c r="BR58" s="22"/>
-      <c r="BS58" s="20"/>
-      <c r="BT58" s="21"/>
-      <c r="BU58" s="21"/>
-      <c r="BV58" s="22"/>
-      <c r="BW58" s="20"/>
-      <c r="BX58" s="21"/>
-      <c r="BY58" s="21"/>
-      <c r="BZ58" s="22"/>
-      <c r="CA58" s="20"/>
-      <c r="CB58" s="21"/>
-      <c r="CC58" s="21"/>
-      <c r="CD58" s="22"/>
-      <c r="CE58" s="20"/>
-      <c r="CF58" s="21"/>
-      <c r="CG58" s="21"/>
-      <c r="CH58" s="22"/>
-      <c r="CI58" s="20"/>
-      <c r="CJ58" s="21"/>
-      <c r="CK58" s="21"/>
-      <c r="CL58" s="22"/>
-      <c r="CM58" s="20"/>
-      <c r="CN58" s="21"/>
-      <c r="CO58" s="21"/>
-      <c r="CP58" s="22"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="23"/>
+      <c r="AF58" s="24"/>
+      <c r="AG58" s="24"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="23"/>
+      <c r="AJ58" s="24"/>
+      <c r="AK58" s="24"/>
+      <c r="AL58" s="25"/>
+      <c r="AM58" s="23"/>
+      <c r="AN58" s="24"/>
+      <c r="AO58" s="24"/>
+      <c r="AP58" s="25"/>
+      <c r="AQ58" s="23"/>
+      <c r="AR58" s="24"/>
+      <c r="AS58" s="24"/>
+      <c r="AT58" s="25"/>
+      <c r="AU58" s="23"/>
+      <c r="AV58" s="24"/>
+      <c r="AW58" s="24"/>
+      <c r="AX58" s="25"/>
+      <c r="AY58" s="23"/>
+      <c r="AZ58" s="24"/>
+      <c r="BA58" s="24"/>
+      <c r="BB58" s="25"/>
+      <c r="BC58" s="23"/>
+      <c r="BD58" s="24"/>
+      <c r="BE58" s="24"/>
+      <c r="BF58" s="25"/>
+      <c r="BG58" s="23"/>
+      <c r="BH58" s="24"/>
+      <c r="BI58" s="24"/>
+      <c r="BJ58" s="25"/>
+      <c r="BK58" s="23"/>
+      <c r="BL58" s="24"/>
+      <c r="BM58" s="24"/>
+      <c r="BN58" s="25"/>
+      <c r="BO58" s="23"/>
+      <c r="BP58" s="24"/>
+      <c r="BQ58" s="24"/>
+      <c r="BR58" s="25"/>
+      <c r="BS58" s="23"/>
+      <c r="BT58" s="24"/>
+      <c r="BU58" s="24"/>
+      <c r="BV58" s="25"/>
+      <c r="BW58" s="23"/>
+      <c r="BX58" s="24"/>
+      <c r="BY58" s="24"/>
+      <c r="BZ58" s="25"/>
+      <c r="CA58" s="23"/>
+      <c r="CB58" s="24"/>
+      <c r="CC58" s="24"/>
+      <c r="CD58" s="25"/>
+      <c r="CE58" s="23"/>
+      <c r="CF58" s="24"/>
+      <c r="CG58" s="24"/>
+      <c r="CH58" s="25"/>
+      <c r="CI58" s="23"/>
+      <c r="CJ58" s="24"/>
+      <c r="CK58" s="24"/>
+      <c r="CL58" s="25"/>
+      <c r="CM58" s="23"/>
+      <c r="CN58" s="24"/>
+      <c r="CO58" s="24"/>
+      <c r="CP58" s="25"/>
     </row>
-    <row r="59" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" s="1" t="s">
+    <row r="59" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="45">
+        <f>SUM($D$7:D59)-SUM($E$7:E59)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="26"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="26"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="28"/>
+      <c r="AM59" s="26"/>
+      <c r="AN59" s="27"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="28"/>
+      <c r="AQ59" s="26"/>
+      <c r="AR59" s="27"/>
+      <c r="AS59" s="27"/>
+      <c r="AT59" s="28"/>
+      <c r="AU59" s="26"/>
+      <c r="AV59" s="27"/>
+      <c r="AW59" s="27"/>
+      <c r="AX59" s="28"/>
+      <c r="AY59" s="26"/>
+      <c r="AZ59" s="27"/>
+      <c r="BA59" s="27"/>
+      <c r="BB59" s="28"/>
+      <c r="BC59" s="26"/>
+      <c r="BD59" s="27"/>
+      <c r="BE59" s="27"/>
+      <c r="BF59" s="28"/>
+      <c r="BG59" s="26"/>
+      <c r="BH59" s="27"/>
+      <c r="BI59" s="27"/>
+      <c r="BJ59" s="28"/>
+      <c r="BK59" s="26"/>
+      <c r="BL59" s="27"/>
+      <c r="BM59" s="27"/>
+      <c r="BN59" s="28"/>
+      <c r="BO59" s="26"/>
+      <c r="BP59" s="27"/>
+      <c r="BQ59" s="27"/>
+      <c r="BR59" s="28"/>
+      <c r="BS59" s="26"/>
+      <c r="BT59" s="27"/>
+      <c r="BU59" s="27"/>
+      <c r="BV59" s="28"/>
+      <c r="BW59" s="26"/>
+      <c r="BX59" s="27"/>
+      <c r="BY59" s="27"/>
+      <c r="BZ59" s="28"/>
+      <c r="CA59" s="26"/>
+      <c r="CB59" s="27"/>
+      <c r="CC59" s="27"/>
+      <c r="CD59" s="28"/>
+      <c r="CE59" s="26"/>
+      <c r="CF59" s="27"/>
+      <c r="CG59" s="27"/>
+      <c r="CH59" s="28"/>
+      <c r="CI59" s="26"/>
+      <c r="CJ59" s="27"/>
+      <c r="CK59" s="27"/>
+      <c r="CL59" s="28"/>
+      <c r="CM59" s="26"/>
+      <c r="CN59" s="27"/>
+      <c r="CO59" s="27"/>
+      <c r="CP59" s="28"/>
+    </row>
+    <row r="60" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="44"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="20"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="22"/>
+      <c r="AM60" s="20"/>
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="21"/>
+      <c r="AP60" s="22"/>
+      <c r="AQ60" s="20"/>
+      <c r="AR60" s="21"/>
+      <c r="AS60" s="21"/>
+      <c r="AT60" s="22"/>
+      <c r="AU60" s="20"/>
+      <c r="AV60" s="21"/>
+      <c r="AW60" s="21"/>
+      <c r="AX60" s="22"/>
+      <c r="AY60" s="20"/>
+      <c r="AZ60" s="21"/>
+      <c r="BA60" s="21"/>
+      <c r="BB60" s="22"/>
+      <c r="BC60" s="20"/>
+      <c r="BD60" s="21"/>
+      <c r="BE60" s="21"/>
+      <c r="BF60" s="22"/>
+      <c r="BG60" s="20"/>
+      <c r="BH60" s="21"/>
+      <c r="BI60" s="21"/>
+      <c r="BJ60" s="22"/>
+      <c r="BK60" s="20"/>
+      <c r="BL60" s="21"/>
+      <c r="BM60" s="21"/>
+      <c r="BN60" s="22"/>
+      <c r="BO60" s="20"/>
+      <c r="BP60" s="21"/>
+      <c r="BQ60" s="21"/>
+      <c r="BR60" s="22"/>
+      <c r="BS60" s="20"/>
+      <c r="BT60" s="21"/>
+      <c r="BU60" s="21"/>
+      <c r="BV60" s="22"/>
+      <c r="BW60" s="20"/>
+      <c r="BX60" s="21"/>
+      <c r="BY60" s="21"/>
+      <c r="BZ60" s="22"/>
+      <c r="CA60" s="20"/>
+      <c r="CB60" s="21"/>
+      <c r="CC60" s="21"/>
+      <c r="CD60" s="22"/>
+      <c r="CE60" s="20"/>
+      <c r="CF60" s="21"/>
+      <c r="CG60" s="21"/>
+      <c r="CH60" s="22"/>
+      <c r="CI60" s="20"/>
+      <c r="CJ60" s="21"/>
+      <c r="CK60" s="21"/>
+      <c r="CL60" s="22"/>
+      <c r="CM60" s="20"/>
+      <c r="CN60" s="21"/>
+      <c r="CO60" s="21"/>
+      <c r="CP60" s="22"/>
+    </row>
+    <row r="61" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="2"/>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="2"/>
-      <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
-      <c r="AM59" s="2"/>
-      <c r="AN59" s="2"/>
-      <c r="AO59" s="2"/>
-      <c r="AP59" s="2"/>
-      <c r="AQ59" s="2"/>
-      <c r="AR59" s="2"/>
-      <c r="AS59" s="2"/>
-      <c r="AT59" s="3"/>
-      <c r="AU59" s="2"/>
-      <c r="AV59" s="2"/>
-      <c r="AW59" s="2"/>
-      <c r="AX59" s="3"/>
-      <c r="AY59" s="2"/>
-      <c r="AZ59" s="2"/>
-      <c r="BA59" s="2"/>
-      <c r="BB59" s="3"/>
-      <c r="BC59" s="2"/>
-      <c r="BD59" s="2"/>
-      <c r="BE59" s="2"/>
-      <c r="BF59" s="3"/>
-      <c r="BG59" s="2"/>
-      <c r="BH59" s="2"/>
-      <c r="BI59" s="2"/>
-      <c r="BJ59" s="3"/>
-      <c r="BK59" s="2"/>
-      <c r="BL59" s="2"/>
-      <c r="BM59" s="2"/>
-      <c r="BN59" s="3"/>
-      <c r="BO59" s="2"/>
-      <c r="BP59" s="2"/>
-      <c r="BQ59" s="2"/>
-      <c r="BR59" s="3"/>
-      <c r="BS59" s="2"/>
-      <c r="BT59" s="2"/>
-      <c r="BU59" s="2"/>
-      <c r="BV59" s="3"/>
-      <c r="BW59" s="2"/>
-      <c r="BX59" s="2"/>
-      <c r="BY59" s="2"/>
-      <c r="BZ59" s="3"/>
-      <c r="CA59" s="2"/>
-      <c r="CB59" s="2"/>
-      <c r="CC59" s="2"/>
-      <c r="CD59" s="3"/>
-      <c r="CE59" s="2"/>
-      <c r="CF59" s="2"/>
-      <c r="CG59" s="2"/>
-      <c r="CH59" s="3"/>
-      <c r="CI59" s="2"/>
-      <c r="CJ59" s="2"/>
-      <c r="CK59" s="2"/>
-      <c r="CL59" s="3"/>
-      <c r="CM59" s="2"/>
-      <c r="CN59" s="2"/>
-      <c r="CO59" s="2"/>
-      <c r="CP59" s="3"/>
-    </row>
-    <row r="60" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="2"/>
+      <c r="AO61" s="2"/>
+      <c r="AP61" s="2"/>
+      <c r="AQ61" s="2"/>
+      <c r="AR61" s="2"/>
+      <c r="AS61" s="2"/>
+      <c r="AT61" s="3"/>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="2"/>
+      <c r="AW61" s="2"/>
+      <c r="AX61" s="3"/>
+      <c r="AY61" s="2"/>
+      <c r="AZ61" s="2"/>
+      <c r="BA61" s="2"/>
+      <c r="BB61" s="3"/>
+      <c r="BC61" s="2"/>
+      <c r="BD61" s="2"/>
+      <c r="BE61" s="2"/>
+      <c r="BF61" s="3"/>
+      <c r="BG61" s="2"/>
+      <c r="BH61" s="2"/>
+      <c r="BI61" s="2"/>
+      <c r="BJ61" s="3"/>
+      <c r="BK61" s="2"/>
+      <c r="BL61" s="2"/>
+      <c r="BM61" s="2"/>
+      <c r="BN61" s="3"/>
+      <c r="BO61" s="2"/>
+      <c r="BP61" s="2"/>
+      <c r="BQ61" s="2"/>
+      <c r="BR61" s="3"/>
+      <c r="BS61" s="2"/>
+      <c r="BT61" s="2"/>
+      <c r="BU61" s="2"/>
+      <c r="BV61" s="3"/>
+      <c r="BW61" s="2"/>
+      <c r="BX61" s="2"/>
+      <c r="BY61" s="2"/>
+      <c r="BZ61" s="3"/>
+      <c r="CA61" s="2"/>
+      <c r="CB61" s="2"/>
+      <c r="CC61" s="2"/>
+      <c r="CD61" s="3"/>
+      <c r="CE61" s="2"/>
+      <c r="CF61" s="2"/>
+      <c r="CG61" s="2"/>
+      <c r="CH61" s="3"/>
+      <c r="CI61" s="2"/>
+      <c r="CJ61" s="2"/>
+      <c r="CK61" s="2"/>
+      <c r="CL61" s="3"/>
+      <c r="CM61" s="2"/>
+      <c r="CN61" s="2"/>
+      <c r="CO61" s="2"/>
+      <c r="CP61" s="3"/>
     </row>
     <row r="62" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="7">
-        <f>SUM(D7:D58)</f>
-        <v>9</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="29">
-        <f>SUM(G7:J7,G9:J9,G11:J11,G13:J13,G15:J15,G17:J17,G20:J20,G22:J22,G24:J24,G26:J26,G28:J28,G30:J30,G32:J32,G35:J35,G37:J37,G39:J39,G41:J41,G43:J43,G45:J45,G47:J47,G49:J49,G51:J51,G53:J53,G55:J55,G57:J57)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="29">
-        <f>SUM(K7:N7,K9:N9,K11:N11,K13:N13,K15:N15,K17:N17,K20:N20,K22:N22,K24:N24,K26:N26,K28:N28,K30:N30,K32:N32,K35:N35,K37:N37,K39:N39,K41:N41,K43:N43,K45:N45,K47:N47,K49:N49,K51:N51,K53:N53,K55:N55,K57:N57)</f>
-        <v>1</v>
-      </c>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="29">
-        <f t="shared" ref="O62:O63" si="12">SUM(O7:R7,O9:R9,O11:R11,O13:R13,O15:R15,O17:R17,O20:R20,O22:R22,O24:R24,O26:R26,O28:R28,O30:R30,O32:R32,O35:R35,O37:R37,O39:R39,O41:R41,O43:R43,O45:R45,O47:R47,O49:R49,O51:R51,O53:R53,O55:R55,O57:R57)</f>
-        <v>3.5</v>
-      </c>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="29">
-        <f>SUM(S7:V7,S9:V9,S11:V11,S13:V13,S15:V15,S17:V17,S20:V20,S22:V22,S24:V24,S26:V26,S28:V28,S30:V30,S32:V32,S35:V35,S37:V37,S39:V39,S41:V41,S43:V43,S45:V45,S47:V47,S49:V49,S51:V51,S53:V53,S55:V55,S57:V57)</f>
-        <v>0</v>
-      </c>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="29">
-        <f>SUM(W7:Z7,W9:Z9,W11:Z11,W13:Z13,W15:Z15,W17:Z17,W20:Z20,W22:Z22,W24:Z24,W26:Z26,W28:Z28,W30:Z30,W32:Z32,W35:Z35,W37:Z37,W39:Z39,W41:Z41,W43:Z43,W45:Z45,W47:Z47,W49:Z49,W51:Z51,W53:Z53,W55:Z55,W57:Z57)</f>
-        <v>0</v>
-      </c>
-      <c r="X62" s="30"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="31"/>
-      <c r="AA62" s="29">
-        <f t="shared" ref="AA62:AA63" si="13">SUM(AA7:AD7,AA9:AD9,AA11:AD11,AA13:AD13,AA15:AD15,AA17:AD17,AA20:AD20,AA22:AD22,AA24:AD24,AA26:AD26,AA28:AD28,AA30:AD30,AA32:AD32,AA35:AD35,AA37:AD37,AA39:AD39,AA41:AD41,AA43:AD43,AA45:AD45,AA47:AD47,AA49:AD49,AA51:AD51,AA53:AD53,AA55:AD55,AA57:AD57)</f>
-        <v>0</v>
-      </c>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="31"/>
-      <c r="AE62" s="29">
-        <f t="shared" ref="AE62:AE63" si="14">SUM(AE7:AH7,AE9:AH9,AE11:AH11,AE13:AH13,AE15:AH15,AE17:AH17,AE20:AH20,AE22:AH22,AE24:AH24,AE26:AH26,AE28:AH28,AE30:AH30,AE32:AH32,AE35:AH35,AE37:AH37,AE39:AH39,AE41:AH41,AE43:AH43,AE45:AH45,AE47:AH47,AE49:AH49,AE51:AH51,AE53:AH53,AE55:AH55,AE57:AH57)</f>
-        <v>0</v>
-      </c>
-      <c r="AF62" s="30"/>
-      <c r="AG62" s="30"/>
-      <c r="AH62" s="31"/>
-      <c r="AI62" s="29">
-        <f t="shared" ref="AI62:AI63" si="15">SUM(AI7:AL7,AI9:AL9,AI11:AL11,AI13:AL13,AI15:AL15,AI17:AL17,AI20:AL20,AI22:AL22,AI24:AL24,AI26:AL26,AI28:AL28,AI30:AL30,AI32:AL32,AI35:AL35,AI37:AL37,AI39:AL39,AI41:AL41,AI43:AL43,AI45:AL45,AI47:AL47,AI49:AL49,AI51:AL51,AI53:AL53,AI55:AL55,AI57:AL57)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="30"/>
-      <c r="AK62" s="30"/>
-      <c r="AL62" s="31"/>
-      <c r="AM62" s="29">
-        <f t="shared" ref="AM62:AM63" si="16">SUM(AM7:AP7,AM9:AP9,AM11:AP11,AM13:AP13,AM15:AP15,AM17:AP17,AM20:AP20,AM22:AP22,AM24:AP24,AM26:AP26,AM28:AP28,AM30:AP30,AM32:AP32,AM35:AP35,AM37:AP37,AM39:AP39,AM41:AP41,AM43:AP43,AM45:AP45,AM47:AP47,AM49:AP49,AM51:AP51,AM53:AP53,AM55:AP55,AM57:AP57)</f>
-        <v>0</v>
-      </c>
-      <c r="AN62" s="30"/>
-      <c r="AO62" s="30"/>
-      <c r="AP62" s="31"/>
-      <c r="AQ62" s="29">
-        <f t="shared" ref="AQ62:AQ63" si="17">SUM(AQ7:AT7,AQ9:AT9,AQ11:AT11,AQ13:AT13,AQ15:AT15,AQ17:AT17,AQ20:AT20,AQ22:AT22,AQ24:AT24,AQ26:AT26,AQ28:AT28,AQ30:AT30,AQ32:AT32,AQ35:AT35,AQ37:AT37,AQ39:AT39,AQ41:AT41,AQ43:AT43,AQ45:AT45,AQ47:AT47,AQ49:AT49,AQ51:AT51,AQ53:AT53,AQ55:AT55,AQ57:AT57)</f>
-        <v>0</v>
-      </c>
-      <c r="AR62" s="30"/>
-      <c r="AS62" s="30"/>
-      <c r="AT62" s="31"/>
-      <c r="AU62" s="29">
-        <f t="shared" ref="AU62:AU63" si="18">SUM(AU7:AX7,AU9:AX9,AU11:AX11,AU13:AX13,AU15:AX15,AU17:AX17,AU20:AX20,AU22:AX22,AU24:AX24,AU26:AX26,AU28:AX28,AU30:AX30,AU32:AX32,AU35:AX35,AU37:AX37,AU39:AX39,AU41:AX41,AU43:AX43,AU45:AX45,AU47:AX47,AU49:AX49,AU51:AX51,AU53:AX53,AU55:AX55,AU57:AX57)</f>
-        <v>0</v>
-      </c>
-      <c r="AV62" s="30"/>
-      <c r="AW62" s="30"/>
-      <c r="AX62" s="31"/>
-      <c r="AY62" s="29">
-        <f t="shared" ref="AY62:AY63" si="19">SUM(AY7:BB7,AY9:BB9,AY11:BB11,AY13:BB13,AY15:BB15,AY17:BB17,AY20:BB20,AY22:BB22,AY24:BB24,AY26:BB26,AY28:BB28,AY30:BB30,AY32:BB32,AY35:BB35,AY37:BB37,AY39:BB39,AY41:BB41,AY43:BB43,AY45:BB45,AY47:BB47,AY49:BB49,AY51:BB51,AY53:BB53,AY55:BB55,AY57:BB57)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ62" s="30"/>
-      <c r="BA62" s="30"/>
-      <c r="BB62" s="31"/>
-      <c r="BC62" s="29">
-        <f t="shared" ref="BC62:BC63" si="20">SUM(BC7:BF7,BC9:BF9,BC11:BF11,BC13:BF13,BC15:BF15,BC17:BF17,BC20:BF20,BC22:BF22,BC24:BF24,BC26:BF26,BC28:BF28,BC30:BF30,BC32:BF32,BC35:BF35,BC37:BF37,BC39:BF39,BC41:BF41,BC43:BF43,BC45:BF45,BC47:BF47,BC49:BF49,BC51:BF51,BC53:BF53,BC55:BF55,BC57:BF57)</f>
-        <v>0</v>
-      </c>
-      <c r="BD62" s="30"/>
-      <c r="BE62" s="30"/>
-      <c r="BF62" s="31"/>
-      <c r="BG62" s="29">
-        <f t="shared" ref="BG62:BG63" si="21">SUM(BG7:BJ7,BG9:BJ9,BG11:BJ11,BG13:BJ13,BG15:BJ15,BG17:BJ17,BG20:BJ20,BG22:BJ22,BG24:BJ24,BG26:BJ26,BG28:BJ28,BG30:BJ30,BG32:BJ32,BG35:BJ35,BG37:BJ37,BG39:BJ39,BG41:BJ41,BG43:BJ43,BG45:BJ45,BG47:BJ47,BG49:BJ49,BG51:BJ51,BG53:BJ53,BG55:BJ55,BG57:BJ57)</f>
-        <v>0</v>
-      </c>
-      <c r="BH62" s="30"/>
-      <c r="BI62" s="30"/>
-      <c r="BJ62" s="31"/>
-      <c r="BK62" s="29">
-        <f t="shared" ref="BK62:BK63" si="22">SUM(BK7:BN7,BK9:BN9,BK11:BN11,BK13:BN13,BK15:BN15,BK17:BN17,BK20:BN20,BK22:BN22,BK24:BN24,BK26:BN26,BK28:BN28,BK30:BN30,BK32:BN32,BK35:BN35,BK37:BN37,BK39:BN39,BK41:BN41,BK43:BN43,BK45:BN45,BK47:BN47,BK49:BN49,BK51:BN51,BK53:BN53,BK55:BN55,BK57:BN57)</f>
-        <v>0</v>
-      </c>
-      <c r="BL62" s="30"/>
-      <c r="BM62" s="30"/>
-      <c r="BN62" s="31"/>
-      <c r="BO62" s="29">
-        <f t="shared" ref="BO62:BO63" si="23">SUM(BO7:BR7,BO9:BR9,BO11:BR11,BO13:BR13,BO15:BR15,BO17:BR17,BO20:BR20,BO22:BR22,BO24:BR24,BO26:BR26,BO28:BR28,BO30:BR30,BO32:BR32,BO35:BR35,BO37:BR37,BO39:BR39,BO41:BR41,BO43:BR43,BO45:BR45,BO47:BR47,BO49:BR49,BO51:BR51,BO53:BR53,BO55:BR55,BO57:BR57)</f>
-        <v>0</v>
-      </c>
-      <c r="BP62" s="30"/>
-      <c r="BQ62" s="30"/>
-      <c r="BR62" s="31"/>
-      <c r="BS62" s="29">
-        <f t="shared" ref="BS62:BS63" si="24">SUM(BS7:BV7,BS9:BV9,BS11:BV11,BS13:BV13,BS15:BV15,BS17:BV17,BS20:BV20,BS22:BV22,BS24:BV24,BS26:BV26,BS28:BV28,BS30:BV30,BS32:BV32,BS35:BV35,BS37:BV37,BS39:BV39,BS41:BV41,BS43:BV43,BS45:BV45,BS47:BV47,BS49:BV49,BS51:BV51,BS53:BV53,BS55:BV55,BS57:BV57)</f>
-        <v>0</v>
-      </c>
-      <c r="BT62" s="30"/>
-      <c r="BU62" s="30"/>
-      <c r="BV62" s="31"/>
-      <c r="BW62" s="29">
-        <f t="shared" ref="BW62:BW63" si="25">SUM(BW7:BZ7,BW9:BZ9,BW11:BZ11,BW13:BZ13,BW15:BZ15,BW17:BZ17,BW20:BZ20,BW22:BZ22,BW24:BZ24,BW26:BZ26,BW28:BZ28,BW30:BZ30,BW32:BZ32,BW35:BZ35,BW37:BZ37,BW39:BZ39,BW41:BZ41,BW43:BZ43,BW45:BZ45,BW47:BZ47,BW49:BZ49,BW51:BZ51,BW53:BZ53,BW55:BZ55,BW57:BZ57)</f>
-        <v>0</v>
-      </c>
-      <c r="BX62" s="30"/>
-      <c r="BY62" s="30"/>
-      <c r="BZ62" s="31"/>
-      <c r="CA62" s="29">
-        <f t="shared" ref="CA62:CA63" si="26">SUM(CA7:CD7,CA9:CD9,CA11:CD11,CA13:CD13,CA15:CD15,CA17:CD17,CA20:CD20,CA22:CD22,CA24:CD24,CA26:CD26,CA28:CD28,CA30:CD30,CA32:CD32,CA35:CD35,CA37:CD37,CA39:CD39,CA41:CD41,CA43:CD43,CA45:CD45,CA47:CD47,CA49:CD49,CA51:CD51,CA53:CD53,CA55:CD55,CA57:CD57)</f>
-        <v>0</v>
-      </c>
-      <c r="CB62" s="30"/>
-      <c r="CC62" s="30"/>
-      <c r="CD62" s="31"/>
-      <c r="CE62" s="29">
-        <f t="shared" ref="CE62:CE63" si="27">SUM(CE7:CH7,CE9:CH9,CE11:CH11,CE13:CH13,CE15:CH15,CE17:CH17,CE20:CH20,CE22:CH22,CE24:CH24,CE26:CH26,CE28:CH28,CE30:CH30,CE32:CH32,CE35:CH35,CE37:CH37,CE39:CH39,CE41:CH41,CE43:CH43,CE45:CH45,CE47:CH47,CE49:CH49,CE51:CH51,CE53:CH53,CE55:CH55,CE57:CH57)</f>
-        <v>0</v>
-      </c>
-      <c r="CF62" s="30"/>
-      <c r="CG62" s="30"/>
-      <c r="CH62" s="31"/>
-      <c r="CI62" s="29">
-        <f t="shared" ref="CI62:CI63" si="28">SUM(CI7:CL7,CI9:CL9,CI11:CL11,CI13:CL13,CI15:CL15,CI17:CL17,CI20:CL20,CI22:CL22,CI24:CL24,CI26:CL26,CI28:CL28,CI30:CL30,CI32:CL32,CI35:CL35,CI37:CL37,CI39:CL39,CI41:CL41,CI43:CL43,CI45:CL45,CI47:CL47,CI49:CL49,CI51:CL51,CI53:CL53,CI55:CL55,CI57:CL57)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ62" s="30"/>
-      <c r="CK62" s="30"/>
-      <c r="CL62" s="31"/>
-      <c r="CM62" s="29">
-        <f t="shared" ref="CM62:CM63" si="29">SUM(CM7:CP7,CM9:CP9,CM11:CP11,CM13:CP13,CM15:CP15,CM17:CP17,CM20:CP20,CM22:CP22,CM24:CP24,CM26:CP26,CM28:CP28,CM30:CP30,CM32:CP32,CM35:CP35,CM37:CP37,CM39:CP39,CM41:CP41,CM43:CP43,CM45:CP45,CM47:CP47,CM49:CP49,CM51:CP51,CM53:CP53,CM55:CP55,CM57:CP57)</f>
-        <v>0</v>
-      </c>
-      <c r="CN62" s="30"/>
-      <c r="CO62" s="30"/>
-      <c r="CP62" s="31"/>
-    </row>
-    <row r="63" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="7">
-        <f>SUM(E7:E58)</f>
-        <v>9</v>
-      </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="29">
-        <f>SUM(G8:J8,G10:J10,G12:J12,G14:J14,G16:J16,G18:J18,G21:J21,G23:J23,G25:J25,G27:J27,G29:J29,G31:J31,G33:J33,G36:J36,G38:J38,G40:J40,G42:J42,G44:J44,G46:J46,G48:J48,G50:J50,G52:J52,G54:J54,G56:J56,G58:J58)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="29">
-        <f>SUM(K8:N8,K10:N10,K12:N12,K14:N14,K16:N16,K18:N18,K21:N21,K23:N23,K25:N25,K27:N27,K29:N29,K31:N31,K33:N33,K36:N36,K38:N38,K40:N40,K42:N42,K44:N44,K46:N46,K48:N48,K50:N50,K52:N52,K54:N54,K56:N56,K58:N58)</f>
-        <v>1</v>
-      </c>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="29">
-        <f t="shared" si="12"/>
-        <v>3.5</v>
-      </c>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="29">
-        <f>SUM(S8:V8,S10:V10,S12:V12,S14:V14,S16:V16,S18:V18,S21:V21,S23:V23,S25:V25,S27:V27,S29:V29,S31:V31,S33:V33,S36:V36,S38:V38,S40:V40,S42:V42,S44:V44,S46:V46,S48:V48,S50:V50,S52:V52,S54:V54,S56:V56,S58:V58)</f>
-        <v>0</v>
-      </c>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="29">
-        <f>SUM(W8:Z8,W10:Z10,W12:Z12,W14:Z14,W16:Z16,W18:Z18,W21:Z21,W23:Z23,W25:Z25,W27:Z27,W29:Z29,W31:Z31,W33:Z33,W36:Z36,W38:Z38,W40:Z40,W42:Z42,W44:Z44,W46:Z46,W48:Z48,W50:Z50,W52:Z52,W54:Z54,W56:Z56,W58:Z58)</f>
-        <v>0</v>
-      </c>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="31"/>
-      <c r="AE63" s="29">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="30"/>
-      <c r="AH63" s="31"/>
-      <c r="AI63" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="31"/>
-      <c r="AM63" s="29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN63" s="30"/>
-      <c r="AO63" s="30"/>
-      <c r="AP63" s="31"/>
-      <c r="AQ63" s="29">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR63" s="30"/>
-      <c r="AS63" s="30"/>
-      <c r="AT63" s="31"/>
-      <c r="AU63" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AV63" s="30"/>
-      <c r="AW63" s="30"/>
-      <c r="AX63" s="31"/>
-      <c r="AY63" s="29">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AZ63" s="30"/>
-      <c r="BA63" s="30"/>
-      <c r="BB63" s="31"/>
-      <c r="BC63" s="29">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BD63" s="30"/>
-      <c r="BE63" s="30"/>
-      <c r="BF63" s="31"/>
-      <c r="BG63" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BH63" s="30"/>
-      <c r="BI63" s="30"/>
-      <c r="BJ63" s="31"/>
-      <c r="BK63" s="29">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL63" s="30"/>
-      <c r="BM63" s="30"/>
-      <c r="BN63" s="31"/>
-      <c r="BO63" s="29">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BP63" s="30"/>
-      <c r="BQ63" s="30"/>
-      <c r="BR63" s="31"/>
-      <c r="BS63" s="29">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BT63" s="30"/>
-      <c r="BU63" s="30"/>
-      <c r="BV63" s="31"/>
-      <c r="BW63" s="29">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BX63" s="30"/>
-      <c r="BY63" s="30"/>
-      <c r="BZ63" s="31"/>
-      <c r="CA63" s="29">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="CB63" s="30"/>
-      <c r="CC63" s="30"/>
-      <c r="CD63" s="31"/>
-      <c r="CE63" s="29">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="CF63" s="30"/>
-      <c r="CG63" s="30"/>
-      <c r="CH63" s="31"/>
-      <c r="CI63" s="29">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="CJ63" s="30"/>
-      <c r="CK63" s="30"/>
-      <c r="CL63" s="31"/>
-      <c r="CM63" s="29">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="CN63" s="30"/>
-      <c r="CO63" s="30"/>
-      <c r="CP63" s="31"/>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="3:94" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="7">
+        <f>SUM(D7:D60)</f>
+        <v>24</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="32">
+        <f>SUM(G7:J7,G9:J9,G11:J11,G13:J13,G15:J15,G17:J17,G22:J22,G24:J24,G26:J26,G28:J28,G30:J30,G32:J32,G34:J34,G37:J37,G39:J39,G41:J41,G43:J43,G45:J45,G47:J47,G49:J49,G51:J51,G53:J53,G55:J55,G57:J57,G59:J59)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="32">
+        <f>SUM(K7:N7,K9:N9,K11:N11,K13:N13,K15:N15,K17:N17,K22:N22,K24:N24,K26:N26,K28:N28,K30:N30,K32:N32,K34:N34,K37:N37,K39:N39,K41:N41,K43:N43,K45:N45,K47:N47,K49:N49,K51:N51,K53:N53,K55:N55,K57:N57,K59:N59)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="32">
+        <f>SUM(O7:R7,O9:R9,O11:R11,O13:R13,O15:R15,O17:R17,O22:R22,O24:R24,O26:R26,O28:R28,O30:R30,O32:R32,O34:R34,O37:R37,O39:R39,O41:R41,O43:R43,O45:R45,O47:R47,O49:R49,O51:R51,O53:R53,O55:R55,O57:R57,O59:R59)</f>
+        <v>4.5</v>
+      </c>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="32">
+        <f>SUM(S7:V7,S9:V9,S11:V11,S13:V13,S15:V15,S17:V17,S22:V22,S24:V24,S26:V26,S28:V28,S30:V30,S32:V32,S34:V34,S37:V37,S39:V39,S41:V41,S43:V43,S45:V45,S47:V47,S49:V49,S51:V51,S53:V53,S55:V55,S57:V57,S59:V59)</f>
+        <v>1.5</v>
+      </c>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="32">
+        <f>SUM(W7:Z7,W9:Z9,W11:Z11,W13:Z13,W15:Z15,W17:Z17,W22:Z22,W24:Z24,W26:Z26,W28:Z28,W30:Z30,W32:Z32,W34:Z34,W37:Z37,W39:Z39,W41:Z41,W43:Z43,W45:Z45,W47:Z47,W49:Z49,W51:Z51,W53:Z53,W55:Z55,W57:Z57,W59:Z59)</f>
+        <v>1.5</v>
+      </c>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="32">
+        <f>SUM(AA7:AD7,AA9:AD9,AA11:AD11,AA13:AD13,AA15:AD15,AA17:AD17,AA22:AD22,AA24:AD24,AA26:AD26,AA28:AD28,AA30:AD30,AA32:AD32,AA34:AD34,AA37:AD37,AA39:AD39,AA41:AD41,AA43:AD43,AA45:AD45,AA47:AD47,AA49:AD49,AA51:AD51,AA53:AD53,AA55:AD55,AA57:AD57,AA59:AD59)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="34"/>
+      <c r="AE64" s="32">
+        <f>SUM(AE7:AH7,AE9:AH9,AE11:AH11,AE13:AH13,AE15:AH15,AE17:AH17,AE22:AH22,AE24:AH24,AE26:AH26,AE28:AH28,AE30:AH30,AE32:AH32,AE34:AH34,AE37:AH37,AE39:AH39,AE41:AH41,AE43:AH43,AE45:AH45,AE47:AH47,AE49:AH49,AE51:AH51,AE53:AH53,AE55:AH55,AE57:AH57,AE59:AH59)</f>
+        <v>1</v>
+      </c>
+      <c r="AF64" s="33"/>
+      <c r="AG64" s="33"/>
+      <c r="AH64" s="34"/>
+      <c r="AI64" s="32">
+        <f>SUM(AI7:AL7,AI9:AL9,AI11:AL11,AI13:AL13,AI15:AL15,AI17:AL17,AI22:AL22,AI24:AL24,AI26:AL26,AI28:AL28,AI30:AL30,AI32:AL32,AI34:AL34,AI37:AL37,AI39:AL39,AI41:AL41,AI43:AL43,AI45:AL45,AI47:AL47,AI49:AL49,AI51:AL51,AI53:AL53,AI55:AL55,AI57:AL57,AI59:AL59)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="33"/>
+      <c r="AL64" s="34"/>
+      <c r="AM64" s="32">
+        <f>SUM(AM7:AP7,AM9:AP9,AM11:AP11,AM13:AP13,AM15:AP15,AM17:AP17,AM22:AP22,AM24:AP24,AM26:AP26,AM28:AP28,AM30:AP30,AM32:AP32,AM34:AP34,AM37:AP37,AM39:AP39,AM41:AP41,AM43:AP43,AM45:AP45,AM47:AP47,AM49:AP49,AM51:AP51,AM53:AP53,AM55:AP55,AM57:AP57,AM59:AP59)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="34"/>
+      <c r="AQ64" s="32">
+        <f>SUM(AQ7:AT7,AQ9:AT9,AQ11:AT11,AQ13:AT13,AQ15:AT15,AQ17:AT17,AQ22:AT22,AQ24:AT24,AQ26:AT26,AQ28:AT28,AQ30:AT30,AQ32:AT32,AQ34:AT34,AQ37:AT37,AQ39:AT39,AQ41:AT41,AQ43:AT43,AQ45:AT45,AQ47:AT47,AQ49:AT49,AQ51:AT51,AQ53:AT53,AQ55:AT55,AQ57:AT57,AQ59:AT59)</f>
+        <v>0</v>
+      </c>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="34"/>
+      <c r="AU64" s="32">
+        <f>SUM(AU7:AX7,AU9:AX9,AU11:AX11,AU13:AX13,AU15:AX15,AU17:AX17,AU22:AX22,AU24:AX24,AU26:AX26,AU28:AX28,AU30:AX30,AU32:AX32,AU34:AX34,AU37:AX37,AU39:AX39,AU41:AX41,AU43:AX43,AU45:AX45,AU47:AX47,AU49:AX49,AU51:AX51,AU53:AX53,AU55:AX55,AU57:AX57,AU59:AX59)</f>
+        <v>0</v>
+      </c>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="34"/>
+      <c r="AY64" s="32">
+        <f>SUM(AY7:BB7,AY9:BB9,AY11:BB11,AY13:BB13,AY15:BB15,AY17:BB17,AY22:BB22,AY24:BB24,AY26:BB26,AY28:BB28,AY30:BB30,AY32:BB32,AY34:BB34,AY37:BB37,AY39:BB39,AY41:BB41,AY43:BB43,AY45:BB45,AY47:BB47,AY49:BB49,AY51:BB51,AY53:BB53,AY55:BB55,AY57:BB57,AY59:BB59)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="33"/>
+      <c r="BA64" s="33"/>
+      <c r="BB64" s="34"/>
+      <c r="BC64" s="32">
+        <f>SUM(BC7:BF7,BC9:BF9,BC11:BF11,BC13:BF13,BC15:BF15,BC17:BF17,BC22:BF22,BC24:BF24,BC26:BF26,BC28:BF28,BC30:BF30,BC32:BF32,BC34:BF34,BC37:BF37,BC39:BF39,BC41:BF41,BC43:BF43,BC45:BF45,BC47:BF47,BC49:BF49,BC51:BF51,BC53:BF53,BC55:BF55,BC57:BF57,BC59:BF59)</f>
+        <v>0</v>
+      </c>
+      <c r="BD64" s="33"/>
+      <c r="BE64" s="33"/>
+      <c r="BF64" s="34"/>
+      <c r="BG64" s="32">
+        <f>SUM(BG7:BJ7,BG9:BJ9,BG11:BJ11,BG13:BJ13,BG15:BJ15,BG17:BJ17,BG22:BJ22,BG24:BJ24,BG26:BJ26,BG28:BJ28,BG30:BJ30,BG32:BJ32,BG34:BJ34,BG37:BJ37,BG39:BJ39,BG41:BJ41,BG43:BJ43,BG45:BJ45,BG47:BJ47,BG49:BJ49,BG51:BJ51,BG53:BJ53,BG55:BJ55,BG57:BJ57,BG59:BJ59)</f>
+        <v>0</v>
+      </c>
+      <c r="BH64" s="33"/>
+      <c r="BI64" s="33"/>
+      <c r="BJ64" s="34"/>
+      <c r="BK64" s="32">
+        <f>SUM(BK7:BN7,BK9:BN9,BK11:BN11,BK13:BN13,BK15:BN15,BK17:BN17,BK22:BN22,BK24:BN24,BK26:BN26,BK28:BN28,BK30:BN30,BK32:BN32,BK34:BN34,BK37:BN37,BK39:BN39,BK41:BN41,BK43:BN43,BK45:BN45,BK47:BN47,BK49:BN49,BK51:BN51,BK53:BN53,BK55:BN55,BK57:BN57,BK59:BN59)</f>
+        <v>0</v>
+      </c>
+      <c r="BL64" s="33"/>
+      <c r="BM64" s="33"/>
+      <c r="BN64" s="34"/>
+      <c r="BO64" s="32">
+        <f>SUM(BO7:BR7,BO9:BR9,BO11:BR11,BO13:BR13,BO15:BR15,BO17:BR17,BO22:BR22,BO24:BR24,BO26:BR26,BO28:BR28,BO30:BR30,BO32:BR32,BO34:BR34,BO37:BR37,BO39:BR39,BO41:BR41,BO43:BR43,BO45:BR45,BO47:BR47,BO49:BR49,BO51:BR51,BO53:BR53,BO55:BR55,BO57:BR57,BO59:BR59)</f>
+        <v>0</v>
+      </c>
+      <c r="BP64" s="33"/>
+      <c r="BQ64" s="33"/>
+      <c r="BR64" s="34"/>
+      <c r="BS64" s="32">
+        <f>SUM(BS7:BV7,BS9:BV9,BS11:BV11,BS13:BV13,BS15:BV15,BS17:BV17,BS22:BV22,BS24:BV24,BS26:BV26,BS28:BV28,BS30:BV30,BS32:BV32,BS34:BV34,BS37:BV37,BS39:BV39,BS41:BV41,BS43:BV43,BS45:BV45,BS47:BV47,BS49:BV49,BS51:BV51,BS53:BV53,BS55:BV55,BS57:BV57,BS59:BV59)</f>
+        <v>0</v>
+      </c>
+      <c r="BT64" s="33"/>
+      <c r="BU64" s="33"/>
+      <c r="BV64" s="34"/>
+      <c r="BW64" s="32">
+        <f>SUM(BW7:BZ7,BW9:BZ9,BW11:BZ11,BW13:BZ13,BW15:BZ15,BW17:BZ17,BW22:BZ22,BW24:BZ24,BW26:BZ26,BW28:BZ28,BW30:BZ30,BW32:BZ32,BW34:BZ34,BW37:BZ37,BW39:BZ39,BW41:BZ41,BW43:BZ43,BW45:BZ45,BW47:BZ47,BW49:BZ49,BW51:BZ51,BW53:BZ53,BW55:BZ55,BW57:BZ57,BW59:BZ59)</f>
+        <v>0</v>
+      </c>
+      <c r="BX64" s="33"/>
+      <c r="BY64" s="33"/>
+      <c r="BZ64" s="34"/>
+      <c r="CA64" s="32">
+        <f>SUM(CA7:CD7,CA9:CD9,CA11:CD11,CA13:CD13,CA15:CD15,CA17:CD17,CA22:CD22,CA24:CD24,CA26:CD26,CA28:CD28,CA30:CD30,CA32:CD32,CA34:CD34,CA37:CD37,CA39:CD39,CA41:CD41,CA43:CD43,CA45:CD45,CA47:CD47,CA49:CD49,CA51:CD51,CA53:CD53,CA55:CD55,CA57:CD57,CA59:CD59)</f>
+        <v>0</v>
+      </c>
+      <c r="CB64" s="33"/>
+      <c r="CC64" s="33"/>
+      <c r="CD64" s="34"/>
+      <c r="CE64" s="32">
+        <f>SUM(CE7:CH7,CE9:CH9,CE11:CH11,CE13:CH13,CE15:CH15,CE17:CH17,CE22:CH22,CE24:CH24,CE26:CH26,CE28:CH28,CE30:CH30,CE32:CH32,CE34:CH34,CE37:CH37,CE39:CH39,CE41:CH41,CE43:CH43,CE45:CH45,CE47:CH47,CE49:CH49,CE51:CH51,CE53:CH53,CE55:CH55,CE57:CH57,CE59:CH59)</f>
+        <v>0</v>
+      </c>
+      <c r="CF64" s="33"/>
+      <c r="CG64" s="33"/>
+      <c r="CH64" s="34"/>
+      <c r="CI64" s="32">
+        <f>SUM(CI7:CL7,CI9:CL9,CI11:CL11,CI13:CL13,CI15:CL15,CI17:CL17,CI22:CL22,CI24:CL24,CI26:CL26,CI28:CL28,CI30:CL30,CI32:CL32,CI34:CL34,CI37:CL37,CI39:CL39,CI41:CL41,CI43:CL43,CI45:CL45,CI47:CL47,CI49:CL49,CI51:CL51,CI53:CL53,CI55:CL55,CI57:CL57,CI59:CL59)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ64" s="33"/>
+      <c r="CK64" s="33"/>
+      <c r="CL64" s="34"/>
+      <c r="CM64" s="32">
+        <f>SUM(CM7:CP7,CM9:CP9,CM11:CP11,CM13:CP13,CM15:CP15,CM17:CP17,CM22:CP22,CM24:CP24,CM26:CP26,CM28:CP28,CM30:CP30,CM32:CP32,CM34:CP34,CM37:CP37,CM39:CP39,CM41:CP41,CM43:CP43,CM45:CP45,CM47:CP47,CM49:CP49,CM51:CP51,CM53:CP53,CM55:CP55,CM57:CP57,CM59:CP59)</f>
+        <v>0</v>
+      </c>
+      <c r="CN64" s="33"/>
+      <c r="CO64" s="33"/>
+      <c r="CP64" s="34"/>
+    </row>
+    <row r="65" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7">
+        <f>SUM(E7:E60)</f>
+        <v>22.5</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="32">
+        <f>SUM(G8:J8,G10:J10,G12:J12,G14:J14,G16:J16,G18:J18,G23:J23,G25:J25,G27:J27,G29:J29,G31:J31,G33:J33,G35:J35,G38:J38,G40:J40,G42:J42,G44:J44,G46:J46,G48:J48,G50:J50,G52:J52,G54:J54,G56:J56,G58:J58,G60:J60)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="32">
+        <f>SUM(K8:N8,K10:N10,K12:N12,K14:N14,K16:N16,K18:N18,K23:N23,K25:N25,K27:N27,K29:N29,K31:N31,K33:N33,K35:N35,K38:N38,K40:N40,K42:N42,K44:N44,K46:N46,K48:N48,K50:N50,K52:N52,K54:N54,K56:N56,K58:N58,K60:N60)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="32">
+        <f>SUM(O8:R8,O10:R10,O12:R12,O14:R14,O16:R16,O18:R18,O23:R23,O25:R25,O27:R27,O29:R29,O31:R31,O33:R33,O35:R35,O38:R38,O40:R40,O42:R42,O44:R44,O46:R46,O48:R48,O50:R50,O52:R52,O54:R54,O56:R56,O58:R58,O60:R60)</f>
+        <v>4.5</v>
+      </c>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="32">
+        <f>SUM(S8:V8,S10:V10,S12:V12,S14:V14,S16:V16,S18:V18,S23:V23,S25:V25,S27:V27,S29:V29,S31:V31,S33:V33,S35:V35,S38:V38,S40:V40,S42:V42,S44:V44,S46:V46,S48:V48,S50:V50,S52:V52,S54:V54,S56:V56,S58:V58,S60:V60)</f>
+        <v>1.5</v>
+      </c>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="32">
+        <f>SUM(W8:Z8,W10:Z10,W12:Z12,W14:Z14,W16:Z16,W18:Z18,W23:Z23,W25:Z25,W27:Z27,W29:Z29,W31:Z31,W33:Z33,W35:Z35,W38:Z38,W40:Z40,W42:Z42,W44:Z44,W46:Z46,W48:Z48,W50:Z50,W52:Z52,W54:Z54,W56:Z56,W58:Z58,W60:Z60)</f>
+        <v>1.5</v>
+      </c>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="32">
+        <f>SUM(AA8:AD8,AA10:AD10,AA12:AD12,AA14:AD14,AA16:AD16,AA18:AD18,AA23:AD23,AA25:AD25,AA27:AD27,AA29:AD29,AA31:AD31,AA33:AD33,AA35:AD35,AA38:AD38,AA40:AD40,AA42:AD42,AA44:AD44,AA46:AD46,AA48:AD48,AA50:AD50,AA52:AD52,AA54:AD54,AA56:AD56,AA58:AD58,AA60:AD60)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="32">
+        <f>SUM(AE8:AH8,AE10:AH10,AE12:AH12,AE14:AH14,AE16:AH16,AE18:AH18,AE23:AH23,AE25:AH25,AE27:AH27,AE29:AH29,AE31:AH31,AE33:AH33,AE35:AH35,AE38:AH38,AE40:AH40,AE42:AH42,AE44:AH44,AE46:AH46,AE48:AH48,AE50:AH50,AE52:AH52,AE54:AH54,AE56:AH56,AE58:AH58,AE60:AH60)</f>
+        <v>1</v>
+      </c>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="34"/>
+      <c r="AI65" s="32">
+        <f>SUM(AI8:AL8,AI10:AL10,AI12:AL12,AI14:AL14,AI16:AL16,AI18:AL18,AI23:AL23,AI25:AL25,AI27:AL27,AI29:AL29,AI31:AL31,AI33:AL33,AI35:AL35,AI38:AL38,AI40:AL40,AI42:AL42,AI44:AL44,AI46:AL46,AI48:AL48,AI50:AL50,AI52:AL52,AI54:AL54,AI56:AL56,AI58:AL58,AI60:AL60)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="33"/>
+      <c r="AL65" s="34"/>
+      <c r="AM65" s="32">
+        <f>SUM(AM8:AP8,AM10:AP10,AM12:AP12,AM14:AP14,AM16:AP16,AM18:AP18,AM23:AP23,AM25:AP25,AM27:AP27,AM29:AP29,AM31:AP31,AM33:AP33,AM35:AP35,AM38:AP38,AM40:AP40,AM42:AP42,AM44:AP44,AM46:AP46,AM48:AP48,AM50:AP50,AM52:AP52,AM54:AP54,AM56:AP56,AM58:AP58,AM60:AP60)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AN65" s="33"/>
+      <c r="AO65" s="33"/>
+      <c r="AP65" s="34"/>
+      <c r="AQ65" s="32">
+        <f>SUM(AQ8:AT8,AQ10:AT10,AQ12:AT12,AQ14:AT14,AQ16:AT16,AQ18:AT18,AQ23:AT23,AQ25:AT25,AQ27:AT27,AQ29:AT29,AQ31:AT31,AQ33:AT33,AQ35:AT35,AQ38:AT38,AQ40:AT40,AQ42:AT42,AQ44:AT44,AQ46:AT46,AQ48:AT48,AQ50:AT50,AQ52:AT52,AQ54:AT54,AQ56:AT56,AQ58:AT58,AQ60:AT60)</f>
+        <v>0</v>
+      </c>
+      <c r="AR65" s="33"/>
+      <c r="AS65" s="33"/>
+      <c r="AT65" s="34"/>
+      <c r="AU65" s="32">
+        <f>SUM(AU8:AX8,AU10:AX10,AU12:AX12,AU14:AX14,AU16:AX16,AU18:AX18,AU23:AX23,AU25:AX25,AU27:AX27,AU29:AX29,AU31:AX31,AU33:AX33,AU35:AX35,AU38:AX38,AU40:AX40,AU42:AX42,AU44:AX44,AU46:AX46,AU48:AX48,AU50:AX50,AU52:AX52,AU54:AX54,AU56:AX56,AU58:AX58,AU60:AX60)</f>
+        <v>0</v>
+      </c>
+      <c r="AV65" s="33"/>
+      <c r="AW65" s="33"/>
+      <c r="AX65" s="34"/>
+      <c r="AY65" s="32">
+        <f>SUM(AY8:BB8,AY10:BB10,AY12:BB12,AY14:BB14,AY16:BB16,AY18:BB18,AY23:BB23,AY25:BB25,AY27:BB27,AY29:BB29,AY31:BB31,AY33:BB33,AY35:BB35,AY38:BB38,AY40:BB40,AY42:BB42,AY44:BB44,AY46:BB46,AY48:BB48,AY50:BB50,AY52:BB52,AY54:BB54,AY56:BB56,AY58:BB58,AY60:BB60)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="33"/>
+      <c r="BA65" s="33"/>
+      <c r="BB65" s="34"/>
+      <c r="BC65" s="32">
+        <f>SUM(BC8:BF8,BC10:BF10,BC12:BF12,BC14:BF14,BC16:BF16,BC18:BF18,BC23:BF23,BC25:BF25,BC27:BF27,BC29:BF29,BC31:BF31,BC33:BF33,BC35:BF35,BC38:BF38,BC40:BF40,BC42:BF42,BC44:BF44,BC46:BF46,BC48:BF48,BC50:BF50,BC52:BF52,BC54:BF54,BC56:BF56,BC58:BF58,BC60:BF60)</f>
+        <v>0</v>
+      </c>
+      <c r="BD65" s="33"/>
+      <c r="BE65" s="33"/>
+      <c r="BF65" s="34"/>
+      <c r="BG65" s="32">
+        <f>SUM(BG8:BJ8,BG10:BJ10,BG12:BJ12,BG14:BJ14,BG16:BJ16,BG18:BJ18,BG23:BJ23,BG25:BJ25,BG27:BJ27,BG29:BJ29,BG31:BJ31,BG33:BJ33,BG35:BJ35,BG38:BJ38,BG40:BJ40,BG42:BJ42,BG44:BJ44,BG46:BJ46,BG48:BJ48,BG50:BJ50,BG52:BJ52,BG54:BJ54,BG56:BJ56,BG58:BJ58,BG60:BJ60)</f>
+        <v>0</v>
+      </c>
+      <c r="BH65" s="33"/>
+      <c r="BI65" s="33"/>
+      <c r="BJ65" s="34"/>
+      <c r="BK65" s="32">
+        <f>SUM(BK8:BN8,BK10:BN10,BK12:BN12,BK14:BN14,BK16:BN16,BK18:BN18,BK23:BN23,BK25:BN25,BK27:BN27,BK29:BN29,BK31:BN31,BK33:BN33,BK35:BN35,BK38:BN38,BK40:BN40,BK42:BN42,BK44:BN44,BK46:BN46,BK48:BN48,BK50:BN50,BK52:BN52,BK54:BN54,BK56:BN56,BK58:BN58,BK60:BN60)</f>
+        <v>0</v>
+      </c>
+      <c r="BL65" s="33"/>
+      <c r="BM65" s="33"/>
+      <c r="BN65" s="34"/>
+      <c r="BO65" s="32">
+        <f>SUM(BO8:BR8,BO10:BR10,BO12:BR12,BO14:BR14,BO16:BR16,BO18:BR18,BO23:BR23,BO25:BR25,BO27:BR27,BO29:BR29,BO31:BR31,BO33:BR33,BO35:BR35,BO38:BR38,BO40:BR40,BO42:BR42,BO44:BR44,BO46:BR46,BO48:BR48,BO50:BR50,BO52:BR52,BO54:BR54,BO56:BR56,BO58:BR58,BO60:BR60)</f>
+        <v>0</v>
+      </c>
+      <c r="BP65" s="33"/>
+      <c r="BQ65" s="33"/>
+      <c r="BR65" s="34"/>
+      <c r="BS65" s="32">
+        <f>SUM(BS8:BV8,BS10:BV10,BS12:BV12,BS14:BV14,BS16:BV16,BS18:BV18,BS23:BV23,BS25:BV25,BS27:BV27,BS29:BV29,BS31:BV31,BS33:BV33,BS35:BV35,BS38:BV38,BS40:BV40,BS42:BV42,BS44:BV44,BS46:BV46,BS48:BV48,BS50:BV50,BS52:BV52,BS54:BV54,BS56:BV56,BS58:BV58,BS60:BV60)</f>
+        <v>0</v>
+      </c>
+      <c r="BT65" s="33"/>
+      <c r="BU65" s="33"/>
+      <c r="BV65" s="34"/>
+      <c r="BW65" s="32">
+        <f>SUM(BW8:BZ8,BW10:BZ10,BW12:BZ12,BW14:BZ14,BW16:BZ16,BW18:BZ18,BW23:BZ23,BW25:BZ25,BW27:BZ27,BW29:BZ29,BW31:BZ31,BW33:BZ33,BW35:BZ35,BW38:BZ38,BW40:BZ40,BW42:BZ42,BW44:BZ44,BW46:BZ46,BW48:BZ48,BW50:BZ50,BW52:BZ52,BW54:BZ54,BW56:BZ56,BW58:BZ58,BW60:BZ60)</f>
+        <v>0</v>
+      </c>
+      <c r="BX65" s="33"/>
+      <c r="BY65" s="33"/>
+      <c r="BZ65" s="34"/>
+      <c r="CA65" s="32">
+        <f>SUM(CA8:CD8,CA10:CD10,CA12:CD12,CA14:CD14,CA16:CD16,CA18:CD18,CA23:CD23,CA25:CD25,CA27:CD27,CA29:CD29,CA31:CD31,CA33:CD33,CA35:CD35,CA38:CD38,CA40:CD40,CA42:CD42,CA44:CD44,CA46:CD46,CA48:CD48,CA50:CD50,CA52:CD52,CA54:CD54,CA56:CD56,CA58:CD58,CA60:CD60)</f>
+        <v>0</v>
+      </c>
+      <c r="CB65" s="33"/>
+      <c r="CC65" s="33"/>
+      <c r="CD65" s="34"/>
+      <c r="CE65" s="32">
+        <f>SUM(CE8:CH8,CE10:CH10,CE12:CH12,CE14:CH14,CE16:CH16,CE18:CH18,CE23:CH23,CE25:CH25,CE27:CH27,CE29:CH29,CE31:CH31,CE33:CH33,CE35:CH35,CE38:CH38,CE40:CH40,CE42:CH42,CE44:CH44,CE46:CH46,CE48:CH48,CE50:CH50,CE52:CH52,CE54:CH54,CE56:CH56,CE58:CH58,CE60:CH60)</f>
+        <v>0</v>
+      </c>
+      <c r="CF65" s="33"/>
+      <c r="CG65" s="33"/>
+      <c r="CH65" s="34"/>
+      <c r="CI65" s="32">
+        <f>SUM(CI8:CL8,CI10:CL10,CI12:CL12,CI14:CL14,CI16:CL16,CI18:CL18,CI23:CL23,CI25:CL25,CI27:CL27,CI29:CL29,CI31:CL31,CI33:CL33,CI35:CL35,CI38:CL38,CI40:CL40,CI42:CL42,CI44:CL44,CI46:CL46,CI48:CL48,CI50:CL50,CI52:CL52,CI54:CL54,CI56:CL56,CI58:CL58,CI60:CL60)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ65" s="33"/>
+      <c r="CK65" s="33"/>
+      <c r="CL65" s="34"/>
+      <c r="CM65" s="32">
+        <f>SUM(CM8:CP8,CM10:CP10,CM12:CP12,CM14:CP14,CM16:CP16,CM18:CP18,CM23:CP23,CM25:CP25,CM27:CP27,CM29:CP29,CM31:CP31,CM33:CP33,CM35:CP35,CM38:CP38,CM40:CP40,CM42:CP42,CM44:CP44,CM46:CP46,CM48:CP48,CM50:CP50,CM52:CP52,CM54:CP54,CM56:CP56,CM58:CP58,CM60:CP60)</f>
+        <v>0</v>
+      </c>
+      <c r="CN65" s="33"/>
+      <c r="CO65" s="33"/>
+      <c r="CP65" s="34"/>
+    </row>
+    <row r="66" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="32">
-        <f>D62-E63</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="33"/>
+      <c r="D66" s="50">
+        <f>D64-E65</f>
+        <v>1.5</v>
+      </c>
+      <c r="E66" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
-    <mergeCell ref="CI4:CL4"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="CI62:CL62"/>
-    <mergeCell ref="CI63:CL63"/>
-    <mergeCell ref="CM4:CP4"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CM62:CP62"/>
-    <mergeCell ref="CM63:CP63"/>
-    <mergeCell ref="CA4:CD4"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CA62:CD62"/>
-    <mergeCell ref="CA63:CD63"/>
-    <mergeCell ref="CE4:CH4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="CE62:CH62"/>
-    <mergeCell ref="CE63:CH63"/>
-    <mergeCell ref="BS4:BV4"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BS62:BV62"/>
-    <mergeCell ref="BS63:BV63"/>
-    <mergeCell ref="BW4:BZ4"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BW62:BZ62"/>
-    <mergeCell ref="BW63:BZ63"/>
-    <mergeCell ref="BK4:BN4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BK62:BN62"/>
-    <mergeCell ref="BK63:BN63"/>
-    <mergeCell ref="BO4:BR4"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BO62:BR62"/>
-    <mergeCell ref="BO63:BR63"/>
-    <mergeCell ref="BC4:BF4"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BC62:BF62"/>
-    <mergeCell ref="BC63:BF63"/>
-    <mergeCell ref="BG4:BJ4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BG62:BJ62"/>
-    <mergeCell ref="BG63:BJ63"/>
-    <mergeCell ref="AU4:AX4"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AU62:AX62"/>
-    <mergeCell ref="AU63:AX63"/>
-    <mergeCell ref="AY4:BB4"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AY62:BB62"/>
-    <mergeCell ref="AY63:BB63"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
+  <mergeCells count="243">
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="AI65:AL65"/>
+    <mergeCell ref="AM65:AP65"/>
+    <mergeCell ref="AQ65:AT65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="AI64:AL64"/>
+    <mergeCell ref="AM64:AP64"/>
+    <mergeCell ref="AQ64:AT64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="W65:Z65"/>
+    <mergeCell ref="AA65:AD65"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="W64:Z64"/>
+    <mergeCell ref="AA64:AD64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="AM4:AP4"/>
     <mergeCell ref="AQ4:AT4"/>
     <mergeCell ref="C7:C8"/>
@@ -7085,123 +7383,86 @@
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="AE63:AH63"/>
-    <mergeCell ref="AI63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AQ63:AT63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="AI62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AQ62:AT62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="AA63:AD63"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="AA62:AD62"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AI4:AL4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="AU4:AX4"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AU64:AX64"/>
+    <mergeCell ref="AU65:AX65"/>
+    <mergeCell ref="AY4:BB4"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="AY64:BB64"/>
+    <mergeCell ref="AY65:BB65"/>
+    <mergeCell ref="BC4:BF4"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BC64:BF64"/>
+    <mergeCell ref="BC65:BF65"/>
+    <mergeCell ref="BG4:BJ4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BG64:BJ64"/>
+    <mergeCell ref="BG65:BJ65"/>
+    <mergeCell ref="BK4:BN4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BK64:BN64"/>
+    <mergeCell ref="BK65:BN65"/>
+    <mergeCell ref="BO4:BR4"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BO64:BR64"/>
+    <mergeCell ref="BO65:BR65"/>
+    <mergeCell ref="BS4:BV4"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BS64:BV64"/>
+    <mergeCell ref="BS65:BV65"/>
+    <mergeCell ref="BW4:BZ4"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BW64:BZ64"/>
+    <mergeCell ref="BW65:BZ65"/>
+    <mergeCell ref="CA4:CD4"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CA64:CD64"/>
+    <mergeCell ref="CA65:CD65"/>
+    <mergeCell ref="CE4:CH4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="CE64:CH64"/>
+    <mergeCell ref="CE65:CH65"/>
+    <mergeCell ref="CI4:CL4"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="CI64:CL64"/>
+    <mergeCell ref="CI65:CL65"/>
+    <mergeCell ref="CM4:CP4"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CM64:CP64"/>
+    <mergeCell ref="CM65:CP65"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/zeitplan.xlsx
+++ b/Dokumente/zeitplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE4CAA-D52E-408B-ADAA-2ECC6FC2FB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2016806-43CF-4572-B199-907CA325E4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8592" yWindow="822" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>Zeitplan</t>
   </si>
@@ -70,60 +70,6 @@
   </si>
   <si>
     <t>Differenz</t>
-  </si>
-  <si>
-    <t>2.1 Aktivität</t>
-  </si>
-  <si>
-    <t>2.2 Aktivität</t>
-  </si>
-  <si>
-    <t>2.3 Aktivität</t>
-  </si>
-  <si>
-    <t>2.4 Aktivität</t>
-  </si>
-  <si>
-    <t>2.5 Aktivität</t>
-  </si>
-  <si>
-    <t>2.7 Aktivität</t>
-  </si>
-  <si>
-    <t>3.1 Aktivität</t>
-  </si>
-  <si>
-    <t>3.2 Aktivität</t>
-  </si>
-  <si>
-    <t>3.3 Aktivität</t>
-  </si>
-  <si>
-    <t>3.4 Aktivität</t>
-  </si>
-  <si>
-    <t>3.5 Aktivität</t>
-  </si>
-  <si>
-    <t>3.6 Aktivität</t>
-  </si>
-  <si>
-    <t>3.7 Aktivität</t>
-  </si>
-  <si>
-    <t>3.8 Aktivität</t>
-  </si>
-  <si>
-    <t>3.9 Aktivität</t>
-  </si>
-  <si>
-    <t>3.10 Aktivität</t>
-  </si>
-  <si>
-    <t>3.12 Aktivität</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6 Aktivität </t>
   </si>
   <si>
     <t>Timon Kindler</t>
@@ -239,10 +185,64 @@
     <t>1.6 Erstellen der Hermes Strucktur</t>
   </si>
   <si>
-    <t>1.7 Erstellen des Arbeitsplans</t>
+    <t>1.4 Erstellung der Dokument und Ablagevorlagen</t>
   </si>
   <si>
-    <t>1.4 Erstellung der Dokument und Ablagevorlagen</t>
+    <t>2.1 SOLL IST Analyse</t>
+  </si>
+  <si>
+    <t>2.2 Variantenvergleich</t>
+  </si>
+  <si>
+    <t>2.4 UML</t>
+  </si>
+  <si>
+    <t>2.5 Test-Konzept</t>
+  </si>
+  <si>
+    <t>3.12 Bericht abschliessen+Reserve</t>
+  </si>
+  <si>
+    <t>3.1 Grafiken &amp; Animationen erstellen</t>
+  </si>
+  <si>
+    <t>3.3 Spielermovement implementieren</t>
+  </si>
+  <si>
+    <t>1.7 Erstellen des Zeitplans</t>
+  </si>
+  <si>
+    <t>3.4 Spieler Tod implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 Highscore </t>
+  </si>
+  <si>
+    <t>3.10  Spieleinstellungen anpassen</t>
+  </si>
+  <si>
+    <t>KW 02</t>
+  </si>
+  <si>
+    <t>KW 03</t>
+  </si>
+  <si>
+    <t>2.3 Use Case Diagramm &amp; GUI Entwürfe</t>
+  </si>
+  <si>
+    <t>3.9 Hintergrundmusik und akustische Effekte implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 Welt &amp; Hindernisse Generierung </t>
+  </si>
+  <si>
+    <t>3.5 Spieler Präferenzen Speichern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7 Startscreen realisieren </t>
+  </si>
+  <si>
+    <t>3.8 Bestenliste anzeigen</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -550,6 +550,38 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,22 +600,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -613,16 +636,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,375 +931,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:CP66"/>
+  <dimension ref="A2:CP62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="133" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C55" sqref="C55:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.15625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0.47265625" customWidth="1"/>
-    <col min="3" max="3" width="40.89453125" customWidth="1"/>
-    <col min="4" max="6" width="4.68359375" customWidth="1"/>
-    <col min="7" max="94" width="2.20703125" customWidth="1"/>
+    <col min="1" max="1" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="4" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="94" width="2.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:94" x14ac:dyDescent="0.3">
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="52" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:94" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="4" spans="3:94" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41" t="s">
         <v>58</v>
       </c>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
     </row>
-    <row r="3" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-    </row>
-    <row r="4" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="29"/>
-      <c r="BC4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD4" s="29"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="29"/>
-      <c r="BG4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="29"/>
-      <c r="BJ4" s="29"/>
-      <c r="BK4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL4" s="29"/>
-      <c r="BM4" s="29"/>
-      <c r="BN4" s="29"/>
-      <c r="BO4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="BP4" s="29"/>
-      <c r="BQ4" s="29"/>
-      <c r="BR4" s="29"/>
-      <c r="BS4" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="BT4" s="29"/>
-      <c r="BU4" s="29"/>
-      <c r="BV4" s="29"/>
-      <c r="BW4" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="BX4" s="29"/>
-      <c r="BY4" s="29"/>
-      <c r="BZ4" s="29"/>
-      <c r="CA4" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="CB4" s="29"/>
-      <c r="CC4" s="29"/>
-      <c r="CD4" s="29"/>
-      <c r="CE4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="CF4" s="29"/>
-      <c r="CG4" s="29"/>
-      <c r="CH4" s="29"/>
-      <c r="CI4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="CJ4" s="29"/>
-      <c r="CK4" s="29"/>
-      <c r="CL4" s="29"/>
-      <c r="CM4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="CN4" s="29"/>
-      <c r="CO4" s="29"/>
-      <c r="CP4" s="29"/>
-    </row>
-    <row r="5" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:94" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="BJ5" s="31"/>
-      <c r="BK5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN5" s="31"/>
-      <c r="BO5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP5" s="31"/>
-      <c r="BQ5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="BV5" s="31"/>
-      <c r="BW5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="BX5" s="31"/>
-      <c r="BY5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="BZ5" s="31"/>
-      <c r="CA5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="CB5" s="31"/>
-      <c r="CC5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="CF5" s="31"/>
-      <c r="CG5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="CH5" s="31"/>
-      <c r="CI5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="CL5" s="31"/>
-      <c r="CM5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="CN5" s="31"/>
-      <c r="CO5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="CP5" s="31"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="43"/>
+      <c r="O5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="43"/>
+      <c r="S5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="43"/>
+      <c r="W5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN5" s="43"/>
+      <c r="BO5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT5" s="43"/>
+      <c r="BU5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV5" s="43"/>
+      <c r="BW5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX5" s="43"/>
+      <c r="BY5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ5" s="43"/>
+      <c r="CA5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB5" s="43"/>
+      <c r="CC5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD5" s="43"/>
+      <c r="CE5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF5" s="43"/>
+      <c r="CG5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="CH5" s="43"/>
+      <c r="CI5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ5" s="43"/>
+      <c r="CK5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL5" s="43"/>
+      <c r="CM5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="CN5" s="43"/>
+      <c r="CO5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP5" s="43"/>
     </row>
-    <row r="6" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:94" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1369,19 +1395,19 @@
       <c r="CO6" s="2"/>
       <c r="CP6" s="3"/>
     </row>
-    <row r="7" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="45">
-        <f>SUM(G7:AT7)</f>
-        <v>7</v>
-      </c>
-      <c r="E7" s="45">
+    <row r="7" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="54">
+        <f>SUM(G7:CP7)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="54">
         <f>SUM(G8:AT8)</f>
-        <v>7</v>
-      </c>
-      <c r="F7" s="45">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="54">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
@@ -1414,7 +1440,7 @@
       <c r="AC7" s="9"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AF7" s="36"/>
       <c r="AG7" s="9"/>
@@ -1482,21 +1508,21 @@
       <c r="CO7" s="9"/>
       <c r="CP7" s="10"/>
     </row>
-    <row r="8" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="37">
+    <row r="8" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="31">
         <v>4.5</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="24"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="37">
+      <c r="K8" s="31">
         <v>1</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="12"/>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
@@ -1515,16 +1541,16 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="37">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="38"/>
+      <c r="AE8" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="AF8" s="32"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="13"/>
-      <c r="AI8" s="37">
+      <c r="AI8" s="31">
         <v>0.5</v>
       </c>
-      <c r="AJ8" s="38"/>
+      <c r="AJ8" s="32"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="14"/>
@@ -1584,24 +1610,24 @@
       <c r="CO8" s="12"/>
       <c r="CP8" s="13"/>
     </row>
-    <row r="9" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="45">
-        <f t="shared" ref="D9" si="0">SUM(G9:AT9)</f>
+    <row r="9" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="54">
+        <f t="shared" ref="D9" si="0">SUM(G9:CP9)</f>
         <v>3.5</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="54">
         <f t="shared" ref="E9" si="1">SUM(G10:AT10)</f>
         <v>3.5</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="54">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="27"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35">
@@ -1689,19 +1715,19 @@
       <c r="CO9" s="15"/>
       <c r="CP9" s="16"/>
     </row>
-    <row r="10" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="44"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+    <row r="10" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="53"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="37">
+      <c r="K10" s="31">
         <v>3.5</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
       <c r="Q10" s="12"/>
@@ -1783,19 +1809,19 @@
       <c r="CO10" s="12"/>
       <c r="CP10" s="13"/>
     </row>
-    <row r="11" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="45">
-        <f t="shared" ref="D11" si="2">SUM(G11:AT11)</f>
+    <row r="11" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" ref="D11" si="2">SUM(G11:CP11)</f>
         <v>4.5</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="54">
         <f t="shared" ref="E11" si="3">SUM(G12:AT12)</f>
         <v>4.5</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="54">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
@@ -1890,11 +1916,11 @@
       <c r="CO11" s="15"/>
       <c r="CP11" s="16"/>
     </row>
-    <row r="12" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="44"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+    <row r="12" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="53"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -1903,10 +1929,10 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="37">
+      <c r="O12" s="31">
         <v>4.5</v>
       </c>
-      <c r="P12" s="38"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="14"/>
@@ -1986,19 +2012,19 @@
       <c r="CO12" s="12"/>
       <c r="CP12" s="13"/>
     </row>
-    <row r="13" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="45">
-        <f t="shared" ref="D13" si="4">SUM(G13:AT13)</f>
+    <row r="13" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="54">
+        <f t="shared" ref="D13" si="4">SUM(G13:CP13)</f>
         <v>1.5</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="54">
         <f t="shared" ref="E13" si="5">SUM(G14:AT14)</f>
         <v>1.5</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="54">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
@@ -2093,11 +2119,11 @@
       <c r="CO13" s="15"/>
       <c r="CP13" s="16"/>
     </row>
-    <row r="14" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="44"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+    <row r="14" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="53"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -2110,10 +2136,10 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="37">
+      <c r="S14" s="31">
         <v>1.5</v>
       </c>
-      <c r="T14" s="38"/>
+      <c r="T14" s="32"/>
       <c r="U14" s="12"/>
       <c r="V14" s="13"/>
       <c r="W14" s="14"/>
@@ -2189,19 +2215,19 @@
       <c r="CO14" s="12"/>
       <c r="CP14" s="13"/>
     </row>
-    <row r="15" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="45">
-        <f t="shared" ref="D15" si="6">SUM(G15:AT15)</f>
+    <row r="15" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" ref="D15" si="6">SUM(G15:CP15)</f>
         <v>3</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="54">
         <f t="shared" ref="E15" si="7">SUM(G16:AT16)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="54">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>0</v>
       </c>
@@ -2298,11 +2324,11 @@
       <c r="CO15" s="15"/>
       <c r="CP15" s="16"/>
     </row>
-    <row r="16" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="44"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+    <row r="16" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="53"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -2319,16 +2345,16 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="37">
+      <c r="W16" s="31">
         <v>1.5</v>
       </c>
-      <c r="X16" s="38"/>
+      <c r="X16" s="32"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="13"/>
-      <c r="AA16" s="37">
+      <c r="AA16" s="31">
         <v>1.5</v>
       </c>
-      <c r="AB16" s="38"/>
+      <c r="AB16" s="32"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="14"/>
@@ -2396,19 +2422,19 @@
       <c r="CO16" s="12"/>
       <c r="CP16" s="13"/>
     </row>
-    <row r="17" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="45">
-        <f t="shared" ref="D17:D34" si="8">SUM(G17:AT17)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E17" s="45">
+    <row r="17" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="54">
+        <f t="shared" ref="D17" si="8">SUM(G17:CP17)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="54">
         <f>SUM(G18:AT18)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="54">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>0</v>
       </c>
@@ -2440,8 +2466,10 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="16"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="15"/>
+      <c r="AI17" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="36"/>
       <c r="AK17" s="15"/>
       <c r="AL17" s="16"/>
       <c r="AM17" s="35">
@@ -2503,11 +2531,11 @@
       <c r="CO17" s="15"/>
       <c r="CP17" s="16"/>
     </row>
-    <row r="18" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="44"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+    <row r="18" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="53"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -2536,14 +2564,16 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
       <c r="AH18" s="13"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="12"/>
+      <c r="AI18" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="34"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="13"/>
-      <c r="AM18" s="37">
+      <c r="AM18" s="31">
         <v>1.5</v>
       </c>
-      <c r="AN18" s="38"/>
+      <c r="AN18" s="32"/>
       <c r="AO18" s="12"/>
       <c r="AP18" s="13"/>
       <c r="AQ18" s="14"/>
@@ -2599,21 +2629,21 @@
       <c r="CO18" s="12"/>
       <c r="CP18" s="13"/>
     </row>
-    <row r="19" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="45">
-        <f t="shared" ref="D19:D20" si="9">SUM(G19:AT19)</f>
+    <row r="19" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="54">
+        <f t="shared" ref="D19" si="9">SUM(G19:CP19)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="54">
         <f>SUM(G20:AT20)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F19" s="45">
+        <v>3</v>
+      </c>
+      <c r="F19" s="54">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
@@ -2708,11 +2738,11 @@
       <c r="CO19" s="15"/>
       <c r="CP19" s="16"/>
     </row>
-    <row r="20" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="44"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+    <row r="20" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="53"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="14"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -2749,12 +2779,14 @@
       <c r="AN20" s="12"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="13"/>
-      <c r="AQ20" s="37">
+      <c r="AQ20" s="31">
         <v>1.5</v>
       </c>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="53"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="AT20" s="32"/>
       <c r="AU20" s="14"/>
       <c r="AV20" s="12"/>
       <c r="AW20" s="12"/>
@@ -2804,7 +2836,7 @@
       <c r="CO20" s="12"/>
       <c r="CP20" s="13"/>
     </row>
-    <row r="21" spans="3:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:94" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2900,21 +2932,21 @@
       <c r="CO21" s="18"/>
       <c r="CP21" s="19"/>
     </row>
-    <row r="22" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="45">
-        <f t="shared" ref="E22:E34" si="10">SUM(G23:AT23)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="45">
+    <row r="22" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="54">
+        <f>SUM(G22:CP22)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="54">
+        <f>SUM(G23:CP23)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="54">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="9"/>
@@ -2956,10 +2988,14 @@
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
       <c r="AT22" s="10"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="10"/>
+      <c r="AU22" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="37"/>
       <c r="AY22" s="11"/>
       <c r="AZ22" s="9"/>
       <c r="BA22" s="9"/>
@@ -3005,11 +3041,11 @@
       <c r="CO22" s="9"/>
       <c r="CP22" s="10"/>
     </row>
-    <row r="23" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="49"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+    <row r="23" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="58"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="14"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -3050,8 +3086,10 @@
       <c r="AR23" s="12"/>
       <c r="AS23" s="12"/>
       <c r="AT23" s="13"/>
-      <c r="AU23" s="14"/>
-      <c r="AV23" s="12"/>
+      <c r="AU23" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="AV23" s="32"/>
       <c r="AW23" s="12"/>
       <c r="AX23" s="13"/>
       <c r="AY23" s="14"/>
@@ -3099,21 +3137,21 @@
       <c r="CO23" s="12"/>
       <c r="CP23" s="13"/>
     </row>
-    <row r="24" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="45">
+    <row r="24" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="54">
+        <f t="shared" ref="D24" si="10">SUM(G24:CP24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="54">
+        <f t="shared" ref="E24" si="11">SUM(G25:CP25)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="54">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="15"/>
@@ -3159,10 +3197,14 @@
       <c r="AV24" s="15"/>
       <c r="AW24" s="15"/>
       <c r="AX24" s="16"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="15"/>
-      <c r="BA24" s="15"/>
-      <c r="BB24" s="16"/>
+      <c r="AY24" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="BB24" s="37"/>
       <c r="BC24" s="17"/>
       <c r="BD24" s="15"/>
       <c r="BE24" s="15"/>
@@ -3204,11 +3246,11 @@
       <c r="CO24" s="15"/>
       <c r="CP24" s="16"/>
     </row>
-    <row r="25" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="49"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
+    <row r="25" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="58"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="14"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -3255,8 +3297,10 @@
       <c r="AX25" s="13"/>
       <c r="AY25" s="14"/>
       <c r="AZ25" s="12"/>
-      <c r="BA25" s="12"/>
-      <c r="BB25" s="13"/>
+      <c r="BA25" s="32">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="40"/>
       <c r="BC25" s="14"/>
       <c r="BD25" s="12"/>
       <c r="BE25" s="12"/>
@@ -3298,21 +3342,21 @@
       <c r="CO25" s="12"/>
       <c r="CP25" s="13"/>
     </row>
-    <row r="26" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="45">
+    <row r="26" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="54">
+        <f t="shared" ref="D26" si="12">SUM(G26:CP26)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="54">
+        <f t="shared" ref="E26" si="13">SUM(G27:CP27)</f>
+        <v>3</v>
+      </c>
+      <c r="F26" s="54">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="15"/>
@@ -3358,12 +3402,16 @@
       <c r="AV26" s="15"/>
       <c r="AW26" s="15"/>
       <c r="AX26" s="16"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="15"/>
-      <c r="BA26" s="15"/>
-      <c r="BB26" s="16"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="15"/>
+      <c r="AY26" s="35">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="36"/>
+      <c r="BA26" s="36">
+        <v>2</v>
+      </c>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="39"/>
       <c r="BE26" s="15"/>
       <c r="BF26" s="16"/>
       <c r="BG26" s="17"/>
@@ -3403,11 +3451,11 @@
       <c r="CO26" s="15"/>
       <c r="CP26" s="16"/>
     </row>
-    <row r="27" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="49"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
+    <row r="27" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="58"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="14"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -3452,10 +3500,14 @@
       <c r="AV27" s="12"/>
       <c r="AW27" s="12"/>
       <c r="AX27" s="13"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="12"/>
-      <c r="BB27" s="13"/>
+      <c r="AY27" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="BB27" s="40"/>
       <c r="BC27" s="14"/>
       <c r="BD27" s="12"/>
       <c r="BE27" s="12"/>
@@ -3497,21 +3549,21 @@
       <c r="CO27" s="12"/>
       <c r="CP27" s="13"/>
     </row>
-    <row r="28" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="45">
+    <row r="28" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="54">
+        <f t="shared" ref="D28" si="14">SUM(G28:CP28)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E28" s="54">
+        <f t="shared" ref="E28" si="15">SUM(G29:CP29)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F28" s="54">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="15"/>
@@ -3561,10 +3613,14 @@
       <c r="AZ28" s="15"/>
       <c r="BA28" s="15"/>
       <c r="BB28" s="16"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="15"/>
-      <c r="BE28" s="15"/>
-      <c r="BF28" s="16"/>
+      <c r="BC28" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36">
+        <v>2</v>
+      </c>
+      <c r="BF28" s="37"/>
       <c r="BG28" s="17"/>
       <c r="BH28" s="15"/>
       <c r="BI28" s="15"/>
@@ -3602,11 +3658,11 @@
       <c r="CO28" s="15"/>
       <c r="CP28" s="16"/>
     </row>
-    <row r="29" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="49"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
+    <row r="29" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="58"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="14"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -3655,10 +3711,10 @@
       <c r="AZ29" s="12"/>
       <c r="BA29" s="12"/>
       <c r="BB29" s="13"/>
-      <c r="BC29" s="14"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="13"/>
+      <c r="BC29" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="BD29" s="32"/>
       <c r="BG29" s="14"/>
       <c r="BH29" s="12"/>
       <c r="BI29" s="12"/>
@@ -3685,32 +3741,32 @@
       <c r="CD29" s="13"/>
       <c r="CE29" s="14"/>
       <c r="CF29" s="12"/>
-      <c r="CG29" s="12"/>
-      <c r="CH29" s="13"/>
       <c r="CI29" s="14"/>
       <c r="CJ29" s="12"/>
-      <c r="CK29" s="12"/>
-      <c r="CL29" s="13"/>
+      <c r="CK29" s="32">
+        <v>2</v>
+      </c>
+      <c r="CL29" s="40"/>
       <c r="CM29" s="14"/>
       <c r="CN29" s="12"/>
       <c r="CO29" s="12"/>
       <c r="CP29" s="13"/>
     </row>
-    <row r="30" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="45">
+    <row r="30" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="54">
+        <f>SUM(G30:CP30)</f>
+        <v>4</v>
+      </c>
+      <c r="E30" s="54">
+        <f t="shared" ref="E30" si="16">SUM(G31:CP31)</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="54">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="15"/>
@@ -3760,10 +3816,14 @@
       <c r="AZ30" s="15"/>
       <c r="BA30" s="15"/>
       <c r="BB30" s="16"/>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="15"/>
-      <c r="BE30" s="15"/>
-      <c r="BF30" s="16"/>
+      <c r="BC30" s="35">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="36"/>
+      <c r="BE30" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF30" s="37"/>
       <c r="BG30" s="17"/>
       <c r="BH30" s="15"/>
       <c r="BI30" s="15"/>
@@ -3801,11 +3861,11 @@
       <c r="CO30" s="15"/>
       <c r="CP30" s="16"/>
     </row>
-    <row r="31" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="49"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+    <row r="31" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="58"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="14"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3854,10 +3914,14 @@
       <c r="AZ31" s="12"/>
       <c r="BA31" s="12"/>
       <c r="BB31" s="13"/>
-      <c r="BC31" s="14"/>
-      <c r="BD31" s="12"/>
-      <c r="BE31" s="12"/>
-      <c r="BF31" s="13"/>
+      <c r="BC31" s="31">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="32"/>
+      <c r="BE31" s="32">
+        <v>3</v>
+      </c>
+      <c r="BF31" s="40"/>
       <c r="BG31" s="14"/>
       <c r="BH31" s="12"/>
       <c r="BI31" s="12"/>
@@ -3895,610 +3959,634 @@
       <c r="CO31" s="12"/>
       <c r="CP31" s="13"/>
     </row>
-    <row r="32" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="45">
-        <f>SUM($D$7:D32)-SUM($E$7:E32)</f>
+    <row r="32" spans="3:94" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="18"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="18"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="18"/>
+      <c r="AV32" s="18"/>
+      <c r="AW32" s="18"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="18"/>
+      <c r="AZ32" s="18"/>
+      <c r="BA32" s="18"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="18"/>
+      <c r="BD32" s="18"/>
+      <c r="BE32" s="18"/>
+      <c r="BF32" s="19"/>
+      <c r="BG32" s="18"/>
+      <c r="BH32" s="18"/>
+      <c r="BI32" s="18"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="18"/>
+      <c r="BL32" s="18"/>
+      <c r="BM32" s="18"/>
+      <c r="BN32" s="19"/>
+      <c r="BO32" s="18"/>
+      <c r="BP32" s="18"/>
+      <c r="BQ32" s="18"/>
+      <c r="BR32" s="19"/>
+      <c r="BS32" s="18"/>
+      <c r="BT32" s="18"/>
+      <c r="BU32" s="18"/>
+      <c r="BV32" s="19"/>
+      <c r="BW32" s="18"/>
+      <c r="BX32" s="18"/>
+      <c r="BY32" s="18"/>
+      <c r="BZ32" s="19"/>
+      <c r="CA32" s="18"/>
+      <c r="CB32" s="18"/>
+      <c r="CC32" s="18"/>
+      <c r="CD32" s="19"/>
+      <c r="CE32" s="18"/>
+      <c r="CF32" s="18"/>
+      <c r="CG32" s="18"/>
+      <c r="CH32" s="19"/>
+      <c r="CI32" s="18"/>
+      <c r="CJ32" s="18"/>
+      <c r="CK32" s="18"/>
+      <c r="CL32" s="19"/>
+      <c r="CM32" s="18"/>
+      <c r="CN32" s="18"/>
+      <c r="CO32" s="18"/>
+      <c r="CP32" s="19"/>
+    </row>
+    <row r="33" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="54">
+        <f>SUM(G33:CP33)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E33" s="54">
+        <f>SUM(G34:CP34)</f>
+        <v>13.5</v>
+      </c>
+      <c r="F33" s="54">
+        <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
+        <v>-4</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="21"/>
+      <c r="AK33" s="21"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="21"/>
+      <c r="AO33" s="21"/>
+      <c r="AP33" s="22"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="21"/>
+      <c r="AS33" s="21"/>
+      <c r="AT33" s="22"/>
+      <c r="AU33" s="20"/>
+      <c r="AV33" s="21"/>
+      <c r="AW33" s="21"/>
+      <c r="AX33" s="22"/>
+      <c r="AY33" s="20"/>
+      <c r="AZ33" s="21"/>
+      <c r="BA33" s="21"/>
+      <c r="BB33" s="22"/>
+      <c r="BC33" s="20"/>
+      <c r="BD33" s="21"/>
+      <c r="BE33" s="21"/>
+      <c r="BF33" s="22"/>
+      <c r="BG33" s="35">
         <v>1.5</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="15"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="15"/>
-      <c r="AS32" s="15"/>
-      <c r="AT32" s="16"/>
-      <c r="AU32" s="17"/>
-      <c r="AV32" s="15"/>
-      <c r="AW32" s="15"/>
-      <c r="AX32" s="16"/>
-      <c r="AY32" s="17"/>
-      <c r="AZ32" s="15"/>
-      <c r="BA32" s="15"/>
-      <c r="BB32" s="16"/>
-      <c r="BC32" s="17"/>
-      <c r="BD32" s="15"/>
-      <c r="BE32" s="15"/>
-      <c r="BF32" s="16"/>
-      <c r="BG32" s="17"/>
-      <c r="BH32" s="15"/>
-      <c r="BI32" s="15"/>
-      <c r="BJ32" s="16"/>
-      <c r="BK32" s="17"/>
-      <c r="BL32" s="15"/>
-      <c r="BM32" s="15"/>
-      <c r="BN32" s="16"/>
-      <c r="BO32" s="17"/>
-      <c r="BP32" s="15"/>
-      <c r="BQ32" s="15"/>
-      <c r="BR32" s="16"/>
-      <c r="BS32" s="17"/>
-      <c r="BT32" s="15"/>
-      <c r="BU32" s="15"/>
-      <c r="BV32" s="16"/>
-      <c r="BW32" s="17"/>
-      <c r="BX32" s="15"/>
-      <c r="BY32" s="15"/>
-      <c r="BZ32" s="16"/>
-      <c r="CA32" s="17"/>
-      <c r="CB32" s="15"/>
-      <c r="CC32" s="15"/>
-      <c r="CD32" s="16"/>
-      <c r="CE32" s="17"/>
-      <c r="CF32" s="15"/>
-      <c r="CG32" s="15"/>
-      <c r="CH32" s="16"/>
-      <c r="CI32" s="17"/>
-      <c r="CJ32" s="15"/>
-      <c r="CK32" s="15"/>
-      <c r="CL32" s="16"/>
-      <c r="CM32" s="17"/>
-      <c r="CN32" s="15"/>
-      <c r="CO32" s="15"/>
-      <c r="CP32" s="16"/>
+      <c r="BH33" s="36"/>
+      <c r="BI33" s="36">
+        <v>5</v>
+      </c>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="20"/>
+      <c r="BL33" s="21"/>
+      <c r="BM33" s="36">
+        <v>2</v>
+      </c>
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="20"/>
+      <c r="BP33" s="21"/>
+      <c r="BQ33" s="21"/>
+      <c r="BR33" s="22"/>
+      <c r="BS33" s="20"/>
+      <c r="BT33" s="21"/>
+      <c r="BU33" s="21"/>
+      <c r="BV33" s="22"/>
+      <c r="BW33" s="20"/>
+      <c r="BX33" s="21"/>
+      <c r="BY33" s="21"/>
+      <c r="BZ33" s="22"/>
+      <c r="CA33" s="20"/>
+      <c r="CB33" s="21"/>
+      <c r="CC33" s="21"/>
+      <c r="CD33" s="22"/>
+      <c r="CE33" s="20"/>
+      <c r="CF33" s="21"/>
+      <c r="CG33" s="21"/>
+      <c r="CH33" s="22"/>
+      <c r="CI33" s="20"/>
+      <c r="CJ33" s="21"/>
+      <c r="CK33" s="21"/>
+      <c r="CL33" s="22"/>
+      <c r="CM33" s="20"/>
+      <c r="CN33" s="21"/>
+      <c r="CO33" s="21"/>
+      <c r="CP33" s="22"/>
     </row>
-    <row r="33" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="49"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="12"/>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="13"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="13"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="12"/>
-      <c r="AW33" s="12"/>
-      <c r="AX33" s="13"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="12"/>
-      <c r="BA33" s="12"/>
-      <c r="BB33" s="13"/>
-      <c r="BC33" s="14"/>
-      <c r="BD33" s="12"/>
-      <c r="BE33" s="12"/>
-      <c r="BF33" s="13"/>
-      <c r="BG33" s="14"/>
-      <c r="BH33" s="12"/>
-      <c r="BI33" s="12"/>
-      <c r="BJ33" s="13"/>
-      <c r="BK33" s="14"/>
-      <c r="BL33" s="12"/>
-      <c r="BM33" s="12"/>
-      <c r="BN33" s="13"/>
-      <c r="BO33" s="14"/>
-      <c r="BP33" s="12"/>
-      <c r="BQ33" s="12"/>
-      <c r="BR33" s="13"/>
-      <c r="BS33" s="14"/>
-      <c r="BT33" s="12"/>
-      <c r="BU33" s="12"/>
-      <c r="BV33" s="13"/>
-      <c r="BW33" s="14"/>
-      <c r="BX33" s="12"/>
-      <c r="BY33" s="12"/>
-      <c r="BZ33" s="13"/>
-      <c r="CA33" s="14"/>
-      <c r="CB33" s="12"/>
-      <c r="CC33" s="12"/>
-      <c r="CD33" s="13"/>
-      <c r="CE33" s="14"/>
-      <c r="CF33" s="12"/>
-      <c r="CG33" s="12"/>
-      <c r="CH33" s="13"/>
-      <c r="CI33" s="14"/>
-      <c r="CJ33" s="12"/>
-      <c r="CK33" s="12"/>
-      <c r="CL33" s="13"/>
-      <c r="CM33" s="14"/>
-      <c r="CN33" s="12"/>
-      <c r="CO33" s="12"/>
-      <c r="CP33" s="13"/>
+    <row r="34" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="53"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="24"/>
+      <c r="AS34" s="24"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="24"/>
+      <c r="AW34" s="24"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="24"/>
+      <c r="BA34" s="24"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="24"/>
+      <c r="BE34" s="24"/>
+      <c r="BF34" s="25"/>
+      <c r="BG34" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="BH34" s="32"/>
+      <c r="BI34" s="32">
+        <v>6</v>
+      </c>
+      <c r="BJ34" s="40"/>
+      <c r="BK34" s="23"/>
+      <c r="BL34" s="24"/>
+      <c r="BM34" s="32">
+        <v>6</v>
+      </c>
+      <c r="BN34" s="40"/>
+      <c r="BO34" s="23"/>
+      <c r="BP34" s="24"/>
+      <c r="BQ34" s="24"/>
+      <c r="BR34" s="25"/>
+      <c r="BS34" s="23"/>
+      <c r="BT34" s="24"/>
+      <c r="BU34" s="24"/>
+      <c r="BV34" s="25"/>
+      <c r="BW34" s="23"/>
+      <c r="BX34" s="24"/>
+      <c r="BY34" s="24"/>
+      <c r="BZ34" s="25"/>
+      <c r="CA34" s="23"/>
+      <c r="CB34" s="24"/>
+      <c r="CC34" s="24"/>
+      <c r="CD34" s="25"/>
+      <c r="CE34" s="23"/>
+      <c r="CF34" s="24"/>
+      <c r="CG34" s="24"/>
+      <c r="CH34" s="25"/>
+      <c r="CI34" s="23"/>
+      <c r="CJ34" s="24"/>
+      <c r="CK34" s="24"/>
+      <c r="CL34" s="25"/>
+      <c r="CM34" s="23"/>
+      <c r="CN34" s="24"/>
+      <c r="CO34" s="24"/>
+      <c r="CP34" s="25"/>
     </row>
-    <row r="34" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="45">
-        <f>SUM($D$7:D34)-SUM($E$7:E34)</f>
+    <row r="35" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="54">
+        <f t="shared" ref="D35" si="17">SUM(G35:CP35)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E35" s="54">
+        <f t="shared" ref="E35" si="18">SUM(G36:CP36)</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="54">
+        <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="27"/>
+      <c r="AS35" s="27"/>
+      <c r="AT35" s="28"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="27"/>
+      <c r="AW35" s="27"/>
+      <c r="AX35" s="28"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="27"/>
+      <c r="BA35" s="27"/>
+      <c r="BB35" s="28"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="27"/>
+      <c r="BE35" s="27"/>
+      <c r="BF35" s="28"/>
+      <c r="BG35" s="26"/>
+      <c r="BH35" s="27"/>
+      <c r="BI35" s="27"/>
+      <c r="BJ35" s="28"/>
+      <c r="BK35" s="35">
         <v>1.5</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="15"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="17"/>
-      <c r="AR34" s="15"/>
-      <c r="AS34" s="15"/>
-      <c r="AT34" s="16"/>
-      <c r="AU34" s="17"/>
-      <c r="AV34" s="15"/>
-      <c r="AW34" s="15"/>
-      <c r="AX34" s="16"/>
-      <c r="AY34" s="17"/>
-      <c r="AZ34" s="15"/>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="16"/>
-      <c r="BC34" s="17"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="16"/>
-      <c r="BG34" s="17"/>
-      <c r="BH34" s="15"/>
-      <c r="BI34" s="15"/>
-      <c r="BJ34" s="16"/>
-      <c r="BK34" s="17"/>
-      <c r="BL34" s="15"/>
-      <c r="BM34" s="15"/>
-      <c r="BN34" s="16"/>
-      <c r="BO34" s="17"/>
-      <c r="BP34" s="15"/>
-      <c r="BQ34" s="15"/>
-      <c r="BR34" s="16"/>
-      <c r="BS34" s="17"/>
-      <c r="BT34" s="15"/>
-      <c r="BU34" s="15"/>
-      <c r="BV34" s="16"/>
-      <c r="BW34" s="17"/>
-      <c r="BX34" s="15"/>
-      <c r="BY34" s="15"/>
-      <c r="BZ34" s="16"/>
-      <c r="CA34" s="17"/>
-      <c r="CB34" s="15"/>
-      <c r="CC34" s="15"/>
-      <c r="CD34" s="16"/>
-      <c r="CE34" s="17"/>
-      <c r="CF34" s="15"/>
-      <c r="CG34" s="15"/>
-      <c r="CH34" s="16"/>
-      <c r="CI34" s="17"/>
-      <c r="CJ34" s="15"/>
-      <c r="CK34" s="15"/>
-      <c r="CL34" s="16"/>
-      <c r="CM34" s="17"/>
-      <c r="CN34" s="15"/>
-      <c r="CO34" s="15"/>
-      <c r="CP34" s="16"/>
+      <c r="BL35" s="36"/>
+      <c r="BM35" s="36">
+        <v>2</v>
+      </c>
+      <c r="BN35" s="37"/>
+      <c r="BO35" s="26"/>
+      <c r="BP35" s="27"/>
+      <c r="BQ35" s="27"/>
+      <c r="BR35" s="28"/>
+      <c r="BS35" s="26"/>
+      <c r="BT35" s="27"/>
+      <c r="BU35" s="27"/>
+      <c r="BV35" s="28"/>
+      <c r="BW35" s="26"/>
+      <c r="BX35" s="27"/>
+      <c r="BY35" s="27"/>
+      <c r="BZ35" s="28"/>
+      <c r="CA35" s="26"/>
+      <c r="CB35" s="27"/>
+      <c r="CC35" s="27"/>
+      <c r="CD35" s="28"/>
+      <c r="CE35" s="26"/>
+      <c r="CF35" s="27"/>
+      <c r="CG35" s="27"/>
+      <c r="CH35" s="28"/>
+      <c r="CI35" s="26"/>
+      <c r="CJ35" s="27"/>
+      <c r="CK35" s="27"/>
+      <c r="CL35" s="28"/>
+      <c r="CM35" s="26"/>
+      <c r="CN35" s="27"/>
+      <c r="CO35" s="27"/>
+      <c r="CP35" s="28"/>
     </row>
-    <row r="35" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="49"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="9"/>
-      <c r="AP35" s="10"/>
-      <c r="AQ35" s="11"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="9"/>
-      <c r="AT35" s="10"/>
-      <c r="AU35" s="11"/>
-      <c r="AV35" s="9"/>
-      <c r="AW35" s="9"/>
-      <c r="AX35" s="10"/>
-      <c r="AY35" s="11"/>
-      <c r="AZ35" s="9"/>
-      <c r="BA35" s="9"/>
-      <c r="BB35" s="10"/>
-      <c r="BC35" s="11"/>
-      <c r="BD35" s="9"/>
-      <c r="BE35" s="9"/>
-      <c r="BF35" s="10"/>
-      <c r="BG35" s="11"/>
-      <c r="BH35" s="9"/>
-      <c r="BI35" s="9"/>
-      <c r="BJ35" s="10"/>
-      <c r="BK35" s="11"/>
-      <c r="BL35" s="9"/>
-      <c r="BM35" s="9"/>
-      <c r="BN35" s="10"/>
-      <c r="BO35" s="11"/>
-      <c r="BP35" s="9"/>
-      <c r="BQ35" s="9"/>
-      <c r="BR35" s="10"/>
-      <c r="BS35" s="11"/>
-      <c r="BT35" s="9"/>
-      <c r="BU35" s="9"/>
-      <c r="BV35" s="10"/>
-      <c r="BW35" s="11"/>
-      <c r="BX35" s="9"/>
-      <c r="BY35" s="9"/>
-      <c r="BZ35" s="10"/>
-      <c r="CA35" s="11"/>
-      <c r="CB35" s="9"/>
-      <c r="CC35" s="9"/>
-      <c r="CD35" s="10"/>
-      <c r="CE35" s="11"/>
-      <c r="CF35" s="9"/>
-      <c r="CG35" s="9"/>
-      <c r="CH35" s="10"/>
-      <c r="CI35" s="11"/>
-      <c r="CJ35" s="9"/>
-      <c r="CK35" s="9"/>
-      <c r="CL35" s="10"/>
-      <c r="CM35" s="11"/>
-      <c r="CN35" s="9"/>
-      <c r="CO35" s="9"/>
-      <c r="CP35" s="10"/>
+    <row r="36" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="53"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="24"/>
+      <c r="AS36" s="24"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="23"/>
+      <c r="AV36" s="24"/>
+      <c r="AW36" s="24"/>
+      <c r="AX36" s="25"/>
+      <c r="AY36" s="23"/>
+      <c r="AZ36" s="24"/>
+      <c r="BA36" s="24"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="24"/>
+      <c r="BE36" s="24"/>
+      <c r="BF36" s="25"/>
+      <c r="BG36" s="23"/>
+      <c r="BH36" s="24"/>
+      <c r="BI36" s="24"/>
+      <c r="BJ36" s="25"/>
+      <c r="BK36" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="BL36" s="32"/>
+      <c r="BM36" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="BN36" s="40"/>
+      <c r="BO36" s="23"/>
+      <c r="BP36" s="24"/>
+      <c r="BQ36" s="24"/>
+      <c r="BR36" s="25"/>
+      <c r="BS36" s="23"/>
+      <c r="BT36" s="24"/>
+      <c r="BU36" s="24"/>
+      <c r="BV36" s="25"/>
+      <c r="BW36" s="23"/>
+      <c r="BX36" s="24"/>
+      <c r="BY36" s="24"/>
+      <c r="BZ36" s="25"/>
+      <c r="CA36" s="23"/>
+      <c r="CB36" s="24"/>
+      <c r="CC36" s="24"/>
+      <c r="CD36" s="25"/>
+      <c r="CE36" s="23"/>
+      <c r="CF36" s="24"/>
+      <c r="CG36" s="24"/>
+      <c r="CH36" s="25"/>
+      <c r="CI36" s="23"/>
+      <c r="CJ36" s="24"/>
+      <c r="CK36" s="24"/>
+      <c r="CL36" s="25"/>
+      <c r="CM36" s="23"/>
+      <c r="CN36" s="24"/>
+      <c r="CO36" s="24"/>
+      <c r="CP36" s="25"/>
     </row>
-    <row r="36" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
-      <c r="AO36" s="18"/>
-      <c r="AP36" s="18"/>
-      <c r="AQ36" s="18"/>
-      <c r="AR36" s="18"/>
-      <c r="AS36" s="18"/>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="18"/>
-      <c r="AV36" s="18"/>
-      <c r="AW36" s="18"/>
-      <c r="AX36" s="19"/>
-      <c r="AY36" s="18"/>
-      <c r="AZ36" s="18"/>
-      <c r="BA36" s="18"/>
-      <c r="BB36" s="19"/>
-      <c r="BC36" s="18"/>
-      <c r="BD36" s="18"/>
-      <c r="BE36" s="18"/>
-      <c r="BF36" s="19"/>
-      <c r="BG36" s="18"/>
-      <c r="BH36" s="18"/>
-      <c r="BI36" s="18"/>
-      <c r="BJ36" s="19"/>
-      <c r="BK36" s="18"/>
-      <c r="BL36" s="18"/>
-      <c r="BM36" s="18"/>
-      <c r="BN36" s="19"/>
-      <c r="BO36" s="18"/>
-      <c r="BP36" s="18"/>
-      <c r="BQ36" s="18"/>
-      <c r="BR36" s="19"/>
-      <c r="BS36" s="18"/>
-      <c r="BT36" s="18"/>
-      <c r="BU36" s="18"/>
-      <c r="BV36" s="19"/>
-      <c r="BW36" s="18"/>
-      <c r="BX36" s="18"/>
-      <c r="BY36" s="18"/>
-      <c r="BZ36" s="19"/>
-      <c r="CA36" s="18"/>
-      <c r="CB36" s="18"/>
-      <c r="CC36" s="18"/>
-      <c r="CD36" s="19"/>
-      <c r="CE36" s="18"/>
-      <c r="CF36" s="18"/>
-      <c r="CG36" s="18"/>
-      <c r="CH36" s="19"/>
-      <c r="CI36" s="18"/>
-      <c r="CJ36" s="18"/>
-      <c r="CK36" s="18"/>
-      <c r="CL36" s="19"/>
-      <c r="CM36" s="18"/>
-      <c r="CN36" s="18"/>
-      <c r="CO36" s="18"/>
-      <c r="CP36" s="19"/>
+    <row r="37" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="54">
+        <f t="shared" ref="D37" si="19">SUM(G37:CP37)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E37" s="54">
+        <f t="shared" ref="E37" si="20">SUM(G38:CP38)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F37" s="54">
+        <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="27"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="26"/>
+      <c r="AR37" s="27"/>
+      <c r="AS37" s="27"/>
+      <c r="AT37" s="28"/>
+      <c r="AU37" s="26"/>
+      <c r="AV37" s="27"/>
+      <c r="AW37" s="27"/>
+      <c r="AX37" s="28"/>
+      <c r="AY37" s="26"/>
+      <c r="AZ37" s="27"/>
+      <c r="BA37" s="27"/>
+      <c r="BB37" s="28"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="27"/>
+      <c r="BE37" s="27"/>
+      <c r="BF37" s="28"/>
+      <c r="BG37" s="26"/>
+      <c r="BH37" s="27"/>
+      <c r="BI37" s="27"/>
+      <c r="BJ37" s="28"/>
+      <c r="BK37" s="49"/>
+      <c r="BL37" s="47"/>
+      <c r="BM37" s="47"/>
+      <c r="BN37" s="48"/>
+      <c r="BO37" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="BP37" s="36"/>
+      <c r="BQ37" s="36">
+        <v>1</v>
+      </c>
+      <c r="BR37" s="37"/>
+      <c r="BS37" s="26"/>
+      <c r="BT37" s="27"/>
+      <c r="BU37" s="27"/>
+      <c r="BV37" s="28"/>
+      <c r="BW37" s="26"/>
+      <c r="BX37" s="27"/>
+      <c r="BY37" s="27"/>
+      <c r="BZ37" s="28"/>
+      <c r="CA37" s="26"/>
+      <c r="CB37" s="27"/>
+      <c r="CC37" s="27"/>
+      <c r="CD37" s="28"/>
+      <c r="CE37" s="26"/>
+      <c r="CF37" s="27"/>
+      <c r="CG37" s="27"/>
+      <c r="CH37" s="28"/>
+      <c r="CI37" s="26"/>
+      <c r="CJ37" s="27"/>
+      <c r="CK37" s="27"/>
+      <c r="CL37" s="28"/>
+      <c r="CM37" s="26"/>
+      <c r="CN37" s="27"/>
+      <c r="CO37" s="27"/>
+      <c r="CP37" s="28"/>
     </row>
-    <row r="37" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="45">
-        <f t="shared" ref="D37:D59" si="11">SUM(G37:AT37)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="45">
-        <f t="shared" ref="E37:E59" si="12">SUM(G38:AT38)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="45">
-        <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="20"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="22"/>
-      <c r="AY37" s="20"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="22"/>
-      <c r="BC37" s="20"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="22"/>
-      <c r="BG37" s="20"/>
-      <c r="BH37" s="21"/>
-      <c r="BI37" s="21"/>
-      <c r="BJ37" s="22"/>
-      <c r="BK37" s="20"/>
-      <c r="BL37" s="21"/>
-      <c r="BM37" s="21"/>
-      <c r="BN37" s="22"/>
-      <c r="BO37" s="20"/>
-      <c r="BP37" s="21"/>
-      <c r="BQ37" s="21"/>
-      <c r="BR37" s="22"/>
-      <c r="BS37" s="20"/>
-      <c r="BT37" s="21"/>
-      <c r="BU37" s="21"/>
-      <c r="BV37" s="22"/>
-      <c r="BW37" s="20"/>
-      <c r="BX37" s="21"/>
-      <c r="BY37" s="21"/>
-      <c r="BZ37" s="22"/>
-      <c r="CA37" s="20"/>
-      <c r="CB37" s="21"/>
-      <c r="CC37" s="21"/>
-      <c r="CD37" s="22"/>
-      <c r="CE37" s="20"/>
-      <c r="CF37" s="21"/>
-      <c r="CG37" s="21"/>
-      <c r="CH37" s="22"/>
-      <c r="CI37" s="20"/>
-      <c r="CJ37" s="21"/>
-      <c r="CK37" s="21"/>
-      <c r="CL37" s="22"/>
-      <c r="CM37" s="20"/>
-      <c r="CN37" s="21"/>
-      <c r="CO37" s="21"/>
-      <c r="CP37" s="22"/>
-    </row>
-    <row r="38" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="44"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
+    <row r="38" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="53"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="14"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -4559,10 +4647,14 @@
       <c r="BL38" s="24"/>
       <c r="BM38" s="24"/>
       <c r="BN38" s="25"/>
-      <c r="BO38" s="23"/>
-      <c r="BP38" s="24"/>
-      <c r="BQ38" s="24"/>
-      <c r="BR38" s="25"/>
+      <c r="BO38" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="BP38" s="32"/>
+      <c r="BQ38" s="32">
+        <v>1</v>
+      </c>
+      <c r="BR38" s="40"/>
       <c r="BS38" s="23"/>
       <c r="BT38" s="24"/>
       <c r="BU38" s="24"/>
@@ -4588,21 +4680,21 @@
       <c r="CO38" s="24"/>
       <c r="CP38" s="25"/>
     </row>
-    <row r="39" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="45">
+    <row r="39" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="54">
+        <f t="shared" ref="D39" si="21">SUM(G39:CP39)</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="54">
+        <f t="shared" ref="E39" si="22">SUM(G40:CP40)</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="54">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="15"/>
@@ -4664,10 +4756,10 @@
       <c r="BL39" s="27"/>
       <c r="BM39" s="27"/>
       <c r="BN39" s="28"/>
-      <c r="BO39" s="26"/>
-      <c r="BP39" s="27"/>
-      <c r="BQ39" s="27"/>
-      <c r="BR39" s="28"/>
+      <c r="BQ39" s="35">
+        <v>1</v>
+      </c>
+      <c r="BR39" s="36"/>
       <c r="BS39" s="26"/>
       <c r="BT39" s="27"/>
       <c r="BU39" s="27"/>
@@ -4693,11 +4785,11 @@
       <c r="CO39" s="27"/>
       <c r="CP39" s="28"/>
     </row>
-    <row r="40" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="44"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
+    <row r="40" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="53"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="14"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -4760,8 +4852,10 @@
       <c r="BN40" s="25"/>
       <c r="BO40" s="23"/>
       <c r="BP40" s="24"/>
-      <c r="BQ40" s="24"/>
-      <c r="BR40" s="25"/>
+      <c r="BQ40" s="32">
+        <v>1</v>
+      </c>
+      <c r="BR40" s="40"/>
       <c r="BS40" s="23"/>
       <c r="BT40" s="24"/>
       <c r="BU40" s="24"/>
@@ -4787,21 +4881,21 @@
       <c r="CO40" s="24"/>
       <c r="CP40" s="25"/>
     </row>
-    <row r="41" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="45">
+    <row r="41" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="54">
+        <f t="shared" ref="D41" si="23">SUM(G41:CP41)</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="54">
+        <f t="shared" ref="E41" si="24">SUM(G42:CP42)</f>
+        <v>3</v>
+      </c>
+      <c r="F41" s="54">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>1.5</v>
+        <v>-5.5</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="15"/>
@@ -4863,14 +4957,14 @@
       <c r="BL41" s="27"/>
       <c r="BM41" s="27"/>
       <c r="BN41" s="28"/>
-      <c r="BO41" s="26"/>
-      <c r="BP41" s="27"/>
-      <c r="BQ41" s="27"/>
-      <c r="BR41" s="28"/>
-      <c r="BS41" s="26"/>
-      <c r="BT41" s="27"/>
-      <c r="BU41" s="27"/>
-      <c r="BV41" s="28"/>
+      <c r="BS41" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="BT41" s="36"/>
+      <c r="BU41" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="BV41" s="37"/>
       <c r="BW41" s="26"/>
       <c r="BX41" s="27"/>
       <c r="BY41" s="27"/>
@@ -4892,11 +4986,11 @@
       <c r="CO41" s="27"/>
       <c r="CP41" s="28"/>
     </row>
-    <row r="42" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="44"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
+    <row r="42" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="53"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="14"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -4961,8 +5055,10 @@
       <c r="BP42" s="24"/>
       <c r="BQ42" s="24"/>
       <c r="BR42" s="25"/>
-      <c r="BS42" s="23"/>
-      <c r="BT42" s="24"/>
+      <c r="BS42" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="BT42" s="32"/>
       <c r="BU42" s="24"/>
       <c r="BV42" s="25"/>
       <c r="BW42" s="23"/>
@@ -4971,12 +5067,12 @@
       <c r="BZ42" s="25"/>
       <c r="CA42" s="23"/>
       <c r="CB42" s="24"/>
-      <c r="CC42" s="24"/>
-      <c r="CD42" s="25"/>
       <c r="CE42" s="23"/>
       <c r="CF42" s="24"/>
-      <c r="CG42" s="24"/>
-      <c r="CH42" s="25"/>
+      <c r="CG42" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="CH42" s="40"/>
       <c r="CI42" s="23"/>
       <c r="CJ42" s="24"/>
       <c r="CK42" s="24"/>
@@ -4986,21 +5082,21 @@
       <c r="CO42" s="24"/>
       <c r="CP42" s="25"/>
     </row>
-    <row r="43" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="45">
+    <row r="43" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="54">
+        <f t="shared" ref="D43" si="25">SUM(G43:CP43)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E43" s="54">
+        <f t="shared" ref="E43" si="26">SUM(G44:CP44)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F43" s="54">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>1.5</v>
+        <v>-5.5</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="15"/>
@@ -5066,14 +5162,16 @@
       <c r="BP43" s="27"/>
       <c r="BQ43" s="27"/>
       <c r="BR43" s="28"/>
-      <c r="BS43" s="26"/>
-      <c r="BT43" s="27"/>
       <c r="BU43" s="27"/>
       <c r="BV43" s="28"/>
-      <c r="BW43" s="26"/>
-      <c r="BX43" s="27"/>
-      <c r="BY43" s="27"/>
-      <c r="BZ43" s="28"/>
+      <c r="BW43" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="BX43" s="36"/>
+      <c r="BY43" s="36">
+        <v>1</v>
+      </c>
+      <c r="BZ43" s="37"/>
       <c r="CA43" s="26"/>
       <c r="CB43" s="27"/>
       <c r="CC43" s="27"/>
@@ -5091,11 +5189,11 @@
       <c r="CO43" s="27"/>
       <c r="CP43" s="28"/>
     </row>
-    <row r="44" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="44"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
+    <row r="44" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="53"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="14"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -5164,10 +5262,14 @@
       <c r="BT44" s="24"/>
       <c r="BU44" s="24"/>
       <c r="BV44" s="25"/>
-      <c r="BW44" s="23"/>
-      <c r="BX44" s="24"/>
-      <c r="BY44" s="24"/>
-      <c r="BZ44" s="25"/>
+      <c r="BW44" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="BX44" s="32"/>
+      <c r="BY44" s="32">
+        <v>1</v>
+      </c>
+      <c r="BZ44" s="40"/>
       <c r="CA44" s="23"/>
       <c r="CB44" s="24"/>
       <c r="CC44" s="24"/>
@@ -5185,21 +5287,21 @@
       <c r="CO44" s="24"/>
       <c r="CP44" s="25"/>
     </row>
-    <row r="45" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="45">
+    <row r="45" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="54">
+        <f t="shared" ref="D45" si="27">SUM(G45:CP45)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="54">
+        <f t="shared" ref="E45" si="28">SUM(G46:CP46)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F45" s="54">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>1.5</v>
+        <v>-6.5</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="15"/>
@@ -5269,18 +5371,10 @@
       <c r="BT45" s="27"/>
       <c r="BU45" s="27"/>
       <c r="BV45" s="28"/>
-      <c r="BW45" s="26"/>
-      <c r="BX45" s="27"/>
-      <c r="BY45" s="27"/>
-      <c r="BZ45" s="28"/>
-      <c r="CA45" s="26"/>
-      <c r="CB45" s="27"/>
-      <c r="CC45" s="27"/>
-      <c r="CD45" s="28"/>
-      <c r="CE45" s="26"/>
-      <c r="CF45" s="27"/>
-      <c r="CG45" s="27"/>
-      <c r="CH45" s="28"/>
+      <c r="CA45" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="CB45" s="36"/>
       <c r="CI45" s="26"/>
       <c r="CJ45" s="27"/>
       <c r="CK45" s="27"/>
@@ -5290,11 +5384,11 @@
       <c r="CO45" s="27"/>
       <c r="CP45" s="28"/>
     </row>
-    <row r="46" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="44"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
+    <row r="46" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="53"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="14"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -5367,14 +5461,14 @@
       <c r="BX46" s="24"/>
       <c r="BY46" s="24"/>
       <c r="BZ46" s="25"/>
-      <c r="CA46" s="23"/>
-      <c r="CB46" s="24"/>
-      <c r="CC46" s="24"/>
-      <c r="CD46" s="25"/>
-      <c r="CE46" s="23"/>
-      <c r="CF46" s="24"/>
-      <c r="CG46" s="24"/>
-      <c r="CH46" s="25"/>
+      <c r="CA46" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="CB46" s="32"/>
+      <c r="CC46" s="32">
+        <v>1</v>
+      </c>
+      <c r="CD46" s="40"/>
       <c r="CI46" s="23"/>
       <c r="CJ46" s="24"/>
       <c r="CK46" s="24"/>
@@ -5384,21 +5478,21 @@
       <c r="CO46" s="24"/>
       <c r="CP46" s="25"/>
     </row>
-    <row r="47" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="45">
+    <row r="47" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="54">
+        <f t="shared" ref="D47" si="29">SUM(G47:CP47)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E47" s="54">
+        <f t="shared" ref="E47" si="30">SUM(G48:CP48)</f>
+        <v>4</v>
+      </c>
+      <c r="F47" s="54">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>1.5</v>
+        <v>-8</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="15"/>
@@ -5472,10 +5566,12 @@
       <c r="BX47" s="27"/>
       <c r="BY47" s="27"/>
       <c r="BZ47" s="28"/>
-      <c r="CA47" s="26"/>
-      <c r="CB47" s="27"/>
-      <c r="CC47" s="27"/>
-      <c r="CD47" s="28"/>
+      <c r="CA47" s="49"/>
+      <c r="CB47" s="47"/>
+      <c r="CC47" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="CD47" s="37"/>
       <c r="CE47" s="26"/>
       <c r="CF47" s="27"/>
       <c r="CG47" s="27"/>
@@ -5489,11 +5585,11 @@
       <c r="CO47" s="27"/>
       <c r="CP47" s="28"/>
     </row>
-    <row r="48" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="44"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
+    <row r="48" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="53"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="14"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -5562,18 +5658,16 @@
       <c r="BT48" s="24"/>
       <c r="BU48" s="24"/>
       <c r="BV48" s="25"/>
-      <c r="BW48" s="23"/>
-      <c r="BX48" s="24"/>
-      <c r="BY48" s="24"/>
-      <c r="BZ48" s="25"/>
-      <c r="CA48" s="23"/>
-      <c r="CB48" s="24"/>
-      <c r="CC48" s="24"/>
-      <c r="CD48" s="25"/>
-      <c r="CE48" s="23"/>
-      <c r="CF48" s="24"/>
-      <c r="CG48" s="24"/>
-      <c r="CH48" s="25"/>
+      <c r="CA48" s="29"/>
+      <c r="CB48" s="30"/>
+      <c r="CC48" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="CD48" s="32"/>
+      <c r="CG48" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="CH48" s="40"/>
       <c r="CI48" s="23"/>
       <c r="CJ48" s="24"/>
       <c r="CK48" s="24"/>
@@ -5583,21 +5677,21 @@
       <c r="CO48" s="24"/>
       <c r="CP48" s="25"/>
     </row>
-    <row r="49" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="45">
+    <row r="49" spans="3:94" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="54">
+        <f t="shared" ref="D49" si="31">SUM(G49:CP49)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E49" s="54">
+        <f t="shared" ref="E49" si="32">SUM(G50:CP50)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F49" s="54">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>1.5</v>
+        <v>-8</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="15"/>
@@ -5673,12 +5767,12 @@
       <c r="BZ49" s="28"/>
       <c r="CA49" s="26"/>
       <c r="CB49" s="27"/>
-      <c r="CC49" s="27"/>
-      <c r="CD49" s="28"/>
+      <c r="CC49" s="36">
+        <v>3.5</v>
+      </c>
+      <c r="CD49" s="37"/>
       <c r="CE49" s="26"/>
       <c r="CF49" s="27"/>
-      <c r="CG49" s="27"/>
-      <c r="CH49" s="28"/>
       <c r="CI49" s="26"/>
       <c r="CJ49" s="27"/>
       <c r="CK49" s="27"/>
@@ -5688,11 +5782,11 @@
       <c r="CO49" s="27"/>
       <c r="CP49" s="28"/>
     </row>
-    <row r="50" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="44"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
+    <row r="50" spans="3:94" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="60"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="14"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -5767,8 +5861,10 @@
       <c r="BZ50" s="25"/>
       <c r="CA50" s="23"/>
       <c r="CB50" s="24"/>
-      <c r="CC50" s="24"/>
-      <c r="CD50" s="25"/>
+      <c r="CC50" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="CD50" s="40"/>
       <c r="CE50" s="23"/>
       <c r="CF50" s="24"/>
       <c r="CG50" s="24"/>
@@ -5782,21 +5878,21 @@
       <c r="CO50" s="24"/>
       <c r="CP50" s="25"/>
     </row>
-    <row r="51" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="45">
+    <row r="51" spans="3:94" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="54">
+        <f t="shared" ref="D51" si="33">SUM(G51:CP51)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E51" s="54">
+        <f t="shared" ref="E51" si="34">SUM(G52:CP52)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F51" s="54">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>1.5</v>
+        <v>-8</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="15"/>
@@ -5874,10 +5970,14 @@
       <c r="CB51" s="27"/>
       <c r="CC51" s="27"/>
       <c r="CD51" s="28"/>
-      <c r="CE51" s="26"/>
-      <c r="CF51" s="27"/>
-      <c r="CG51" s="27"/>
-      <c r="CH51" s="28"/>
+      <c r="CE51" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="CF51" s="36"/>
+      <c r="CG51" s="36">
+        <v>2</v>
+      </c>
+      <c r="CH51" s="37"/>
       <c r="CI51" s="26"/>
       <c r="CJ51" s="27"/>
       <c r="CK51" s="27"/>
@@ -5887,11 +5987,11 @@
       <c r="CO51" s="27"/>
       <c r="CP51" s="28"/>
     </row>
-    <row r="52" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="44"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
+    <row r="52" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="60"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="14"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -5968,10 +6068,14 @@
       <c r="CB52" s="24"/>
       <c r="CC52" s="24"/>
       <c r="CD52" s="25"/>
-      <c r="CE52" s="23"/>
-      <c r="CF52" s="24"/>
-      <c r="CG52" s="24"/>
-      <c r="CH52" s="25"/>
+      <c r="CE52" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="CF52" s="32"/>
+      <c r="CG52" s="32">
+        <v>2</v>
+      </c>
+      <c r="CH52" s="40"/>
       <c r="CI52" s="23"/>
       <c r="CJ52" s="24"/>
       <c r="CK52" s="24"/>
@@ -5981,21 +6085,21 @@
       <c r="CO52" s="24"/>
       <c r="CP52" s="25"/>
     </row>
-    <row r="53" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="45">
+    <row r="53" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="54">
+        <f t="shared" ref="D53" si="35">SUM(G53:CP53)</f>
+        <v>4</v>
+      </c>
+      <c r="E53" s="54">
+        <f t="shared" ref="E53" si="36">SUM(G54:CP54)</f>
+        <v>4</v>
+      </c>
+      <c r="F53" s="54">
         <f>SUM($D$7:D53)-SUM($E$7:E53)</f>
-        <v>1.5</v>
+        <v>-8</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="15"/>
@@ -6075,22 +6179,26 @@
       <c r="CD53" s="28"/>
       <c r="CE53" s="26"/>
       <c r="CF53" s="27"/>
-      <c r="CG53" s="27"/>
-      <c r="CH53" s="28"/>
-      <c r="CI53" s="26"/>
-      <c r="CJ53" s="27"/>
-      <c r="CK53" s="27"/>
-      <c r="CL53" s="28"/>
+      <c r="CG53" s="47"/>
+      <c r="CH53" s="48"/>
+      <c r="CI53" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="CJ53" s="36"/>
+      <c r="CK53" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="CL53" s="37"/>
       <c r="CM53" s="26"/>
       <c r="CN53" s="27"/>
       <c r="CO53" s="27"/>
       <c r="CP53" s="28"/>
     </row>
-    <row r="54" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" s="44"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
+    <row r="54" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="53"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="14"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -6171,30 +6279,34 @@
       <c r="CF54" s="24"/>
       <c r="CG54" s="24"/>
       <c r="CH54" s="25"/>
-      <c r="CI54" s="23"/>
-      <c r="CJ54" s="24"/>
-      <c r="CK54" s="24"/>
-      <c r="CL54" s="25"/>
+      <c r="CI54" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="CJ54" s="40"/>
+      <c r="CK54" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="CL54" s="40"/>
       <c r="CM54" s="23"/>
       <c r="CN54" s="24"/>
       <c r="CO54" s="24"/>
       <c r="CP54" s="25"/>
     </row>
-    <row r="55" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="45">
+    <row r="55" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="54">
+        <f t="shared" ref="D55" si="37">SUM(G55:CP55)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E55" s="54">
+        <f t="shared" ref="E55" si="38">SUM(G56:CP56)</f>
+        <v>5</v>
+      </c>
+      <c r="F55" s="54">
         <f>SUM($D$7:D55)-SUM($E$7:E55)</f>
-        <v>1.5</v>
+        <v>-6.5</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="15"/>
@@ -6280,952 +6392,556 @@
       <c r="CJ55" s="27"/>
       <c r="CK55" s="27"/>
       <c r="CL55" s="28"/>
-      <c r="CM55" s="26"/>
-      <c r="CN55" s="27"/>
-      <c r="CO55" s="27"/>
-      <c r="CP55" s="28"/>
+      <c r="CM55" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="CN55" s="36"/>
+      <c r="CO55" s="36">
+        <v>5</v>
+      </c>
+      <c r="CP55" s="37"/>
     </row>
-    <row r="56" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" s="44"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="25"/>
-      <c r="AE56" s="23"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="25"/>
-      <c r="AI56" s="23"/>
-      <c r="AJ56" s="24"/>
-      <c r="AK56" s="24"/>
-      <c r="AL56" s="25"/>
-      <c r="AM56" s="23"/>
-      <c r="AN56" s="24"/>
-      <c r="AO56" s="24"/>
-      <c r="AP56" s="25"/>
-      <c r="AQ56" s="23"/>
-      <c r="AR56" s="24"/>
-      <c r="AS56" s="24"/>
-      <c r="AT56" s="25"/>
-      <c r="AU56" s="23"/>
-      <c r="AV56" s="24"/>
-      <c r="AW56" s="24"/>
-      <c r="AX56" s="25"/>
-      <c r="AY56" s="23"/>
-      <c r="AZ56" s="24"/>
-      <c r="BA56" s="24"/>
-      <c r="BB56" s="25"/>
-      <c r="BC56" s="23"/>
-      <c r="BD56" s="24"/>
-      <c r="BE56" s="24"/>
-      <c r="BF56" s="25"/>
-      <c r="BG56" s="23"/>
-      <c r="BH56" s="24"/>
-      <c r="BI56" s="24"/>
-      <c r="BJ56" s="25"/>
-      <c r="BK56" s="23"/>
-      <c r="BL56" s="24"/>
-      <c r="BM56" s="24"/>
-      <c r="BN56" s="25"/>
-      <c r="BO56" s="23"/>
-      <c r="BP56" s="24"/>
-      <c r="BQ56" s="24"/>
-      <c r="BR56" s="25"/>
-      <c r="BS56" s="23"/>
-      <c r="BT56" s="24"/>
-      <c r="BU56" s="24"/>
-      <c r="BV56" s="25"/>
-      <c r="BW56" s="23"/>
-      <c r="BX56" s="24"/>
-      <c r="BY56" s="24"/>
-      <c r="BZ56" s="25"/>
-      <c r="CA56" s="23"/>
-      <c r="CB56" s="24"/>
-      <c r="CC56" s="24"/>
-      <c r="CD56" s="25"/>
-      <c r="CE56" s="23"/>
-      <c r="CF56" s="24"/>
-      <c r="CG56" s="24"/>
-      <c r="CH56" s="25"/>
-      <c r="CI56" s="23"/>
-      <c r="CJ56" s="24"/>
-      <c r="CK56" s="24"/>
-      <c r="CL56" s="25"/>
-      <c r="CM56" s="23"/>
-      <c r="CN56" s="24"/>
-      <c r="CO56" s="24"/>
-      <c r="CP56" s="25"/>
+    <row r="56" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="53"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="20"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="22"/>
+      <c r="AQ56" s="20"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="20"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="22"/>
+      <c r="AY56" s="20"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+      <c r="BB56" s="22"/>
+      <c r="BC56" s="20"/>
+      <c r="BD56" s="21"/>
+      <c r="BE56" s="21"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="20"/>
+      <c r="BH56" s="21"/>
+      <c r="BI56" s="21"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="20"/>
+      <c r="BL56" s="21"/>
+      <c r="BM56" s="21"/>
+      <c r="BN56" s="22"/>
+      <c r="BO56" s="20"/>
+      <c r="BP56" s="21"/>
+      <c r="BQ56" s="21"/>
+      <c r="BR56" s="22"/>
+      <c r="BS56" s="20"/>
+      <c r="BT56" s="21"/>
+      <c r="BU56" s="21"/>
+      <c r="BV56" s="22"/>
+      <c r="BW56" s="20"/>
+      <c r="BX56" s="21"/>
+      <c r="BY56" s="21"/>
+      <c r="BZ56" s="22"/>
+      <c r="CA56" s="20"/>
+      <c r="CB56" s="21"/>
+      <c r="CC56" s="21"/>
+      <c r="CD56" s="22"/>
+      <c r="CE56" s="20"/>
+      <c r="CF56" s="21"/>
+      <c r="CG56" s="21"/>
+      <c r="CH56" s="22"/>
+      <c r="CI56" s="20"/>
+      <c r="CJ56" s="21"/>
+      <c r="CK56" s="21"/>
+      <c r="CL56" s="22"/>
+      <c r="CM56" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="CN56" s="40"/>
+      <c r="CO56" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="CP56" s="40"/>
     </row>
-    <row r="57" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="45">
-        <f>SUM($D$7:D57)-SUM($E$7:E57)</f>
+    <row r="57" spans="3:94" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="2"/>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="2"/>
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="3"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="3"/>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="2"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="3"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+      <c r="BJ57" s="3"/>
+      <c r="BK57" s="2"/>
+      <c r="BL57" s="2"/>
+      <c r="BM57" s="2"/>
+      <c r="BN57" s="3"/>
+      <c r="BO57" s="2"/>
+      <c r="BP57" s="2"/>
+      <c r="BQ57" s="2"/>
+      <c r="BR57" s="3"/>
+      <c r="BS57" s="2"/>
+      <c r="BT57" s="2"/>
+      <c r="BU57" s="2"/>
+      <c r="BV57" s="3"/>
+      <c r="BW57" s="2"/>
+      <c r="BX57" s="2"/>
+      <c r="BY57" s="2"/>
+      <c r="BZ57" s="3"/>
+      <c r="CA57" s="2"/>
+      <c r="CB57" s="2"/>
+      <c r="CC57" s="2"/>
+      <c r="CD57" s="3"/>
+      <c r="CE57" s="2"/>
+      <c r="CF57" s="2"/>
+      <c r="CG57" s="2"/>
+      <c r="CH57" s="3"/>
+      <c r="CI57" s="2"/>
+      <c r="CJ57" s="2"/>
+      <c r="CK57" s="2"/>
+      <c r="CL57" s="3"/>
+      <c r="CM57" s="2"/>
+      <c r="CN57" s="2"/>
+      <c r="CO57" s="2"/>
+      <c r="CP57" s="3"/>
+    </row>
+    <row r="58" spans="3:94" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:94" x14ac:dyDescent="0.3">
+      <c r="C60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="7">
+        <f>SUM(D7:D56)</f>
+        <v>80</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="44">
+        <f>SUM(G7:J7,G9:J9,G11:J11,G13:J13,G15:J15,G17:J17,G19:J19,G22:J22,G24:J24,G26:J26,G28:J28,G30:J30,G33:J33,G35:J35,G37:J37,G39:J39,G41:J41,G43:J43,G45:J45,G47:J47,G49:J49,G51:J51,G53:J53,G55:J55)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="44">
+        <f t="shared" ref="K60:K61" si="39">SUM(K7:N7,K9:N9,K11:N11,K13:N13,K15:N15,K17:N17,K19:N19,K22:N22,K24:N24,K26:N26,K28:N28,K30:N30,K33:N33,K35:N35,K37:N37,K39:N39,K41:N41,K43:N43,K45:N45,K47:N47,K49:N49,K51:N51,K53:N53,K55:N55)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="44">
+        <f t="shared" ref="O60:O61" si="40">SUM(O7:R7,O9:R9,O11:R11,O13:R13,O15:R15,O17:R17,O19:R19,O22:R22,O24:R24,O26:R26,O28:R28,O30:R30,O33:R33,O35:R35,O37:R37,O39:R39,O41:R41,O43:R43,O45:R45,O47:R47,O49:R49,O51:R51,O53:R53,O55:R55)</f>
+        <v>4.5</v>
+      </c>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="44">
+        <f t="shared" ref="S60:S61" si="41">SUM(S7:V7,S9:V9,S11:V11,S13:V13,S15:V15,S17:V17,S19:V19,S22:V22,S24:V24,S26:V26,S28:V28,S30:V30,S33:V33,S35:V35,S37:V37,S39:V39,S41:V41,S43:V43,S45:V45,S47:V47,S49:V49,S51:V51,S53:V53,S55:V55)</f>
         <v>1.5</v>
       </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="27"/>
-      <c r="AG57" s="27"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="26"/>
-      <c r="AJ57" s="27"/>
-      <c r="AK57" s="27"/>
-      <c r="AL57" s="28"/>
-      <c r="AM57" s="26"/>
-      <c r="AN57" s="27"/>
-      <c r="AO57" s="27"/>
-      <c r="AP57" s="28"/>
-      <c r="AQ57" s="26"/>
-      <c r="AR57" s="27"/>
-      <c r="AS57" s="27"/>
-      <c r="AT57" s="28"/>
-      <c r="AU57" s="26"/>
-      <c r="AV57" s="27"/>
-      <c r="AW57" s="27"/>
-      <c r="AX57" s="28"/>
-      <c r="AY57" s="26"/>
-      <c r="AZ57" s="27"/>
-      <c r="BA57" s="27"/>
-      <c r="BB57" s="28"/>
-      <c r="BC57" s="26"/>
-      <c r="BD57" s="27"/>
-      <c r="BE57" s="27"/>
-      <c r="BF57" s="28"/>
-      <c r="BG57" s="26"/>
-      <c r="BH57" s="27"/>
-      <c r="BI57" s="27"/>
-      <c r="BJ57" s="28"/>
-      <c r="BK57" s="26"/>
-      <c r="BL57" s="27"/>
-      <c r="BM57" s="27"/>
-      <c r="BN57" s="28"/>
-      <c r="BO57" s="26"/>
-      <c r="BP57" s="27"/>
-      <c r="BQ57" s="27"/>
-      <c r="BR57" s="28"/>
-      <c r="BS57" s="26"/>
-      <c r="BT57" s="27"/>
-      <c r="BU57" s="27"/>
-      <c r="BV57" s="28"/>
-      <c r="BW57" s="26"/>
-      <c r="BX57" s="27"/>
-      <c r="BY57" s="27"/>
-      <c r="BZ57" s="28"/>
-      <c r="CA57" s="26"/>
-      <c r="CB57" s="27"/>
-      <c r="CC57" s="27"/>
-      <c r="CD57" s="28"/>
-      <c r="CE57" s="26"/>
-      <c r="CF57" s="27"/>
-      <c r="CG57" s="27"/>
-      <c r="CH57" s="28"/>
-      <c r="CI57" s="26"/>
-      <c r="CJ57" s="27"/>
-      <c r="CK57" s="27"/>
-      <c r="CL57" s="28"/>
-      <c r="CM57" s="26"/>
-      <c r="CN57" s="27"/>
-      <c r="CO57" s="27"/>
-      <c r="CP57" s="28"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="44">
+        <f t="shared" ref="W60:W61" si="42">SUM(W7:Z7,W9:Z9,W11:Z11,W13:Z13,W15:Z15,W17:Z17,W19:Z19,W22:Z22,W24:Z24,W26:Z26,W28:Z28,W30:Z30,W33:Z33,W35:Z35,W37:Z37,W39:Z39,W41:Z41,W43:Z43,W45:Z45,W47:Z47,W49:Z49,W51:Z51,W53:Z53,W55:Z55)</f>
+        <v>1.5</v>
+      </c>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="44">
+        <f t="shared" ref="AA60:AA61" si="43">SUM(AA7:AD7,AA9:AD9,AA11:AD11,AA13:AD13,AA15:AD15,AA17:AD17,AA19:AD19,AA22:AD22,AA24:AD24,AA26:AD26,AA28:AD28,AA30:AD30,AA33:AD33,AA35:AD35,AA37:AD37,AA39:AD39,AA41:AD41,AA43:AD43,AA45:AD45,AA47:AD47,AA49:AD49,AA51:AD51,AA53:AD53,AA55:AD55)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AB60" s="45"/>
+      <c r="AC60" s="45"/>
+      <c r="AD60" s="46"/>
+      <c r="AE60" s="44">
+        <f t="shared" ref="AE60:AE61" si="44">SUM(AE7:AH7,AE9:AH9,AE11:AH11,AE13:AH13,AE15:AH15,AE17:AH17,AE19:AH19,AE22:AH22,AE24:AH24,AE26:AH26,AE28:AH28,AE30:AH30,AE33:AH33,AE35:AH35,AE37:AH37,AE39:AH39,AE41:AH41,AE43:AH43,AE45:AH45,AE47:AH47,AE49:AH49,AE51:AH51,AE53:AH53,AE55:AH55)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AF60" s="45"/>
+      <c r="AG60" s="45"/>
+      <c r="AH60" s="46"/>
+      <c r="AI60" s="44">
+        <f t="shared" ref="AI60:AI61" si="45">SUM(AI7:AL7,AI9:AL9,AI11:AL11,AI13:AL13,AI15:AL15,AI17:AL17,AI19:AL19,AI22:AL22,AI24:AL24,AI26:AL26,AI28:AL28,AI30:AL30,AI33:AL33,AI35:AL35,AI37:AL37,AI39:AL39,AI41:AL41,AI43:AL43,AI45:AL45,AI47:AL47,AI49:AL49,AI51:AL51,AI53:AL53,AI55:AL55)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AJ60" s="45"/>
+      <c r="AK60" s="45"/>
+      <c r="AL60" s="46"/>
+      <c r="AM60" s="44">
+        <f t="shared" ref="AM60:AM61" si="46">SUM(AM7:AP7,AM9:AP9,AM11:AP11,AM13:AP13,AM15:AP15,AM17:AP17,AM19:AP19,AM22:AP22,AM24:AP24,AM26:AP26,AM28:AP28,AM30:AP30,AM33:AP33,AM35:AP35,AM37:AP37,AM39:AP39,AM41:AP41,AM43:AP43,AM45:AP45,AM47:AP47,AM49:AP49,AM51:AP51,AM53:AP53,AM55:AP55)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AN60" s="45"/>
+      <c r="AO60" s="45"/>
+      <c r="AP60" s="46"/>
+      <c r="AQ60" s="44">
+        <f t="shared" ref="AQ60:AQ61" si="47">SUM(AQ7:AT7,AQ9:AT9,AQ11:AT11,AQ13:AT13,AQ15:AT15,AQ17:AT17,AQ19:AT19,AQ22:AT22,AQ24:AT24,AQ26:AT26,AQ28:AT28,AQ30:AT30,AQ33:AT33,AQ35:AT35,AQ37:AT37,AQ39:AT39,AQ41:AT41,AQ43:AT43,AQ45:AT45,AQ47:AT47,AQ49:AT49,AQ51:AT51,AQ53:AT53,AQ55:AT55)</f>
+        <v>3</v>
+      </c>
+      <c r="AR60" s="45"/>
+      <c r="AS60" s="45"/>
+      <c r="AT60" s="46"/>
+      <c r="AU60" s="44">
+        <f t="shared" ref="AU60:AU61" si="48">SUM(AU7:AX7,AU9:AX9,AU11:AX11,AU13:AX13,AU15:AX15,AU17:AX17,AU19:AX19,AU22:AX22,AU24:AX24,AU26:AX26,AU28:AX28,AU30:AX30,AU33:AX33,AU35:AX35,AU37:AX37,AU39:AX39,AU41:AX41,AU43:AX43,AU45:AX45,AU47:AX47,AU49:AX49,AU51:AX51,AU53:AX53,AU55:AX55)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AV60" s="45"/>
+      <c r="AW60" s="45"/>
+      <c r="AX60" s="46"/>
+      <c r="AY60" s="44">
+        <f t="shared" ref="AY60" si="49">SUM(AY7:BB7,AY9:BB9,AY11:BB11,AY13:BB13,AY15:BB15,AY17:BB17,AY19:BB19,AY22:BB22,AY24:BB24,AY26:BB26,AY28:BB28,AY30:BB30,AY33:BB33,AY35:BB35,AY37:BB37,AY39:BB39,AY41:BB41,AY43:BB43,AY45:BB45,AY47:BB47,AY49:BB49,AY51:BB51,AY53:BB53,AY55:BB55)</f>
+        <v>4</v>
+      </c>
+      <c r="AZ60" s="45"/>
+      <c r="BA60" s="45"/>
+      <c r="BB60" s="46"/>
+      <c r="BC60" s="44">
+        <f t="shared" ref="BC60" si="50">SUM(BC7:BF7,BC9:BF9,BC11:BF11,BC13:BF13,BC15:BF15,BC17:BF17,BC19:BF19,BC22:BF22,BC24:BF24,BC26:BF26,BC28:BF28,BC30:BF30,BC33:BF33,BC35:BF35,BC37:BF37,BC39:BF39,BC41:BF41,BC43:BF43,BC45:BF45,BC47:BF47,BC49:BF49,BC51:BF51,BC53:BF53,BC55:BF55)</f>
+        <v>6.5</v>
+      </c>
+      <c r="BD60" s="45"/>
+      <c r="BE60" s="45"/>
+      <c r="BF60" s="46"/>
+      <c r="BG60" s="44">
+        <f t="shared" ref="BG60:BG61" si="51">SUM(BG7:BJ7,BG9:BJ9,BG11:BJ11,BG13:BJ13,BG15:BJ15,BG17:BJ17,BG19:BJ19,BG22:BJ22,BG24:BJ24,BG26:BJ26,BG28:BJ28,BG30:BJ30,BG33:BJ33,BG35:BJ35,BG37:BJ37,BG39:BJ39,BG41:BJ41,BG43:BJ43,BG45:BJ45,BG47:BJ47,BG49:BJ49,BG51:BJ51,BG53:BJ53,BG55:BJ55)</f>
+        <v>6.5</v>
+      </c>
+      <c r="BH60" s="45"/>
+      <c r="BI60" s="45"/>
+      <c r="BJ60" s="46"/>
+      <c r="BK60" s="44">
+        <f t="shared" ref="BK60" si="52">SUM(BK7:BN7,BK9:BN9,BK11:BN11,BK13:BN13,BK15:BN15,BK17:BN17,BK19:BN19,BK22:BN22,BK24:BN24,BK26:BN26,BK28:BN28,BK30:BN30,BK33:BN33,BK35:BN35,BK37:BN37,BK39:BN39,BK41:BN41,BK43:BN43,BK45:BN45,BK47:BN47,BK49:BN49,BK51:BN51,BK53:BN53,BK55:BN55)</f>
+        <v>5.5</v>
+      </c>
+      <c r="BL60" s="45"/>
+      <c r="BM60" s="45"/>
+      <c r="BN60" s="46"/>
+      <c r="BO60" s="44">
+        <f>SUM(BO7:BR7,BO9:BR9,BO11:BR11,BO13:BR13,BO15:BR15,BO17:BR17,BO19:BR19,BO22:BR22,BO24:BR24,BO26:BR26,BO28:BR28,BO30:BR30,BO33:BR33,BO35:BR35,BO37:BR37,BQ39:BR39,BS41:BV41,BO43:BR43,BO45:BR45,BO47:BR47,BO49:BR49,BO51:BR51,BO53:BR53,BO55:BR55)</f>
+        <v>5.5</v>
+      </c>
+      <c r="BP60" s="45"/>
+      <c r="BQ60" s="45"/>
+      <c r="BR60" s="46"/>
+      <c r="BS60" s="44">
+        <f>SUM(BS7:BV7,BS9:BV9,BS11:BV11,BS13:BV13,BS15:BV15,BS17:BV17,BS19:BV19,BS22:BV22,BS24:BV24,BS26:BV26,BS28:BV28,BS30:BV30,BS33:BV33,BS35:BV35,BS37:BV37,BS39:BV39,BS41:BV41,BS43:BV43,BS45:BV45,BS47:BV47,BS49:BV49,BS51:BV51,BS53:BV53,BS55:BV55)</f>
+        <v>2</v>
+      </c>
+      <c r="BT60" s="45"/>
+      <c r="BU60" s="45"/>
+      <c r="BV60" s="46"/>
+      <c r="BW60" s="44">
+        <f>SUM(BW7:BZ7,BW9:BZ9,BW11:BZ11,BW13:BZ13,BW15:BZ15,BW17:BZ17,BW19:BZ19,BW22:BZ22,BW24:BZ24,BW26:BZ26,BW28:BZ28,BW30:BZ30,BW33:BZ33,BW35:BZ35,BW37:BZ37,BW39:BZ39,BW41:BZ41,BW43:BZ43,CA47:CC47,BW47:BZ47,BW49:BZ49,BW51:BZ51,BW53:BZ53,BW55:BZ55)</f>
+        <v>5</v>
+      </c>
+      <c r="BX60" s="45"/>
+      <c r="BY60" s="45"/>
+      <c r="BZ60" s="46"/>
+      <c r="CA60" s="44">
+        <f>SUM(CA7:CD7,CA9:CD9,CA11:CD11,CA13:CD13,CA15:CD15,CA17:CD17,CA19:CD19,CA22:CD22,CA24:CD24,CA26:CD26,CA28:CD28,CA30:CD30,CA33:CD33,CA35:CD35,CA37:CD37,CA39:CD39,CA41:CD41,CA43:CD43,CA47:CD47,CA45:CB45,CA49:CD49,CA51:CD51,CA53:CD53,CA55:CD55)</f>
+        <v>7.5</v>
+      </c>
+      <c r="CB60" s="45"/>
+      <c r="CC60" s="45"/>
+      <c r="CD60" s="46"/>
+      <c r="CE60" s="44">
+        <f>SUM(CE7:CH7,CE9:CH9,CE11:CH11,CE13:CH13,CE15:CH15,CE17:CH17,CE19:CH19,CE22:CH22,CE24:CH24,CE26:CH26,CE28:CH28,CE30:CH30,CE33:CH33,CE35:CH35,CE37:CH37,CE39:CH39,CE41:CH41,CE43:CH43,CE47:CH47,CE45:CH45,CE49:CH49,CE51:CH51,CE53:CH53,CE55:CH55)</f>
+        <v>3.5</v>
+      </c>
+      <c r="CF60" s="45"/>
+      <c r="CG60" s="45"/>
+      <c r="CH60" s="46"/>
+      <c r="CI60" s="44">
+        <f t="shared" ref="CI60" si="53">SUM(CI7:CL7,CI9:CL9,CI11:CL11,CI13:CL13,CI15:CL15,CI17:CL17,CI19:CL19,CI22:CL22,CI24:CL24,CI26:CL26,CI28:CL28,CI30:CL30,CI33:CL33,CI35:CL35,CI37:CL37,CI39:CL39,CI41:CL41,CI43:CL43,CI45:CL45,CI47:CL47,CI49:CL49,CI51:CL51,CI53:CL53,CI55:CL55)</f>
+        <v>4</v>
+      </c>
+      <c r="CJ60" s="45"/>
+      <c r="CK60" s="45"/>
+      <c r="CL60" s="46"/>
+      <c r="CM60" s="44">
+        <f t="shared" ref="CM60:CM61" si="54">SUM(CM7:CP7,CM9:CP9,CM11:CP11,CM13:CP13,CM15:CP15,CM17:CP17,CM19:CP19,CM22:CP22,CM24:CP24,CM26:CP26,CM28:CP28,CM30:CP30,CM33:CP33,CM35:CP35,CM37:CP37,CM39:CP39,CM41:CP41,CM43:CP43,CM45:CP45,CM47:CP47,CM49:CP49,CM51:CP51,CM53:CP53,CM55:CP55)</f>
+        <v>6.5</v>
+      </c>
+      <c r="CN60" s="45"/>
+      <c r="CO60" s="45"/>
+      <c r="CP60" s="46"/>
     </row>
-    <row r="58" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" s="44"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="25"/>
-      <c r="W58" s="23"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="25"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="25"/>
-      <c r="AE58" s="23"/>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="24"/>
-      <c r="AH58" s="25"/>
-      <c r="AI58" s="23"/>
-      <c r="AJ58" s="24"/>
-      <c r="AK58" s="24"/>
-      <c r="AL58" s="25"/>
-      <c r="AM58" s="23"/>
-      <c r="AN58" s="24"/>
-      <c r="AO58" s="24"/>
-      <c r="AP58" s="25"/>
-      <c r="AQ58" s="23"/>
-      <c r="AR58" s="24"/>
-      <c r="AS58" s="24"/>
-      <c r="AT58" s="25"/>
-      <c r="AU58" s="23"/>
-      <c r="AV58" s="24"/>
-      <c r="AW58" s="24"/>
-      <c r="AX58" s="25"/>
-      <c r="AY58" s="23"/>
-      <c r="AZ58" s="24"/>
-      <c r="BA58" s="24"/>
-      <c r="BB58" s="25"/>
-      <c r="BC58" s="23"/>
-      <c r="BD58" s="24"/>
-      <c r="BE58" s="24"/>
-      <c r="BF58" s="25"/>
-      <c r="BG58" s="23"/>
-      <c r="BH58" s="24"/>
-      <c r="BI58" s="24"/>
-      <c r="BJ58" s="25"/>
-      <c r="BK58" s="23"/>
-      <c r="BL58" s="24"/>
-      <c r="BM58" s="24"/>
-      <c r="BN58" s="25"/>
-      <c r="BO58" s="23"/>
-      <c r="BP58" s="24"/>
-      <c r="BQ58" s="24"/>
-      <c r="BR58" s="25"/>
-      <c r="BS58" s="23"/>
-      <c r="BT58" s="24"/>
-      <c r="BU58" s="24"/>
-      <c r="BV58" s="25"/>
-      <c r="BW58" s="23"/>
-      <c r="BX58" s="24"/>
-      <c r="BY58" s="24"/>
-      <c r="BZ58" s="25"/>
-      <c r="CA58" s="23"/>
-      <c r="CB58" s="24"/>
-      <c r="CC58" s="24"/>
-      <c r="CD58" s="25"/>
-      <c r="CE58" s="23"/>
-      <c r="CF58" s="24"/>
-      <c r="CG58" s="24"/>
-      <c r="CH58" s="25"/>
-      <c r="CI58" s="23"/>
-      <c r="CJ58" s="24"/>
-      <c r="CK58" s="24"/>
-      <c r="CL58" s="25"/>
-      <c r="CM58" s="23"/>
-      <c r="CN58" s="24"/>
-      <c r="CO58" s="24"/>
-      <c r="CP58" s="25"/>
+    <row r="61" spans="3:94" x14ac:dyDescent="0.3">
+      <c r="C61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7">
+        <f>SUM(E7:E56)</f>
+        <v>86.5</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="44">
+        <f>SUM(G8:J8,G10:J10,G12:J12,G14:J14,G16:J16,G18:J18,G20:J20,G23:J23,G25:J25,G27:J27,G29:J29,G31:J31,G34:J34,G36:J36,G38:J38,G40:J40,G42:J42,G44:J44,G46:J46,G48:J48,G50:J50,G52:J52,G54:J54,G56:J56)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="44">
+        <f t="shared" si="39"/>
+        <v>4.5</v>
+      </c>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="44">
+        <f t="shared" si="40"/>
+        <v>4.5</v>
+      </c>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="44">
+        <f t="shared" si="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="44">
+        <f t="shared" si="42"/>
+        <v>1.5</v>
+      </c>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="44">
+        <f t="shared" si="43"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB61" s="45"/>
+      <c r="AC61" s="45"/>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="44">
+        <f t="shared" si="44"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF61" s="45"/>
+      <c r="AG61" s="45"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="44">
+        <f t="shared" si="45"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ61" s="45"/>
+      <c r="AK61" s="45"/>
+      <c r="AL61" s="46"/>
+      <c r="AM61" s="44">
+        <f t="shared" si="46"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN61" s="45"/>
+      <c r="AO61" s="45"/>
+      <c r="AP61" s="46"/>
+      <c r="AQ61" s="44">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="AR61" s="45"/>
+      <c r="AS61" s="45"/>
+      <c r="AT61" s="46"/>
+      <c r="AU61" s="44">
+        <f t="shared" si="48"/>
+        <v>1.5</v>
+      </c>
+      <c r="AV61" s="45"/>
+      <c r="AW61" s="45"/>
+      <c r="AX61" s="46"/>
+      <c r="AY61" s="44">
+        <f>SUM(AY8:BB8,AY10:BB10,AY12:BB12,AY14:BB14,AY16:BB16,AY18:BB18,AY20:BB20,AY23:BB23,AY25:BA25,AY27:BB27,AY29:BB29,AY31:BB31,AY34:BB34,AY36:BB36,AY38:BB38,AY40:BB40,AY42:BB42,AY44:BB44,AY46:BB46,AY48:BB48,AY50:BB50,AY52:BB52,AY54:BB54,AY56:BB56)</f>
+        <v>4</v>
+      </c>
+      <c r="AZ61" s="45"/>
+      <c r="BA61" s="45"/>
+      <c r="BB61" s="46"/>
+      <c r="BC61" s="44">
+        <f>SUM(BC8:BF8,BC10:BF10,BC12:BF12,BC14:BF14,BC16:BF16,BC18:BF18,BC20:BF20,BC23:BF23,BC25:BF25,BC27:BF27,BC29:CK29,BC31:BE31,BC34:BF34,BC36:BF36,BC38:BF38,BC40:BF40,BC42:BF42,BC44:BF44,BC46:BF46,BC48:BF48,BC50:BF50,BC52:BF52,BC54:BF54,BC56:BF56)</f>
+        <v>6.5</v>
+      </c>
+      <c r="BD61" s="45"/>
+      <c r="BE61" s="45"/>
+      <c r="BF61" s="46"/>
+      <c r="BG61" s="44">
+        <f t="shared" si="51"/>
+        <v>7.5</v>
+      </c>
+      <c r="BH61" s="45"/>
+      <c r="BI61" s="45"/>
+      <c r="BJ61" s="46"/>
+      <c r="BK61" s="44">
+        <f>SUM(BK8:BN8,BK10:BN10,BK12:BN12,BK14:BN14,BK16:BN16,BK18:BN18,BK20:BN20,BK23:BN23,BK25:BN25,BK27:BN27,BK29:BN29,BK31:BN31,BK34:BN34,BK36:BN36,BK38:BN38,BK40:BN40,BK42:BN42,BK44:BN44,BK46:BN46,BK48:BN48,BK50:BN50,BK52:BN52,BK54:BN54,BK56:BN56)</f>
+        <v>10</v>
+      </c>
+      <c r="BL61" s="45"/>
+      <c r="BM61" s="45"/>
+      <c r="BN61" s="46"/>
+      <c r="BO61" s="44">
+        <f>SUM(BO8:BR8,BO10:BR10,BO12:BR12,BO14:BR14,BO16:BR16,BO18:BR18,BO20:BR20,BO23:BR23,BO25:BR25,BO27:BR27,BO29:BR29,BO31:BR31,BO34:BR34,BO36:BR36,BO38:BQ38,BO40:BQ40,BO42:BR42,BO44:BR44,BO46:BR46,BO48:BR48,BO50:BR50,BO52:BR52,BO54:BR54,BO56:BR56)</f>
+        <v>3.5</v>
+      </c>
+      <c r="BP61" s="45"/>
+      <c r="BQ61" s="45"/>
+      <c r="BR61" s="46"/>
+      <c r="BS61" s="44">
+        <f>SUM(BS8:BV8,BS10:BV10,BS12:BV12,BS14:BV14,BS16:BV16,BS18:BV18,BS20:BV20,BS23:BV23,BS25:BV25,BS27:BV27,BS29:BV29,BS31:BV31,BS34:BV34,BS36:BV36,BS38:BV38,BS40:BV40,BS42:BV42,BS44:BV44,BS46:BV46,BS48:BV48,BS50:BV50,BS52:BV52,BS54:BV54,BS56:BV56)</f>
+        <v>1.5</v>
+      </c>
+      <c r="BT61" s="45"/>
+      <c r="BU61" s="45"/>
+      <c r="BV61" s="46"/>
+      <c r="BW61" s="44">
+        <f>SUM(BW8:BZ8,BW10:BZ10,BW12:BZ12,BW14:BZ14,BW16:BZ16,BW18:BZ18,BW20:BZ20,BW23:BZ23,BW25:BZ25,BW27:BZ27,BW29:BZ29,BW31:BZ31,BW34:BZ34,BW36:BZ36,BW38:BZ38,BW40:BZ40,BW42:BZ42,BW44:BY44,BW46:BZ46,CA46:CC46,BW50:BZ50,BW52:BZ52,BW54:BZ54,BW56:BZ56)</f>
+        <v>5</v>
+      </c>
+      <c r="BX61" s="45"/>
+      <c r="BY61" s="45"/>
+      <c r="BZ61" s="46"/>
+      <c r="CA61" s="44">
+        <f>SUM(CA8:CD8,CA10:CD10,CA12:CD12,CA14:CD14,CA16:CD16,CA18:CD18,CA20:CD20,CA23:CD23,CA25:CD25,CA27:CD27,CA29:CD29,CA31:CD31,CA34:CD34,CA36:CD36,CA38:CD38,CA40:CD40,CA42:CD42,CA44:CD44,CA48:CD48,CA46:CD46,CA50:CD50,CA52:CD52,CA54:CD54,CA56:CD56)</f>
+        <v>7.5</v>
+      </c>
+      <c r="CB61" s="45"/>
+      <c r="CC61" s="45"/>
+      <c r="CD61" s="46"/>
+      <c r="CE61" s="44">
+        <f>SUM(CE8:CH8,CE10:CH10,CE12:CH12,CE14:CH14,CE16:CH16,CE18:CH18,CE20:CH20,CE23:CH23,CE25:CH25,CE27:CH27,CE29:CH29,CE31:CH31,CE34:CH34,CE36:CH36,CE38:CH38,CE40:CH40,CE42:CH42,CE44:CH44,CE48:CH48,CE46:CH46,CE50:CH50,CE52:CH52,CE54:CH54,CE56:CH56)</f>
+        <v>7.5</v>
+      </c>
+      <c r="CF61" s="45"/>
+      <c r="CG61" s="45"/>
+      <c r="CH61" s="46"/>
+      <c r="CI61" s="44">
+        <f>SUM(CI8:CL8,CI10:CL10,CI12:CL12,CI14:CL14,CI16:CL16,CI18:CL18,CI20:CL20,CI23:CL23,CI25:CL25,CI27:CL27,CI29:CL29,CI31:CL31,CI34:CL34,CI36:CL36,CI38:CL38,CI40:CL40,CI42:CL42,CI44:CL44,CI46:CL46,CI48:CL48,CI50:CL50,CI52:CL52,CI54:CL54,CI56:CL56)</f>
+        <v>6</v>
+      </c>
+      <c r="CJ61" s="45"/>
+      <c r="CK61" s="45"/>
+      <c r="CL61" s="46"/>
+      <c r="CM61" s="44">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
+      <c r="CN61" s="45"/>
+      <c r="CO61" s="45"/>
+      <c r="CP61" s="46"/>
     </row>
-    <row r="59" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="45">
-        <f>SUM($D$7:D59)-SUM($E$7:E59)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="26"/>
-      <c r="AJ59" s="27"/>
-      <c r="AK59" s="27"/>
-      <c r="AL59" s="28"/>
-      <c r="AM59" s="26"/>
-      <c r="AN59" s="27"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="28"/>
-      <c r="AQ59" s="26"/>
-      <c r="AR59" s="27"/>
-      <c r="AS59" s="27"/>
-      <c r="AT59" s="28"/>
-      <c r="AU59" s="26"/>
-      <c r="AV59" s="27"/>
-      <c r="AW59" s="27"/>
-      <c r="AX59" s="28"/>
-      <c r="AY59" s="26"/>
-      <c r="AZ59" s="27"/>
-      <c r="BA59" s="27"/>
-      <c r="BB59" s="28"/>
-      <c r="BC59" s="26"/>
-      <c r="BD59" s="27"/>
-      <c r="BE59" s="27"/>
-      <c r="BF59" s="28"/>
-      <c r="BG59" s="26"/>
-      <c r="BH59" s="27"/>
-      <c r="BI59" s="27"/>
-      <c r="BJ59" s="28"/>
-      <c r="BK59" s="26"/>
-      <c r="BL59" s="27"/>
-      <c r="BM59" s="27"/>
-      <c r="BN59" s="28"/>
-      <c r="BO59" s="26"/>
-      <c r="BP59" s="27"/>
-      <c r="BQ59" s="27"/>
-      <c r="BR59" s="28"/>
-      <c r="BS59" s="26"/>
-      <c r="BT59" s="27"/>
-      <c r="BU59" s="27"/>
-      <c r="BV59" s="28"/>
-      <c r="BW59" s="26"/>
-      <c r="BX59" s="27"/>
-      <c r="BY59" s="27"/>
-      <c r="BZ59" s="28"/>
-      <c r="CA59" s="26"/>
-      <c r="CB59" s="27"/>
-      <c r="CC59" s="27"/>
-      <c r="CD59" s="28"/>
-      <c r="CE59" s="26"/>
-      <c r="CF59" s="27"/>
-      <c r="CG59" s="27"/>
-      <c r="CH59" s="28"/>
-      <c r="CI59" s="26"/>
-      <c r="CJ59" s="27"/>
-      <c r="CK59" s="27"/>
-      <c r="CL59" s="28"/>
-      <c r="CM59" s="26"/>
-      <c r="CN59" s="27"/>
-      <c r="CO59" s="27"/>
-      <c r="CP59" s="28"/>
-    </row>
-    <row r="60" spans="3:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" s="44"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="20"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="20"/>
-      <c r="AJ60" s="21"/>
-      <c r="AK60" s="21"/>
-      <c r="AL60" s="22"/>
-      <c r="AM60" s="20"/>
-      <c r="AN60" s="21"/>
-      <c r="AO60" s="21"/>
-      <c r="AP60" s="22"/>
-      <c r="AQ60" s="20"/>
-      <c r="AR60" s="21"/>
-      <c r="AS60" s="21"/>
-      <c r="AT60" s="22"/>
-      <c r="AU60" s="20"/>
-      <c r="AV60" s="21"/>
-      <c r="AW60" s="21"/>
-      <c r="AX60" s="22"/>
-      <c r="AY60" s="20"/>
-      <c r="AZ60" s="21"/>
-      <c r="BA60" s="21"/>
-      <c r="BB60" s="22"/>
-      <c r="BC60" s="20"/>
-      <c r="BD60" s="21"/>
-      <c r="BE60" s="21"/>
-      <c r="BF60" s="22"/>
-      <c r="BG60" s="20"/>
-      <c r="BH60" s="21"/>
-      <c r="BI60" s="21"/>
-      <c r="BJ60" s="22"/>
-      <c r="BK60" s="20"/>
-      <c r="BL60" s="21"/>
-      <c r="BM60" s="21"/>
-      <c r="BN60" s="22"/>
-      <c r="BO60" s="20"/>
-      <c r="BP60" s="21"/>
-      <c r="BQ60" s="21"/>
-      <c r="BR60" s="22"/>
-      <c r="BS60" s="20"/>
-      <c r="BT60" s="21"/>
-      <c r="BU60" s="21"/>
-      <c r="BV60" s="22"/>
-      <c r="BW60" s="20"/>
-      <c r="BX60" s="21"/>
-      <c r="BY60" s="21"/>
-      <c r="BZ60" s="22"/>
-      <c r="CA60" s="20"/>
-      <c r="CB60" s="21"/>
-      <c r="CC60" s="21"/>
-      <c r="CD60" s="22"/>
-      <c r="CE60" s="20"/>
-      <c r="CF60" s="21"/>
-      <c r="CG60" s="21"/>
-      <c r="CH60" s="22"/>
-      <c r="CI60" s="20"/>
-      <c r="CJ60" s="21"/>
-      <c r="CK60" s="21"/>
-      <c r="CL60" s="22"/>
-      <c r="CM60" s="20"/>
-      <c r="CN60" s="21"/>
-      <c r="CO60" s="21"/>
-      <c r="CP60" s="22"/>
-    </row>
-    <row r="61" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="2"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61" s="2"/>
-      <c r="AN61" s="2"/>
-      <c r="AO61" s="2"/>
-      <c r="AP61" s="2"/>
-      <c r="AQ61" s="2"/>
-      <c r="AR61" s="2"/>
-      <c r="AS61" s="2"/>
-      <c r="AT61" s="3"/>
-      <c r="AU61" s="2"/>
-      <c r="AV61" s="2"/>
-      <c r="AW61" s="2"/>
-      <c r="AX61" s="3"/>
-      <c r="AY61" s="2"/>
-      <c r="AZ61" s="2"/>
-      <c r="BA61" s="2"/>
-      <c r="BB61" s="3"/>
-      <c r="BC61" s="2"/>
-      <c r="BD61" s="2"/>
-      <c r="BE61" s="2"/>
-      <c r="BF61" s="3"/>
-      <c r="BG61" s="2"/>
-      <c r="BH61" s="2"/>
-      <c r="BI61" s="2"/>
-      <c r="BJ61" s="3"/>
-      <c r="BK61" s="2"/>
-      <c r="BL61" s="2"/>
-      <c r="BM61" s="2"/>
-      <c r="BN61" s="3"/>
-      <c r="BO61" s="2"/>
-      <c r="BP61" s="2"/>
-      <c r="BQ61" s="2"/>
-      <c r="BR61" s="3"/>
-      <c r="BS61" s="2"/>
-      <c r="BT61" s="2"/>
-      <c r="BU61" s="2"/>
-      <c r="BV61" s="3"/>
-      <c r="BW61" s="2"/>
-      <c r="BX61" s="2"/>
-      <c r="BY61" s="2"/>
-      <c r="BZ61" s="3"/>
-      <c r="CA61" s="2"/>
-      <c r="CB61" s="2"/>
-      <c r="CC61" s="2"/>
-      <c r="CD61" s="3"/>
-      <c r="CE61" s="2"/>
-      <c r="CF61" s="2"/>
-      <c r="CG61" s="2"/>
-      <c r="CH61" s="3"/>
-      <c r="CI61" s="2"/>
-      <c r="CJ61" s="2"/>
-      <c r="CK61" s="2"/>
-      <c r="CL61" s="3"/>
-      <c r="CM61" s="2"/>
-      <c r="CN61" s="2"/>
-      <c r="CO61" s="2"/>
-      <c r="CP61" s="3"/>
-    </row>
-    <row r="62" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="7">
-        <f>SUM(D7:D60)</f>
-        <v>24</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="32">
-        <f>SUM(G7:J7,G9:J9,G11:J11,G13:J13,G15:J15,G17:J17,G22:J22,G24:J24,G26:J26,G28:J28,G30:J30,G32:J32,G34:J34,G37:J37,G39:J39,G41:J41,G43:J43,G45:J45,G47:J47,G49:J49,G51:J51,G53:J53,G55:J55,G57:J57,G59:J59)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="32">
-        <f>SUM(K7:N7,K9:N9,K11:N11,K13:N13,K15:N15,K17:N17,K22:N22,K24:N24,K26:N26,K28:N28,K30:N30,K32:N32,K34:N34,K37:N37,K39:N39,K41:N41,K43:N43,K45:N45,K47:N47,K49:N49,K51:N51,K53:N53,K55:N55,K57:N57,K59:N59)</f>
-        <v>4.5</v>
-      </c>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="32">
-        <f>SUM(O7:R7,O9:R9,O11:R11,O13:R13,O15:R15,O17:R17,O22:R22,O24:R24,O26:R26,O28:R28,O30:R30,O32:R32,O34:R34,O37:R37,O39:R39,O41:R41,O43:R43,O45:R45,O47:R47,O49:R49,O51:R51,O53:R53,O55:R55,O57:R57,O59:R59)</f>
-        <v>4.5</v>
-      </c>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="32">
-        <f>SUM(S7:V7,S9:V9,S11:V11,S13:V13,S15:V15,S17:V17,S22:V22,S24:V24,S26:V26,S28:V28,S30:V30,S32:V32,S34:V34,S37:V37,S39:V39,S41:V41,S43:V43,S45:V45,S47:V47,S49:V49,S51:V51,S53:V53,S55:V55,S57:V57,S59:V59)</f>
-        <v>1.5</v>
-      </c>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="32">
-        <f>SUM(W7:Z7,W9:Z9,W11:Z11,W13:Z13,W15:Z15,W17:Z17,W22:Z22,W24:Z24,W26:Z26,W28:Z28,W30:Z30,W32:Z32,W34:Z34,W37:Z37,W39:Z39,W41:Z41,W43:Z43,W45:Z45,W47:Z47,W49:Z49,W51:Z51,W53:Z53,W55:Z55,W57:Z57,W59:Z59)</f>
-        <v>1.5</v>
-      </c>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="32">
-        <f>SUM(AA7:AD7,AA9:AD9,AA11:AD11,AA13:AD13,AA15:AD15,AA17:AD17,AA22:AD22,AA24:AD24,AA26:AD26,AA28:AD28,AA30:AD30,AA32:AD32,AA34:AD34,AA37:AD37,AA39:AD39,AA41:AD41,AA43:AD43,AA45:AD45,AA47:AD47,AA49:AD49,AA51:AD51,AA53:AD53,AA55:AD55,AA57:AD57,AA59:AD59)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="33"/>
-      <c r="AD64" s="34"/>
-      <c r="AE64" s="32">
-        <f>SUM(AE7:AH7,AE9:AH9,AE11:AH11,AE13:AH13,AE15:AH15,AE17:AH17,AE22:AH22,AE24:AH24,AE26:AH26,AE28:AH28,AE30:AH30,AE32:AH32,AE34:AH34,AE37:AH37,AE39:AH39,AE41:AH41,AE43:AH43,AE45:AH45,AE47:AH47,AE49:AH49,AE51:AH51,AE53:AH53,AE55:AH55,AE57:AH57,AE59:AH59)</f>
-        <v>1</v>
-      </c>
-      <c r="AF64" s="33"/>
-      <c r="AG64" s="33"/>
-      <c r="AH64" s="34"/>
-      <c r="AI64" s="32">
-        <f>SUM(AI7:AL7,AI9:AL9,AI11:AL11,AI13:AL13,AI15:AL15,AI17:AL17,AI22:AL22,AI24:AL24,AI26:AL26,AI28:AL28,AI30:AL30,AI32:AL32,AI34:AL34,AI37:AL37,AI39:AL39,AI41:AL41,AI43:AL43,AI45:AL45,AI47:AL47,AI49:AL49,AI51:AL51,AI53:AL53,AI55:AL55,AI57:AL57,AI59:AL59)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ64" s="33"/>
-      <c r="AK64" s="33"/>
-      <c r="AL64" s="34"/>
-      <c r="AM64" s="32">
-        <f>SUM(AM7:AP7,AM9:AP9,AM11:AP11,AM13:AP13,AM15:AP15,AM17:AP17,AM22:AP22,AM24:AP24,AM26:AP26,AM28:AP28,AM30:AP30,AM32:AP32,AM34:AP34,AM37:AP37,AM39:AP39,AM41:AP41,AM43:AP43,AM45:AP45,AM47:AP47,AM49:AP49,AM51:AP51,AM53:AP53,AM55:AP55,AM57:AP57,AM59:AP59)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AN64" s="33"/>
-      <c r="AO64" s="33"/>
-      <c r="AP64" s="34"/>
-      <c r="AQ64" s="32">
-        <f>SUM(AQ7:AT7,AQ9:AT9,AQ11:AT11,AQ13:AT13,AQ15:AT15,AQ17:AT17,AQ22:AT22,AQ24:AT24,AQ26:AT26,AQ28:AT28,AQ30:AT30,AQ32:AT32,AQ34:AT34,AQ37:AT37,AQ39:AT39,AQ41:AT41,AQ43:AT43,AQ45:AT45,AQ47:AT47,AQ49:AT49,AQ51:AT51,AQ53:AT53,AQ55:AT55,AQ57:AT57,AQ59:AT59)</f>
-        <v>0</v>
-      </c>
-      <c r="AR64" s="33"/>
-      <c r="AS64" s="33"/>
-      <c r="AT64" s="34"/>
-      <c r="AU64" s="32">
-        <f>SUM(AU7:AX7,AU9:AX9,AU11:AX11,AU13:AX13,AU15:AX15,AU17:AX17,AU22:AX22,AU24:AX24,AU26:AX26,AU28:AX28,AU30:AX30,AU32:AX32,AU34:AX34,AU37:AX37,AU39:AX39,AU41:AX41,AU43:AX43,AU45:AX45,AU47:AX47,AU49:AX49,AU51:AX51,AU53:AX53,AU55:AX55,AU57:AX57,AU59:AX59)</f>
-        <v>0</v>
-      </c>
-      <c r="AV64" s="33"/>
-      <c r="AW64" s="33"/>
-      <c r="AX64" s="34"/>
-      <c r="AY64" s="32">
-        <f>SUM(AY7:BB7,AY9:BB9,AY11:BB11,AY13:BB13,AY15:BB15,AY17:BB17,AY22:BB22,AY24:BB24,AY26:BB26,AY28:BB28,AY30:BB30,AY32:BB32,AY34:BB34,AY37:BB37,AY39:BB39,AY41:BB41,AY43:BB43,AY45:BB45,AY47:BB47,AY49:BB49,AY51:BB51,AY53:BB53,AY55:BB55,AY57:BB57,AY59:BB59)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ64" s="33"/>
-      <c r="BA64" s="33"/>
-      <c r="BB64" s="34"/>
-      <c r="BC64" s="32">
-        <f>SUM(BC7:BF7,BC9:BF9,BC11:BF11,BC13:BF13,BC15:BF15,BC17:BF17,BC22:BF22,BC24:BF24,BC26:BF26,BC28:BF28,BC30:BF30,BC32:BF32,BC34:BF34,BC37:BF37,BC39:BF39,BC41:BF41,BC43:BF43,BC45:BF45,BC47:BF47,BC49:BF49,BC51:BF51,BC53:BF53,BC55:BF55,BC57:BF57,BC59:BF59)</f>
-        <v>0</v>
-      </c>
-      <c r="BD64" s="33"/>
-      <c r="BE64" s="33"/>
-      <c r="BF64" s="34"/>
-      <c r="BG64" s="32">
-        <f>SUM(BG7:BJ7,BG9:BJ9,BG11:BJ11,BG13:BJ13,BG15:BJ15,BG17:BJ17,BG22:BJ22,BG24:BJ24,BG26:BJ26,BG28:BJ28,BG30:BJ30,BG32:BJ32,BG34:BJ34,BG37:BJ37,BG39:BJ39,BG41:BJ41,BG43:BJ43,BG45:BJ45,BG47:BJ47,BG49:BJ49,BG51:BJ51,BG53:BJ53,BG55:BJ55,BG57:BJ57,BG59:BJ59)</f>
-        <v>0</v>
-      </c>
-      <c r="BH64" s="33"/>
-      <c r="BI64" s="33"/>
-      <c r="BJ64" s="34"/>
-      <c r="BK64" s="32">
-        <f>SUM(BK7:BN7,BK9:BN9,BK11:BN11,BK13:BN13,BK15:BN15,BK17:BN17,BK22:BN22,BK24:BN24,BK26:BN26,BK28:BN28,BK30:BN30,BK32:BN32,BK34:BN34,BK37:BN37,BK39:BN39,BK41:BN41,BK43:BN43,BK45:BN45,BK47:BN47,BK49:BN49,BK51:BN51,BK53:BN53,BK55:BN55,BK57:BN57,BK59:BN59)</f>
-        <v>0</v>
-      </c>
-      <c r="BL64" s="33"/>
-      <c r="BM64" s="33"/>
-      <c r="BN64" s="34"/>
-      <c r="BO64" s="32">
-        <f>SUM(BO7:BR7,BO9:BR9,BO11:BR11,BO13:BR13,BO15:BR15,BO17:BR17,BO22:BR22,BO24:BR24,BO26:BR26,BO28:BR28,BO30:BR30,BO32:BR32,BO34:BR34,BO37:BR37,BO39:BR39,BO41:BR41,BO43:BR43,BO45:BR45,BO47:BR47,BO49:BR49,BO51:BR51,BO53:BR53,BO55:BR55,BO57:BR57,BO59:BR59)</f>
-        <v>0</v>
-      </c>
-      <c r="BP64" s="33"/>
-      <c r="BQ64" s="33"/>
-      <c r="BR64" s="34"/>
-      <c r="BS64" s="32">
-        <f>SUM(BS7:BV7,BS9:BV9,BS11:BV11,BS13:BV13,BS15:BV15,BS17:BV17,BS22:BV22,BS24:BV24,BS26:BV26,BS28:BV28,BS30:BV30,BS32:BV32,BS34:BV34,BS37:BV37,BS39:BV39,BS41:BV41,BS43:BV43,BS45:BV45,BS47:BV47,BS49:BV49,BS51:BV51,BS53:BV53,BS55:BV55,BS57:BV57,BS59:BV59)</f>
-        <v>0</v>
-      </c>
-      <c r="BT64" s="33"/>
-      <c r="BU64" s="33"/>
-      <c r="BV64" s="34"/>
-      <c r="BW64" s="32">
-        <f>SUM(BW7:BZ7,BW9:BZ9,BW11:BZ11,BW13:BZ13,BW15:BZ15,BW17:BZ17,BW22:BZ22,BW24:BZ24,BW26:BZ26,BW28:BZ28,BW30:BZ30,BW32:BZ32,BW34:BZ34,BW37:BZ37,BW39:BZ39,BW41:BZ41,BW43:BZ43,BW45:BZ45,BW47:BZ47,BW49:BZ49,BW51:BZ51,BW53:BZ53,BW55:BZ55,BW57:BZ57,BW59:BZ59)</f>
-        <v>0</v>
-      </c>
-      <c r="BX64" s="33"/>
-      <c r="BY64" s="33"/>
-      <c r="BZ64" s="34"/>
-      <c r="CA64" s="32">
-        <f>SUM(CA7:CD7,CA9:CD9,CA11:CD11,CA13:CD13,CA15:CD15,CA17:CD17,CA22:CD22,CA24:CD24,CA26:CD26,CA28:CD28,CA30:CD30,CA32:CD32,CA34:CD34,CA37:CD37,CA39:CD39,CA41:CD41,CA43:CD43,CA45:CD45,CA47:CD47,CA49:CD49,CA51:CD51,CA53:CD53,CA55:CD55,CA57:CD57,CA59:CD59)</f>
-        <v>0</v>
-      </c>
-      <c r="CB64" s="33"/>
-      <c r="CC64" s="33"/>
-      <c r="CD64" s="34"/>
-      <c r="CE64" s="32">
-        <f>SUM(CE7:CH7,CE9:CH9,CE11:CH11,CE13:CH13,CE15:CH15,CE17:CH17,CE22:CH22,CE24:CH24,CE26:CH26,CE28:CH28,CE30:CH30,CE32:CH32,CE34:CH34,CE37:CH37,CE39:CH39,CE41:CH41,CE43:CH43,CE45:CH45,CE47:CH47,CE49:CH49,CE51:CH51,CE53:CH53,CE55:CH55,CE57:CH57,CE59:CH59)</f>
-        <v>0</v>
-      </c>
-      <c r="CF64" s="33"/>
-      <c r="CG64" s="33"/>
-      <c r="CH64" s="34"/>
-      <c r="CI64" s="32">
-        <f>SUM(CI7:CL7,CI9:CL9,CI11:CL11,CI13:CL13,CI15:CL15,CI17:CL17,CI22:CL22,CI24:CL24,CI26:CL26,CI28:CL28,CI30:CL30,CI32:CL32,CI34:CL34,CI37:CL37,CI39:CL39,CI41:CL41,CI43:CL43,CI45:CL45,CI47:CL47,CI49:CL49,CI51:CL51,CI53:CL53,CI55:CL55,CI57:CL57,CI59:CL59)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ64" s="33"/>
-      <c r="CK64" s="33"/>
-      <c r="CL64" s="34"/>
-      <c r="CM64" s="32">
-        <f>SUM(CM7:CP7,CM9:CP9,CM11:CP11,CM13:CP13,CM15:CP15,CM17:CP17,CM22:CP22,CM24:CP24,CM26:CP26,CM28:CP28,CM30:CP30,CM32:CP32,CM34:CP34,CM37:CP37,CM39:CP39,CM41:CP41,CM43:CP43,CM45:CP45,CM47:CP47,CM49:CP49,CM51:CP51,CM53:CP53,CM55:CP55,CM57:CP57,CM59:CP59)</f>
-        <v>0</v>
-      </c>
-      <c r="CN64" s="33"/>
-      <c r="CO64" s="33"/>
-      <c r="CP64" s="34"/>
-    </row>
-    <row r="65" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7">
-        <f>SUM(E7:E60)</f>
-        <v>22.5</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="32">
-        <f>SUM(G8:J8,G10:J10,G12:J12,G14:J14,G16:J16,G18:J18,G23:J23,G25:J25,G27:J27,G29:J29,G31:J31,G33:J33,G35:J35,G38:J38,G40:J40,G42:J42,G44:J44,G46:J46,G48:J48,G50:J50,G52:J52,G54:J54,G56:J56,G58:J58,G60:J60)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="32">
-        <f>SUM(K8:N8,K10:N10,K12:N12,K14:N14,K16:N16,K18:N18,K23:N23,K25:N25,K27:N27,K29:N29,K31:N31,K33:N33,K35:N35,K38:N38,K40:N40,K42:N42,K44:N44,K46:N46,K48:N48,K50:N50,K52:N52,K54:N54,K56:N56,K58:N58,K60:N60)</f>
-        <v>4.5</v>
-      </c>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="32">
-        <f>SUM(O8:R8,O10:R10,O12:R12,O14:R14,O16:R16,O18:R18,O23:R23,O25:R25,O27:R27,O29:R29,O31:R31,O33:R33,O35:R35,O38:R38,O40:R40,O42:R42,O44:R44,O46:R46,O48:R48,O50:R50,O52:R52,O54:R54,O56:R56,O58:R58,O60:R60)</f>
-        <v>4.5</v>
-      </c>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="32">
-        <f>SUM(S8:V8,S10:V10,S12:V12,S14:V14,S16:V16,S18:V18,S23:V23,S25:V25,S27:V27,S29:V29,S31:V31,S33:V33,S35:V35,S38:V38,S40:V40,S42:V42,S44:V44,S46:V46,S48:V48,S50:V50,S52:V52,S54:V54,S56:V56,S58:V58,S60:V60)</f>
-        <v>1.5</v>
-      </c>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="32">
-        <f>SUM(W8:Z8,W10:Z10,W12:Z12,W14:Z14,W16:Z16,W18:Z18,W23:Z23,W25:Z25,W27:Z27,W29:Z29,W31:Z31,W33:Z33,W35:Z35,W38:Z38,W40:Z40,W42:Z42,W44:Z44,W46:Z46,W48:Z48,W50:Z50,W52:Z52,W54:Z54,W56:Z56,W58:Z58,W60:Z60)</f>
-        <v>1.5</v>
-      </c>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="32">
-        <f>SUM(AA8:AD8,AA10:AD10,AA12:AD12,AA14:AD14,AA16:AD16,AA18:AD18,AA23:AD23,AA25:AD25,AA27:AD27,AA29:AD29,AA31:AD31,AA33:AD33,AA35:AD35,AA38:AD38,AA40:AD40,AA42:AD42,AA44:AD44,AA46:AD46,AA48:AD48,AA50:AD50,AA52:AD52,AA54:AD54,AA56:AD56,AA58:AD58,AA60:AD60)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="33"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="32">
-        <f>SUM(AE8:AH8,AE10:AH10,AE12:AH12,AE14:AH14,AE16:AH16,AE18:AH18,AE23:AH23,AE25:AH25,AE27:AH27,AE29:AH29,AE31:AH31,AE33:AH33,AE35:AH35,AE38:AH38,AE40:AH40,AE42:AH42,AE44:AH44,AE46:AH46,AE48:AH48,AE50:AH50,AE52:AH52,AE54:AH54,AE56:AH56,AE58:AH58,AE60:AH60)</f>
-        <v>1</v>
-      </c>
-      <c r="AF65" s="33"/>
-      <c r="AG65" s="33"/>
-      <c r="AH65" s="34"/>
-      <c r="AI65" s="32">
-        <f>SUM(AI8:AL8,AI10:AL10,AI12:AL12,AI14:AL14,AI16:AL16,AI18:AL18,AI23:AL23,AI25:AL25,AI27:AL27,AI29:AL29,AI31:AL31,AI33:AL33,AI35:AL35,AI38:AL38,AI40:AL40,AI42:AL42,AI44:AL44,AI46:AL46,AI48:AL48,AI50:AL50,AI52:AL52,AI54:AL54,AI56:AL56,AI58:AL58,AI60:AL60)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AJ65" s="33"/>
-      <c r="AK65" s="33"/>
-      <c r="AL65" s="34"/>
-      <c r="AM65" s="32">
-        <f>SUM(AM8:AP8,AM10:AP10,AM12:AP12,AM14:AP14,AM16:AP16,AM18:AP18,AM23:AP23,AM25:AP25,AM27:AP27,AM29:AP29,AM31:AP31,AM33:AP33,AM35:AP35,AM38:AP38,AM40:AP40,AM42:AP42,AM44:AP44,AM46:AP46,AM48:AP48,AM50:AP50,AM52:AP52,AM54:AP54,AM56:AP56,AM58:AP58,AM60:AP60)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AN65" s="33"/>
-      <c r="AO65" s="33"/>
-      <c r="AP65" s="34"/>
-      <c r="AQ65" s="32">
-        <f>SUM(AQ8:AT8,AQ10:AT10,AQ12:AT12,AQ14:AT14,AQ16:AT16,AQ18:AT18,AQ23:AT23,AQ25:AT25,AQ27:AT27,AQ29:AT29,AQ31:AT31,AQ33:AT33,AQ35:AT35,AQ38:AT38,AQ40:AT40,AQ42:AT42,AQ44:AT44,AQ46:AT46,AQ48:AT48,AQ50:AT50,AQ52:AT52,AQ54:AT54,AQ56:AT56,AQ58:AT58,AQ60:AT60)</f>
-        <v>0</v>
-      </c>
-      <c r="AR65" s="33"/>
-      <c r="AS65" s="33"/>
-      <c r="AT65" s="34"/>
-      <c r="AU65" s="32">
-        <f>SUM(AU8:AX8,AU10:AX10,AU12:AX12,AU14:AX14,AU16:AX16,AU18:AX18,AU23:AX23,AU25:AX25,AU27:AX27,AU29:AX29,AU31:AX31,AU33:AX33,AU35:AX35,AU38:AX38,AU40:AX40,AU42:AX42,AU44:AX44,AU46:AX46,AU48:AX48,AU50:AX50,AU52:AX52,AU54:AX54,AU56:AX56,AU58:AX58,AU60:AX60)</f>
-        <v>0</v>
-      </c>
-      <c r="AV65" s="33"/>
-      <c r="AW65" s="33"/>
-      <c r="AX65" s="34"/>
-      <c r="AY65" s="32">
-        <f>SUM(AY8:BB8,AY10:BB10,AY12:BB12,AY14:BB14,AY16:BB16,AY18:BB18,AY23:BB23,AY25:BB25,AY27:BB27,AY29:BB29,AY31:BB31,AY33:BB33,AY35:BB35,AY38:BB38,AY40:BB40,AY42:BB42,AY44:BB44,AY46:BB46,AY48:BB48,AY50:BB50,AY52:BB52,AY54:BB54,AY56:BB56,AY58:BB58,AY60:BB60)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="33"/>
-      <c r="BA65" s="33"/>
-      <c r="BB65" s="34"/>
-      <c r="BC65" s="32">
-        <f>SUM(BC8:BF8,BC10:BF10,BC12:BF12,BC14:BF14,BC16:BF16,BC18:BF18,BC23:BF23,BC25:BF25,BC27:BF27,BC29:BF29,BC31:BF31,BC33:BF33,BC35:BF35,BC38:BF38,BC40:BF40,BC42:BF42,BC44:BF44,BC46:BF46,BC48:BF48,BC50:BF50,BC52:BF52,BC54:BF54,BC56:BF56,BC58:BF58,BC60:BF60)</f>
-        <v>0</v>
-      </c>
-      <c r="BD65" s="33"/>
-      <c r="BE65" s="33"/>
-      <c r="BF65" s="34"/>
-      <c r="BG65" s="32">
-        <f>SUM(BG8:BJ8,BG10:BJ10,BG12:BJ12,BG14:BJ14,BG16:BJ16,BG18:BJ18,BG23:BJ23,BG25:BJ25,BG27:BJ27,BG29:BJ29,BG31:BJ31,BG33:BJ33,BG35:BJ35,BG38:BJ38,BG40:BJ40,BG42:BJ42,BG44:BJ44,BG46:BJ46,BG48:BJ48,BG50:BJ50,BG52:BJ52,BG54:BJ54,BG56:BJ56,BG58:BJ58,BG60:BJ60)</f>
-        <v>0</v>
-      </c>
-      <c r="BH65" s="33"/>
-      <c r="BI65" s="33"/>
-      <c r="BJ65" s="34"/>
-      <c r="BK65" s="32">
-        <f>SUM(BK8:BN8,BK10:BN10,BK12:BN12,BK14:BN14,BK16:BN16,BK18:BN18,BK23:BN23,BK25:BN25,BK27:BN27,BK29:BN29,BK31:BN31,BK33:BN33,BK35:BN35,BK38:BN38,BK40:BN40,BK42:BN42,BK44:BN44,BK46:BN46,BK48:BN48,BK50:BN50,BK52:BN52,BK54:BN54,BK56:BN56,BK58:BN58,BK60:BN60)</f>
-        <v>0</v>
-      </c>
-      <c r="BL65" s="33"/>
-      <c r="BM65" s="33"/>
-      <c r="BN65" s="34"/>
-      <c r="BO65" s="32">
-        <f>SUM(BO8:BR8,BO10:BR10,BO12:BR12,BO14:BR14,BO16:BR16,BO18:BR18,BO23:BR23,BO25:BR25,BO27:BR27,BO29:BR29,BO31:BR31,BO33:BR33,BO35:BR35,BO38:BR38,BO40:BR40,BO42:BR42,BO44:BR44,BO46:BR46,BO48:BR48,BO50:BR50,BO52:BR52,BO54:BR54,BO56:BR56,BO58:BR58,BO60:BR60)</f>
-        <v>0</v>
-      </c>
-      <c r="BP65" s="33"/>
-      <c r="BQ65" s="33"/>
-      <c r="BR65" s="34"/>
-      <c r="BS65" s="32">
-        <f>SUM(BS8:BV8,BS10:BV10,BS12:BV12,BS14:BV14,BS16:BV16,BS18:BV18,BS23:BV23,BS25:BV25,BS27:BV27,BS29:BV29,BS31:BV31,BS33:BV33,BS35:BV35,BS38:BV38,BS40:BV40,BS42:BV42,BS44:BV44,BS46:BV46,BS48:BV48,BS50:BV50,BS52:BV52,BS54:BV54,BS56:BV56,BS58:BV58,BS60:BV60)</f>
-        <v>0</v>
-      </c>
-      <c r="BT65" s="33"/>
-      <c r="BU65" s="33"/>
-      <c r="BV65" s="34"/>
-      <c r="BW65" s="32">
-        <f>SUM(BW8:BZ8,BW10:BZ10,BW12:BZ12,BW14:BZ14,BW16:BZ16,BW18:BZ18,BW23:BZ23,BW25:BZ25,BW27:BZ27,BW29:BZ29,BW31:BZ31,BW33:BZ33,BW35:BZ35,BW38:BZ38,BW40:BZ40,BW42:BZ42,BW44:BZ44,BW46:BZ46,BW48:BZ48,BW50:BZ50,BW52:BZ52,BW54:BZ54,BW56:BZ56,BW58:BZ58,BW60:BZ60)</f>
-        <v>0</v>
-      </c>
-      <c r="BX65" s="33"/>
-      <c r="BY65" s="33"/>
-      <c r="BZ65" s="34"/>
-      <c r="CA65" s="32">
-        <f>SUM(CA8:CD8,CA10:CD10,CA12:CD12,CA14:CD14,CA16:CD16,CA18:CD18,CA23:CD23,CA25:CD25,CA27:CD27,CA29:CD29,CA31:CD31,CA33:CD33,CA35:CD35,CA38:CD38,CA40:CD40,CA42:CD42,CA44:CD44,CA46:CD46,CA48:CD48,CA50:CD50,CA52:CD52,CA54:CD54,CA56:CD56,CA58:CD58,CA60:CD60)</f>
-        <v>0</v>
-      </c>
-      <c r="CB65" s="33"/>
-      <c r="CC65" s="33"/>
-      <c r="CD65" s="34"/>
-      <c r="CE65" s="32">
-        <f>SUM(CE8:CH8,CE10:CH10,CE12:CH12,CE14:CH14,CE16:CH16,CE18:CH18,CE23:CH23,CE25:CH25,CE27:CH27,CE29:CH29,CE31:CH31,CE33:CH33,CE35:CH35,CE38:CH38,CE40:CH40,CE42:CH42,CE44:CH44,CE46:CH46,CE48:CH48,CE50:CH50,CE52:CH52,CE54:CH54,CE56:CH56,CE58:CH58,CE60:CH60)</f>
-        <v>0</v>
-      </c>
-      <c r="CF65" s="33"/>
-      <c r="CG65" s="33"/>
-      <c r="CH65" s="34"/>
-      <c r="CI65" s="32">
-        <f>SUM(CI8:CL8,CI10:CL10,CI12:CL12,CI14:CL14,CI16:CL16,CI18:CL18,CI23:CL23,CI25:CL25,CI27:CL27,CI29:CL29,CI31:CL31,CI33:CL33,CI35:CL35,CI38:CL38,CI40:CL40,CI42:CL42,CI44:CL44,CI46:CL46,CI48:CL48,CI50:CL50,CI52:CL52,CI54:CL54,CI56:CL56,CI58:CL58,CI60:CL60)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ65" s="33"/>
-      <c r="CK65" s="33"/>
-      <c r="CL65" s="34"/>
-      <c r="CM65" s="32">
-        <f>SUM(CM8:CP8,CM10:CP10,CM12:CP12,CM14:CP14,CM16:CP16,CM18:CP18,CM23:CP23,CM25:CP25,CM27:CP27,CM29:CP29,CM31:CP31,CM33:CP33,CM35:CP35,CM38:CP38,CM40:CP40,CM42:CP42,CM44:CP44,CM46:CP46,CM48:CP48,CM50:CP50,CM52:CP52,CM54:CP54,CM56:CP56,CM58:CP58,CM60:CP60)</f>
-        <v>0</v>
-      </c>
-      <c r="CN65" s="33"/>
-      <c r="CO65" s="33"/>
-      <c r="CP65" s="34"/>
-    </row>
-    <row r="66" spans="3:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" s="6" t="s">
+    <row r="62" spans="3:94" x14ac:dyDescent="0.3">
+      <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="50">
-        <f>D64-E65</f>
-        <v>1.5</v>
-      </c>
-      <c r="E66" s="51"/>
+      <c r="D62" s="62">
+        <f>D60-E61</f>
+        <v>-6.5</v>
+      </c>
+      <c r="E62" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="243">
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
+  <mergeCells count="304">
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
@@ -7242,92 +6958,83 @@
     <mergeCell ref="W16:X16"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="AI65:AL65"/>
-    <mergeCell ref="AM65:AP65"/>
-    <mergeCell ref="AQ65:AT65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="AI64:AL64"/>
-    <mergeCell ref="AM64:AP64"/>
-    <mergeCell ref="AQ64:AT64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="S65:V65"/>
-    <mergeCell ref="W65:Z65"/>
-    <mergeCell ref="AA65:AD65"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="S64:V64"/>
-    <mergeCell ref="W64:Z64"/>
-    <mergeCell ref="AA64:AD64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AQ61:AT61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="AE60:AH60"/>
+    <mergeCell ref="AI60:AL60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AQ60:AT60"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="W61:Z61"/>
+    <mergeCell ref="AA61:AD61"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AA60:AD60"/>
     <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="AE61:AH61"/>
+    <mergeCell ref="AI61:AL61"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
@@ -7339,14 +7046,15 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
@@ -7394,6 +7102,7 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="AI4:AL4"/>
@@ -7403,66 +7112,140 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AU4:AX4"/>
     <mergeCell ref="AU5:AV5"/>
     <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AU64:AX64"/>
-    <mergeCell ref="AU65:AX65"/>
+    <mergeCell ref="AU60:AX60"/>
+    <mergeCell ref="AU61:AX61"/>
     <mergeCell ref="AY4:BB4"/>
     <mergeCell ref="AY5:AZ5"/>
     <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AY64:BB64"/>
-    <mergeCell ref="AY65:BB65"/>
+    <mergeCell ref="AY60:BB60"/>
+    <mergeCell ref="AY61:BB61"/>
     <mergeCell ref="BC4:BF4"/>
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BC64:BF64"/>
-    <mergeCell ref="BC65:BF65"/>
+    <mergeCell ref="BC60:BF60"/>
+    <mergeCell ref="BC61:BF61"/>
     <mergeCell ref="BG4:BJ4"/>
     <mergeCell ref="BG5:BH5"/>
     <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BG64:BJ64"/>
-    <mergeCell ref="BG65:BJ65"/>
+    <mergeCell ref="BG60:BJ60"/>
+    <mergeCell ref="BG61:BJ61"/>
+    <mergeCell ref="BE30:BF30"/>
+    <mergeCell ref="BG33:BH33"/>
+    <mergeCell ref="BI33:BJ33"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BC29:BD29"/>
+    <mergeCell ref="BQ40:BR40"/>
     <mergeCell ref="BK4:BN4"/>
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BK64:BN64"/>
-    <mergeCell ref="BK65:BN65"/>
+    <mergeCell ref="BK60:BN60"/>
+    <mergeCell ref="BK61:BN61"/>
     <mergeCell ref="BO4:BR4"/>
     <mergeCell ref="BO5:BP5"/>
     <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BO64:BR64"/>
-    <mergeCell ref="BO65:BR65"/>
+    <mergeCell ref="BO60:BR60"/>
+    <mergeCell ref="BO61:BR61"/>
+    <mergeCell ref="BK35:BL35"/>
+    <mergeCell ref="BK37:BL37"/>
+    <mergeCell ref="BM37:BN37"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BK36:BL36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BM35:BN35"/>
+    <mergeCell ref="BM33:BN33"/>
+    <mergeCell ref="BO37:BP37"/>
     <mergeCell ref="BS4:BV4"/>
     <mergeCell ref="BS5:BT5"/>
     <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BS64:BV64"/>
-    <mergeCell ref="BS65:BV65"/>
+    <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="BO38:BP38"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BS60:BV60"/>
+    <mergeCell ref="BS61:BV61"/>
     <mergeCell ref="BW4:BZ4"/>
     <mergeCell ref="BW5:BX5"/>
     <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BW64:BZ64"/>
-    <mergeCell ref="BW65:BZ65"/>
+    <mergeCell ref="BW60:BZ60"/>
+    <mergeCell ref="BW61:BZ61"/>
+    <mergeCell ref="BW43:BX43"/>
+    <mergeCell ref="CA47:CB47"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BW44:BX44"/>
+    <mergeCell ref="CA46:CB46"/>
+    <mergeCell ref="BS41:BT41"/>
+    <mergeCell ref="BU41:BV41"/>
+    <mergeCell ref="CC47:CD47"/>
+    <mergeCell ref="BY43:BZ43"/>
     <mergeCell ref="CA4:CD4"/>
     <mergeCell ref="CA5:CB5"/>
     <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CA64:CD64"/>
-    <mergeCell ref="CA65:CD65"/>
+    <mergeCell ref="CA60:CD60"/>
+    <mergeCell ref="CA61:CD61"/>
     <mergeCell ref="CE4:CH4"/>
     <mergeCell ref="CE5:CF5"/>
     <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="CE64:CH64"/>
-    <mergeCell ref="CE65:CH65"/>
+    <mergeCell ref="CE60:CH60"/>
+    <mergeCell ref="CE61:CH61"/>
+    <mergeCell ref="CA45:CB45"/>
+    <mergeCell ref="CC49:CD49"/>
+    <mergeCell ref="CE51:CF51"/>
+    <mergeCell ref="CG53:CH53"/>
+    <mergeCell ref="CG51:CH51"/>
+    <mergeCell ref="CG42:CH42"/>
+    <mergeCell ref="BY44:BZ44"/>
+    <mergeCell ref="CC48:CD48"/>
+    <mergeCell ref="CG48:CH48"/>
+    <mergeCell ref="CC46:CD46"/>
+    <mergeCell ref="CC50:CD50"/>
+    <mergeCell ref="CG52:CH52"/>
     <mergeCell ref="CI4:CL4"/>
     <mergeCell ref="CI5:CJ5"/>
     <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="CI64:CL64"/>
-    <mergeCell ref="CI65:CL65"/>
+    <mergeCell ref="CI60:CL60"/>
+    <mergeCell ref="CI61:CL61"/>
     <mergeCell ref="CM4:CP4"/>
     <mergeCell ref="CM5:CN5"/>
     <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CM64:CP64"/>
-    <mergeCell ref="CM65:CP65"/>
+    <mergeCell ref="CM60:CP60"/>
+    <mergeCell ref="CM61:CP61"/>
+    <mergeCell ref="CI53:CJ53"/>
+    <mergeCell ref="CK53:CL53"/>
+    <mergeCell ref="CK29:CL29"/>
+    <mergeCell ref="CI54:CJ54"/>
+    <mergeCell ref="CK54:CL54"/>
+    <mergeCell ref="CM56:CN56"/>
+    <mergeCell ref="CO56:CP56"/>
+    <mergeCell ref="CE52:CF52"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="CM55:CN55"/>
+    <mergeCell ref="CO55:CP55"/>
+    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="AY24:AZ24"/>
+    <mergeCell ref="BC26:BD26"/>
+    <mergeCell ref="AY26:AZ26"/>
+    <mergeCell ref="BC28:BD28"/>
+    <mergeCell ref="BC30:BD30"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="AW22:AX22"/>
+    <mergeCell ref="BA26:BB26"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="BA25:BB25"/>
+    <mergeCell ref="AY27:AZ27"/>
+    <mergeCell ref="BA27:BB27"/>
+    <mergeCell ref="BC31:BD31"/>
+    <mergeCell ref="BE31:BF31"/>
+    <mergeCell ref="BG34:BH34"/>
+    <mergeCell ref="BI34:BJ34"/>
+    <mergeCell ref="BM34:BN34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
